--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Question Number</t>
   </si>
@@ -245,6 +245,72 @@
   </si>
   <si>
     <t>Minimum Window Subsequence</t>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>多指针：流</t>
+  </si>
+  <si>
+    <t>Moving Average from Data Stream</t>
+  </si>
+  <si>
+    <t>Data Stream as Disjoint Intervals</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in a Stream</t>
+  </si>
+  <si>
+    <t>53(Medium)</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+  </si>
+  <si>
+    <t>多指针：前项和</t>
+  </si>
+  <si>
+    <t>Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>Range Sum Query - Immutable</t>
+  </si>
+  <si>
+    <t>Maximum Size Subarray Sum Equals k</t>
+  </si>
+  <si>
+    <t>Random Pick with Weight</t>
+  </si>
+  <si>
+    <t>Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>多指针：和差问题</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t>4Sum</t>
+  </si>
+  <si>
+    <t>Two Sum II - Input array is sorted</t>
+  </si>
+  <si>
+    <t>Two Sum III - Data structure design</t>
+  </si>
+  <si>
+    <t>Two Sum IV - Input is a BST</t>
+  </si>
+  <si>
+    <t>Two Sum Less Than K</t>
+  </si>
+  <si>
+    <t>3Sum Smaller</t>
   </si>
 </sst>
 </file>
@@ -252,10 +318,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -295,6 +361,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -302,8 +392,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,113 +491,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,13 +506,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,85 +668,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,79 +686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,28 +700,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,44 +748,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,147 +777,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1225,10 +1291,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1690,7 +1756,7 @@
       <c r="B47" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1701,7 +1767,7 @@
       <c r="B48" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="7"/>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
@@ -1710,7 +1776,7 @@
       <c r="B49" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="7"/>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
@@ -1719,17 +1785,20 @@
       <c r="B50" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="7"/>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>65</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="2" t="s">
         <v>67</v>
+      </c>
+      <c r="D51" s="3">
+        <v>45004</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1739,7 +1808,7 @@
       <c r="B52" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="7"/>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
@@ -1748,7 +1817,7 @@
       <c r="B53" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="7"/>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
@@ -1757,7 +1826,7 @@
       <c r="B54" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="7"/>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
@@ -1766,7 +1835,7 @@
       <c r="B55" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="7"/>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
@@ -1775,7 +1844,7 @@
       <c r="B56" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="7"/>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
@@ -1784,7 +1853,7 @@
       <c r="B57" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="7"/>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
@@ -1793,7 +1862,7 @@
       <c r="B58" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="7"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
@@ -1802,7 +1871,7 @@
       <c r="B59" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="7"/>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
@@ -1811,10 +1880,181 @@
       <c r="B60" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="7"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>295</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>346</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="7"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>352</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="7"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>703</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="7"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="3">
+        <v>45004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>238</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="7"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>303</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="7"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>325</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="7"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>528</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="7"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>560</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="7"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="7"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>18</v>
+      </c>
+      <c r="B73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="7"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>167</v>
+      </c>
+      <c r="B74" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="7"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>170</v>
+      </c>
+      <c r="B75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="7"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>653</v>
+      </c>
+      <c r="B76" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="7"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>1099</v>
+      </c>
+      <c r="B77" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="7"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>259</v>
+      </c>
+      <c r="B78" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="C16:C18"/>
@@ -1823,6 +2063,9 @@
     <mergeCell ref="C42:C46"/>
     <mergeCell ref="C47:C50"/>
     <mergeCell ref="C51:C60"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="C71:C78"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11600"/>
+    <workbookView windowWidth="28800" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>Question Number</t>
   </si>
@@ -286,6 +286,9 @@
     <t>Subarray Sum Equals K</t>
   </si>
   <si>
+    <t>1(Easy)</t>
+  </si>
+  <si>
     <t>Two Sum</t>
   </si>
   <si>
@@ -311,6 +314,87 @@
   </si>
   <si>
     <t>3Sum Smaller</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>BFS：二叉树</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree Zigzag Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal II</t>
+  </si>
+  <si>
+    <t>Find Bottom Left Tree Value</t>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <t>BFS：拓扑排序</t>
+  </si>
+  <si>
+    <t>Course Schedule II</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alien Dictionary</t>
+  </si>
+  <si>
+    <t>Sequence Reconstruction</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>BFS：矩阵</t>
+  </si>
+  <si>
+    <t>The Maze</t>
+  </si>
+  <si>
+    <t>The Maze II</t>
+  </si>
+  <si>
+    <t>01 Matrix</t>
+  </si>
+  <si>
+    <t>Flood Fill</t>
+  </si>
+  <si>
+    <t>Rotting Oranges</t>
+  </si>
+  <si>
+    <t>Number of Islands II</t>
+  </si>
+  <si>
+    <t>Sliding Puzzle</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>BFS：Graph</t>
+  </si>
+  <si>
+    <t>Word Ladder</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>Keys and Rooms</t>
+  </si>
+  <si>
+    <t>Number of Connected Components in an Undirected Graph</t>
+  </si>
+  <si>
+    <t>Jump Game III</t>
   </si>
 </sst>
 </file>
@@ -318,10 +402,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -361,11 +445,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,18 +467,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,7 +492,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,74 +559,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,6 +572,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -506,25 +590,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,7 +692,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,145 +758,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,15 +781,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -720,6 +795,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,21 +847,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -797,147 +866,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1291,10 +1375,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1889,7 +1973,7 @@
       <c r="B61" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1900,7 +1984,7 @@
       <c r="B62" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="7"/>
+      <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
@@ -1909,7 +1993,7 @@
       <c r="B63" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="7"/>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
@@ -1918,7 +2002,7 @@
       <c r="B64" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C64" s="7"/>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
@@ -1927,7 +2011,7 @@
       <c r="B65" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D65" s="3">
@@ -1941,7 +2025,7 @@
       <c r="B66" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="7"/>
+      <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
@@ -1950,7 +2034,7 @@
       <c r="B67" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="7"/>
+      <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
@@ -1959,7 +2043,7 @@
       <c r="B68" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C68" s="7"/>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
@@ -1968,7 +2052,7 @@
       <c r="B69" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C69" s="7"/>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
@@ -1977,84 +2061,305 @@
       <c r="B70" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C70" s="7"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
         <v>90</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="B71" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="3">
+        <v>45005</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
         <v>15</v>
       </c>
-      <c r="B72" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="7"/>
+      <c r="B72" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
         <v>18</v>
       </c>
-      <c r="B73" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="7"/>
+      <c r="B73" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
         <v>167</v>
       </c>
-      <c r="B74" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74" s="7"/>
+      <c r="B74" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
         <v>170</v>
       </c>
-      <c r="B75" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75" s="7"/>
+      <c r="B75" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
         <v>653</v>
       </c>
-      <c r="B76" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="7"/>
+      <c r="B76" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
         <v>1099</v>
       </c>
-      <c r="B77" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" s="7"/>
+      <c r="B77" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
         <v>259</v>
       </c>
-      <c r="B78" t="s">
-        <v>98</v>
-      </c>
-      <c r="C78" s="7"/>
+      <c r="B78" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>297</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D79" s="3">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>102</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="7"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>103</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" s="7"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>107</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="7"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>513</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" s="7"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>207</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>210</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" s="7"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>269</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" s="7"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>444</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C87" s="7"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>200</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>490</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" s="7"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>505</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C90" s="7"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>542</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" s="7"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>733</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C92" s="7"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>994</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" s="7"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>305</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" s="7"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>773</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C95" s="7"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>133</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>127</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="7"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>261</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98" s="7"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>841</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" s="7"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>323</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" s="7"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>1306</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="C16:C18"/>
@@ -2066,6 +2371,10 @@
     <mergeCell ref="C61:C64"/>
     <mergeCell ref="C65:C70"/>
     <mergeCell ref="C71:C78"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C88:C95"/>
+    <mergeCell ref="C96:C101"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Question Number</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>3Sum Smaller</t>
+  </si>
+  <si>
+    <t>297(Hard)</t>
   </si>
   <si>
     <t>Serialize and Deserialize Binary Tree</t>
@@ -1378,7 +1381,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2141,14 +2144,14 @@
       <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79">
-        <v>297</v>
+      <c r="A79" t="s">
+        <v>100</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D79" s="3">
         <v>45005</v>
@@ -2159,7 +2162,7 @@
         <v>102</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C80" s="7"/>
     </row>
@@ -2168,7 +2171,7 @@
         <v>103</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C81" s="7"/>
     </row>
@@ -2177,7 +2180,7 @@
         <v>107</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C82" s="7"/>
     </row>
@@ -2186,7 +2189,7 @@
         <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C83" s="7"/>
     </row>
@@ -2195,10 +2198,10 @@
         <v>207</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2206,7 +2209,7 @@
         <v>210</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C85" s="7"/>
     </row>
@@ -2215,7 +2218,7 @@
         <v>269</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C86" s="7"/>
     </row>
@@ -2224,7 +2227,7 @@
         <v>444</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C87" s="7"/>
     </row>
@@ -2233,10 +2236,10 @@
         <v>200</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2244,7 +2247,7 @@
         <v>490</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C89" s="7"/>
     </row>
@@ -2253,7 +2256,7 @@
         <v>505</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C90" s="7"/>
     </row>
@@ -2262,7 +2265,7 @@
         <v>542</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C91" s="7"/>
     </row>
@@ -2271,7 +2274,7 @@
         <v>733</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C92" s="7"/>
     </row>
@@ -2280,7 +2283,7 @@
         <v>994</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C93" s="7"/>
     </row>
@@ -2289,7 +2292,7 @@
         <v>305</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C94" s="7"/>
     </row>
@@ -2298,7 +2301,7 @@
         <v>773</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C95" s="7"/>
     </row>
@@ -2307,10 +2310,10 @@
         <v>133</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2318,7 +2321,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C97" s="7"/>
     </row>
@@ -2327,7 +2330,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C98" s="7"/>
     </row>
@@ -2336,7 +2339,7 @@
         <v>841</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C99" s="7"/>
     </row>
@@ -2345,7 +2348,7 @@
         <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C100" s="7"/>
     </row>
@@ -2354,7 +2357,7 @@
         <v>1306</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C101" s="7"/>
     </row>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Question Number</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>Sequence Reconstruction</t>
+  </si>
+  <si>
+    <t>200(M)</t>
   </si>
   <si>
     <t>Number of Islands</t>
@@ -1380,8 +1383,8 @@
   <sheetPr/>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2231,15 +2234,18 @@
       </c>
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88">
-        <v>200</v>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>112</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="D88" s="3">
+        <v>45005</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2247,7 +2253,7 @@
         <v>490</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C89" s="7"/>
     </row>
@@ -2256,7 +2262,7 @@
         <v>505</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C90" s="7"/>
     </row>
@@ -2265,7 +2271,7 @@
         <v>542</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C91" s="7"/>
     </row>
@@ -2274,7 +2280,7 @@
         <v>733</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C92" s="7"/>
     </row>
@@ -2283,7 +2289,7 @@
         <v>994</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C93" s="7"/>
     </row>
@@ -2292,7 +2298,7 @@
         <v>305</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C94" s="7"/>
     </row>
@@ -2301,7 +2307,7 @@
         <v>773</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C95" s="7"/>
     </row>
@@ -2310,10 +2316,10 @@
         <v>133</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2321,7 +2327,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C97" s="7"/>
     </row>
@@ -2330,7 +2336,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C98" s="7"/>
     </row>
@@ -2339,7 +2345,7 @@
         <v>841</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C99" s="7"/>
     </row>
@@ -2348,7 +2354,7 @@
         <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C100" s="7"/>
     </row>
@@ -2357,7 +2363,7 @@
         <v>1306</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C101" s="7"/>
     </row>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -1383,8 +1383,8 @@
   <sheetPr/>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>133</v>
       </c>
@@ -2320,6 +2320,9 @@
       </c>
       <c r="C96" s="7" t="s">
         <v>123</v>
+      </c>
+      <c r="D96" s="3">
+        <v>45005</v>
       </c>
     </row>
     <row r="97" spans="1:3">

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="167">
   <si>
     <t>Question Number</t>
   </si>
@@ -352,7 +352,7 @@
     <t>Sequence Reconstruction</t>
   </si>
   <si>
-    <t>200(M)</t>
+    <t>200(Medium)</t>
   </si>
   <si>
     <t>Number of Islands</t>
@@ -382,6 +382,9 @@
     <t>Sliding Puzzle</t>
   </si>
   <si>
+    <t>133(Medium</t>
+  </si>
+  <si>
     <t>Clone Graph</t>
   </si>
   <si>
@@ -401,6 +404,117 @@
   </si>
   <si>
     <t>Jump Game III</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>二叉树前中后序遍历</t>
+  </si>
+  <si>
+    <t>Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>反向复原二叉树</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Inorder and Postorder Traversal</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Postorder Traversal</t>
+  </si>
+  <si>
+    <t>Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>Iterator related</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Inorder Successor in BST</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value II</t>
+  </si>
+  <si>
+    <t>Inorder Successor in BST II</t>
+  </si>
+  <si>
+    <t>validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>判断树的形态</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>Symmetric Tree</t>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>Minimum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>子树相关问题</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Largest BST Subtree</t>
+  </si>
+  <si>
+    <t>Path Sum</t>
+  </si>
+  <si>
+    <t>路径问题</t>
+  </si>
+  <si>
+    <t>Path Sum II</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence II</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>Verify Preorder Serialization of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize BST</t>
+  </si>
+  <si>
+    <t>Flatten Binary Tree to Linked List</t>
   </si>
 </sst>
 </file>
@@ -1381,10 +1495,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2312,14 +2426,14 @@
       <c r="C95" s="7"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96">
-        <v>133</v>
+      <c r="A96" t="s">
+        <v>122</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D96" s="3">
         <v>45005</v>
@@ -2330,7 +2444,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C97" s="7"/>
     </row>
@@ -2339,7 +2453,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C98" s="7"/>
     </row>
@@ -2348,7 +2462,7 @@
         <v>841</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C99" s="7"/>
     </row>
@@ -2357,7 +2471,7 @@
         <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C100" s="7"/>
     </row>
@@ -2366,12 +2480,298 @@
         <v>1306</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C101" s="7"/>
     </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>94</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>144</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" s="7"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>145</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C104" s="7"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C106" s="7"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>889</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C107" s="7"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>173</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>30</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C109" s="7"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>285</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C110" s="7"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>270</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C111" s="7"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>272</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C112" s="7"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>510</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C113" s="7"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>98</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>100</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C115" s="7"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>101</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C116" s="7"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>110</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C117" s="7"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>111</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>104</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C119" s="7"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>333</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" s="7"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>112</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>113</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C122" s="7"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>124</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C123" s="7"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>298</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C124" s="7"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>549</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C125" s="7"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>236</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>199</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>513</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C128" s="7"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>331</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C129" s="7"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>449</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C130" s="7"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>114</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C131" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="22">
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="C16:C18"/>
@@ -2387,6 +2787,13 @@
     <mergeCell ref="C84:C87"/>
     <mergeCell ref="C88:C95"/>
     <mergeCell ref="C96:C101"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C108:C113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="C127:C131"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="296">
   <si>
     <t>Question Number</t>
   </si>
@@ -406,12 +406,18 @@
     <t>Jump Game III</t>
   </si>
   <si>
+    <t>94(Easy)</t>
+  </si>
+  <si>
     <t>Binary Tree Inorder Traversal</t>
   </si>
   <si>
     <t>二叉树前中后序遍历</t>
   </si>
   <si>
+    <t>144(Easy)</t>
+  </si>
+  <si>
     <t>Binary Tree Preorder Traversal</t>
   </si>
   <si>
@@ -515,6 +521,387 @@
   </si>
   <si>
     <t>Flatten Binary Tree to Linked List</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+  </si>
+  <si>
+    <t>DFS：排列组合</t>
+  </si>
+  <si>
+    <t>Combination Sum II</t>
+  </si>
+  <si>
+    <t>Permutations</t>
+  </si>
+  <si>
+    <t>Permutations II</t>
+  </si>
+  <si>
+    <t>Combinations</t>
+  </si>
+  <si>
+    <t>Subsets</t>
+  </si>
+  <si>
+    <t>Subsets II</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>N-Queens</t>
+  </si>
+  <si>
+    <t>Factor Combinations</t>
+  </si>
+  <si>
+    <t>Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>Increasing Subsequences</t>
+  </si>
+  <si>
+    <t>Sudoku Solver</t>
+  </si>
+  <si>
+    <t>N-Queens II</t>
+  </si>
+  <si>
+    <t>Restore IP Addresses</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>DFS：二叉树</t>
+  </si>
+  <si>
+    <t>Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>Word Break II</t>
+  </si>
+  <si>
+    <t>DFS：Graph</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t>Critical Connections in a Network</t>
+  </si>
+  <si>
+    <t>Word Ladder II</t>
+  </si>
+  <si>
+    <t>Word Pattern</t>
+  </si>
+  <si>
+    <t>Word Pattern II</t>
+  </si>
+  <si>
+    <t>Find All Duplicates in an Array</t>
+  </si>
+  <si>
+    <t>数据结构：Array&amp;Matrix</t>
+  </si>
+  <si>
+    <t>Rotate Image</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>Game of Life</t>
+  </si>
+  <si>
+    <t>ZigZag Conversion</t>
+  </si>
+  <si>
+    <t>数据结构：String</t>
+  </si>
+  <si>
+    <t>Roman to Integer</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>Text Justification</t>
+  </si>
+  <si>
+    <t>String Compression</t>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+  </si>
+  <si>
+    <t>数据结构：LinkedList</t>
+  </si>
+  <si>
+    <t>Reverse Nodes in k-Group</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List II</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List</t>
+  </si>
+  <si>
+    <t>Reverse Linked List II</t>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>Sort List</t>
+  </si>
+  <si>
+    <t>Remove Linked List Elements</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Add Two Numbers II</t>
+  </si>
+  <si>
+    <t>Design HashMap</t>
+  </si>
+  <si>
+    <t>数据结构：Hash</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Verifying an Alien Dictionary</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>数据结构：Heap</t>
+  </si>
+  <si>
+    <t>Top K Frequent Words</t>
+  </si>
+  <si>
+    <t>Reorganize String</t>
+  </si>
+  <si>
+    <t>K Closest Points to Origin</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>数据结构：Stack</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Maximal Rectangle</t>
+  </si>
+  <si>
+    <t>Basic Calculator</t>
+  </si>
+  <si>
+    <t>Basic Calculator II</t>
+  </si>
+  <si>
+    <t>Decode String</t>
+  </si>
+  <si>
+    <t>Minimum Remove to Make Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence (Patience Sort)</t>
+  </si>
+  <si>
+    <t>数据结构：Monotonic Stack</t>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>Next Greater Node In Linked List</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>数据结构：Trie</t>
+  </si>
+  <si>
+    <t>Design Add and Search Words Data Structure</t>
+  </si>
+  <si>
+    <t>Stream of Characters</t>
+  </si>
+  <si>
+    <t>数据结构：Union Find</t>
+  </si>
+  <si>
+    <t>数据结构：Sweep Line</t>
+  </si>
+  <si>
+    <t>Range Sum Query - Mutable</t>
+  </si>
+  <si>
+    <t>数据结构：Binary Index Tree &amp; Segment Tree:</t>
+  </si>
+  <si>
+    <t>Count of Range Sum</t>
+  </si>
+  <si>
+    <t>Range Module</t>
+  </si>
+  <si>
+    <t>Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t>Reverse Pairs</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>数据结构：Complex Data Structure</t>
+  </si>
+  <si>
+    <t>LFU Cache</t>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>Design In-Memory File System</t>
+  </si>
+  <si>
+    <t>Time Based Key-Value Store</t>
+  </si>
+  <si>
+    <t>Design Underground System</t>
+  </si>
+  <si>
+    <t>Ones and Zeroes</t>
+  </si>
+  <si>
+    <t>DP：Backpack</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>DP：Single Sequence</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock III</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock IV</t>
+  </si>
+  <si>
+    <t>Paint House</t>
+  </si>
+  <si>
+    <t>Paint House II</t>
+  </si>
+  <si>
+    <t>Regular Expression Matching</t>
+  </si>
+  <si>
+    <t>DP：Double Sequences:</t>
+  </si>
+  <si>
+    <t>Wildcard Matching</t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>Interleaving String</t>
+  </si>
+  <si>
+    <t>Distinct Subsequences</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Burst Balloons</t>
+  </si>
+  <si>
+    <t>DP：Sections</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Subsequence</t>
+  </si>
+  <si>
+    <t>Scramble String</t>
+  </si>
+  <si>
+    <t>Unique Paths</t>
+  </si>
+  <si>
+    <t>DP：Matrix</t>
+  </si>
+  <si>
+    <t>Unique Paths II</t>
+  </si>
+  <si>
+    <t>Minimum Path Sum</t>
+  </si>
+  <si>
+    <t>Maximal Square</t>
+  </si>
+  <si>
+    <t>Bomb Enemy</t>
+  </si>
+  <si>
+    <t>Decode Ways</t>
+  </si>
+  <si>
+    <t>DP：Others</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning II</t>
+  </si>
+  <si>
+    <t>Perfect Squares</t>
+  </si>
+  <si>
+    <t>Decode Ways II</t>
+  </si>
+  <si>
+    <t>Jump Game</t>
+  </si>
+  <si>
+    <t>DP：Greedy</t>
+  </si>
+  <si>
+    <t>Jump Game II</t>
+  </si>
+  <si>
+    <t>Partition Labels</t>
   </si>
 </sst>
 </file>
@@ -522,10 +909,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -557,14 +944,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -573,7 +952,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,74 +1011,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -671,23 +1028,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,6 +1038,51 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,19 +1097,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,7 +1133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,13 +1145,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,31 +1175,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,7 +1205,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,7 +1223,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,43 +1235,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,19 +1259,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,21 +1288,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -937,6 +1309,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -953,16 +1340,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -988,16 +1375,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,152 +1393,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1175,6 +1562,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1495,10 +1885,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2267,7 +2657,7 @@
       <c r="B79" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D79" s="3">
@@ -2281,7 +2671,7 @@
       <c r="B80" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C80" s="7"/>
+      <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
@@ -2290,7 +2680,7 @@
       <c r="B81" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C81" s="7"/>
+      <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
@@ -2299,7 +2689,7 @@
       <c r="B82" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C82" s="7"/>
+      <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
@@ -2308,7 +2698,7 @@
       <c r="B83" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C83" s="7"/>
+      <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
@@ -2317,7 +2707,7 @@
       <c r="B84" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2328,7 +2718,7 @@
       <c r="B85" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C85" s="7"/>
+      <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
@@ -2337,7 +2727,7 @@
       <c r="B86" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C86" s="7"/>
+      <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
@@ -2346,7 +2736,7 @@
       <c r="B87" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C87" s="7"/>
+      <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
@@ -2355,7 +2745,7 @@
       <c r="B88" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D88" s="3">
@@ -2369,7 +2759,7 @@
       <c r="B89" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C89" s="7"/>
+      <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
@@ -2378,7 +2768,7 @@
       <c r="B90" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C90" s="7"/>
+      <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
@@ -2387,7 +2777,7 @@
       <c r="B91" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C91" s="7"/>
+      <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
@@ -2396,7 +2786,7 @@
       <c r="B92" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C92" s="7"/>
+      <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
@@ -2405,7 +2795,7 @@
       <c r="B93" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C93" s="7"/>
+      <c r="C93" s="2"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
@@ -2414,7 +2804,7 @@
       <c r="B94" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C94" s="7"/>
+      <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
@@ -2423,7 +2813,7 @@
       <c r="B95" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C95" s="7"/>
+      <c r="C95" s="2"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
@@ -2432,7 +2822,7 @@
       <c r="B96" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D96" s="3">
@@ -2446,7 +2836,7 @@
       <c r="B97" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C97" s="7"/>
+      <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
@@ -2455,7 +2845,7 @@
       <c r="B98" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C98" s="7"/>
+      <c r="C98" s="2"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
@@ -2464,7 +2854,7 @@
       <c r="B99" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C99" s="7"/>
+      <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
@@ -2473,7 +2863,7 @@
       <c r="B100" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C100" s="7"/>
+      <c r="C100" s="2"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
@@ -2482,46 +2872,49 @@
       <c r="B101" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C101" s="7"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102">
-        <v>94</v>
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>130</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C102" s="7" t="s">
         <v>131</v>
       </c>
+      <c r="C102" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D102" s="3">
+        <v>45005</v>
+      </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103">
-        <v>144</v>
+      <c r="A103" t="s">
+        <v>133</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C103" s="7"/>
+        <v>134</v>
+      </c>
+      <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
         <v>145</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C104" s="7"/>
+        <v>135</v>
+      </c>
+      <c r="C104" s="2"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
         <v>105</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2529,28 +2922,28 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C106" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="C106" s="2"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
         <v>889</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C107" s="7"/>
+        <v>139</v>
+      </c>
+      <c r="C107" s="2"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
         <v>173</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2558,55 +2951,55 @@
         <v>30</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C109" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="C109" s="2"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
         <v>285</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C110" s="7"/>
+        <v>143</v>
+      </c>
+      <c r="C110" s="2"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
         <v>270</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C111" s="7"/>
+        <v>144</v>
+      </c>
+      <c r="C111" s="2"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
         <v>272</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C112" s="7"/>
+        <v>145</v>
+      </c>
+      <c r="C112" s="2"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
         <v>510</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C113" s="7"/>
+        <v>146</v>
+      </c>
+      <c r="C113" s="2"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
         <v>98</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2614,37 +3007,37 @@
         <v>100</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C115" s="7"/>
+        <v>149</v>
+      </c>
+      <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
         <v>101</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C116" s="7"/>
+        <v>150</v>
+      </c>
+      <c r="C116" s="2"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
         <v>110</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C117" s="7"/>
+        <v>151</v>
+      </c>
+      <c r="C117" s="2"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
         <v>111</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2652,28 +3045,28 @@
         <v>104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C119" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="C119" s="2"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
         <v>333</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C120" s="7"/>
+        <v>155</v>
+      </c>
+      <c r="C120" s="2"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
         <v>112</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2681,46 +3074,46 @@
         <v>113</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C122" s="7"/>
+        <v>158</v>
+      </c>
+      <c r="C122" s="2"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
         <v>124</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C123" s="7"/>
+        <v>159</v>
+      </c>
+      <c r="C123" s="2"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
         <v>298</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C124" s="7"/>
+        <v>160</v>
+      </c>
+      <c r="C124" s="2"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
         <v>549</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C125" s="7"/>
+        <v>161</v>
+      </c>
+      <c r="C125" s="2"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
         <v>236</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C126" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2728,10 +3121,10 @@
         <v>199</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2741,37 +3134,1242 @@
       <c r="B128" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C128" s="7"/>
+      <c r="C128" s="2"/>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
         <v>331</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C129" s="7"/>
+        <v>166</v>
+      </c>
+      <c r="C129" s="2"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
         <v>449</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C130" s="7"/>
+        <v>167</v>
+      </c>
+      <c r="C130" s="2"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
         <v>114</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C131" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>39</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>40</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C133" s="7"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>46</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C134" s="7"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>47</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C135" s="7"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>77</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C136" s="7"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>78</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C137" s="7"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>90</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C138" s="7"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>17</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C139" s="7"/>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>22</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C140" s="7"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>51</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C141" s="7"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>254</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C142" s="7"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>301</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C143" s="7"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>491</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C144" s="7"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>37</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C145" s="7"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>52</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C146" s="7"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>93</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C147" s="7"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>131</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C148" s="7"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>113</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>257</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C150" s="7"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>140</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>494</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C152" s="7"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>1192</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C153" s="7"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>126</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C154" s="7"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>290</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C155" s="7"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>291</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C156" s="7"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>442</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>48</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C158" s="7"/>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>54</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C159" s="7"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>73</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C160" s="7"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>289</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C161" s="7"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>6</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>13</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C163" s="7"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>14</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C164" s="7"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>68</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C165" s="7"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>443</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C166" s="7"/>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>2</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>21</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C168" s="7"/>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>25</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C169" s="7"/>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>82</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C170" s="7"/>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>83</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C171" s="7"/>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>86</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C172" s="7"/>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>92</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C173" s="7"/>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>138</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C174" s="7"/>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>141</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C175" s="7"/>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>148</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C176" s="7"/>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>160</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C177" s="7"/>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>203</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C178" s="7"/>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>206</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C179" s="7"/>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>234</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C180" s="7"/>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>328</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C181" s="7"/>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>445</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C182" s="7"/>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>142</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C183" s="7"/>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>876</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C184" s="7"/>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>706</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>49</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C186" s="7"/>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>128</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C187" s="7"/>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>560</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C188" s="7"/>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>953</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C189" s="7"/>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>290</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C190" s="7"/>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>23</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>295</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C192" s="7"/>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>347</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C193" s="7"/>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>692</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C194" s="7"/>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>767</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C195" s="7"/>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>973</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C196" s="7"/>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>480</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C197" s="7"/>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>703</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C198" s="7"/>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>155</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>20</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C200" s="7"/>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>85</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C201" s="7"/>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>224</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C202" s="7"/>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>227</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C203" s="7"/>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>394</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C204" s="7"/>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>1249</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C205" s="7"/>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>300</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>84</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C207" s="7"/>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>239</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C208" s="7"/>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>1019</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C209" s="7"/>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>211</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C211" s="7"/>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>1032</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C212" s="7"/>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>200</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>305</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C214" s="7"/>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>323</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C215" s="7"/>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>252</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="217" ht="17" spans="1:3">
+      <c r="A217">
+        <v>253</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C217" s="7"/>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218">
+        <v>307</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219">
+        <v>327</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C219" s="7"/>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220">
+        <v>715</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C220" s="7"/>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221">
+        <v>315</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C221" s="7"/>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222">
+        <v>493</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C222" s="7"/>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223">
+        <v>146</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224">
+        <v>460</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C224" s="7"/>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225">
+        <v>211</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C225" s="7"/>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226">
+        <v>380</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C226" s="7"/>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227">
+        <v>528</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C227" s="7"/>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228">
+        <v>588</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C228" s="7"/>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229">
+        <v>981</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C229" s="7"/>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230">
+        <v>1396</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C230" s="7"/>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231">
+        <v>473</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232">
+        <v>139</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233">
+        <v>121</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C233" s="7"/>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234">
+        <v>122</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C234" s="7"/>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235">
+        <v>123</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C235" s="7"/>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236">
+        <v>188</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C236" s="7"/>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237">
+        <v>256</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C237" s="7"/>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238">
+        <v>265</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C238" s="7"/>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239">
+        <v>10</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240">
+        <v>44</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C240" s="7"/>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241">
+        <v>72</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C241" s="7"/>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242">
+        <v>97</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C242" s="7"/>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243">
+        <v>115</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C243" s="7"/>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244">
+        <v>1143</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C244" s="7"/>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245">
+        <v>312</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246">
+        <v>516</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C246" s="7"/>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247">
+        <v>87</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C247" s="7"/>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248">
+        <v>62</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249">
+        <v>63</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C249" s="7"/>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250">
+        <v>64</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C250" s="7"/>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251">
+        <v>85</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C251" s="7"/>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252">
+        <v>221</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C252" s="7"/>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253">
+        <v>361</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C253" s="7"/>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254">
+        <v>91</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255">
+        <v>132</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C255" s="7"/>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256">
+        <v>279</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C256" s="7"/>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257">
+        <v>639</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C257" s="7"/>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258">
+        <v>55</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259">
+        <v>45</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C259" s="7"/>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260">
+        <v>763</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C260" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="43">
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="C16:C18"/>
@@ -2794,6 +4392,27 @@
     <mergeCell ref="C118:C120"/>
     <mergeCell ref="C121:C125"/>
     <mergeCell ref="C127:C131"/>
+    <mergeCell ref="C132:C148"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="C151:C156"/>
+    <mergeCell ref="C157:C161"/>
+    <mergeCell ref="C162:C166"/>
+    <mergeCell ref="C167:C184"/>
+    <mergeCell ref="C185:C190"/>
+    <mergeCell ref="C191:C198"/>
+    <mergeCell ref="C199:C205"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="C210:C212"/>
+    <mergeCell ref="C213:C215"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="C218:C222"/>
+    <mergeCell ref="C223:C230"/>
+    <mergeCell ref="C232:C238"/>
+    <mergeCell ref="C239:C244"/>
+    <mergeCell ref="C245:C247"/>
+    <mergeCell ref="C248:C253"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="C258:C260"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="299">
   <si>
     <t>Question Number</t>
   </si>
@@ -421,9 +421,15 @@
     <t>Binary Tree Preorder Traversal</t>
   </si>
   <si>
+    <t>145(Easy)</t>
+  </si>
+  <si>
     <t>Binary Tree Postorder Traversal</t>
   </si>
   <si>
+    <t>105(Medium)</t>
+  </si>
+  <si>
     <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
   </si>
   <si>
@@ -434,6 +440,9 @@
   </si>
   <si>
     <t>Construct Binary Tree from Preorder and Postorder Traversal</t>
+  </si>
+  <si>
+    <t>173(Medium)</t>
   </si>
   <si>
     <t>Binary Search Tree Iterator</t>
@@ -1887,8 +1896,8 @@
   <sheetPr/>
   <dimension ref="A1:D260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2888,7 +2897,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>133</v>
       </c>
@@ -2896,25 +2905,34 @@
         <v>134</v>
       </c>
       <c r="C103" s="2"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104">
-        <v>145</v>
+      <c r="D103" s="3">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>135</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C104" s="2"/>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105">
-        <v>105</v>
+      <c r="D104" s="3">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>137</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="D105" s="3">
+        <v>45006</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2922,7 +2940,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C106" s="2"/>
     </row>
@@ -2931,19 +2949,19 @@
         <v>889</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C107" s="2"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108">
-        <v>173</v>
+      <c r="A108" t="s">
+        <v>142</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2951,7 +2969,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C109" s="2"/>
     </row>
@@ -2960,7 +2978,7 @@
         <v>285</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C110" s="2"/>
     </row>
@@ -2969,7 +2987,7 @@
         <v>270</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C111" s="2"/>
     </row>
@@ -2978,7 +2996,7 @@
         <v>272</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C112" s="2"/>
     </row>
@@ -2987,7 +3005,7 @@
         <v>510</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C113" s="2"/>
     </row>
@@ -2996,10 +3014,10 @@
         <v>98</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3007,7 +3025,7 @@
         <v>100</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C115" s="2"/>
     </row>
@@ -3016,7 +3034,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C116" s="2"/>
     </row>
@@ -3025,7 +3043,7 @@
         <v>110</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C117" s="2"/>
     </row>
@@ -3034,10 +3052,10 @@
         <v>111</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3045,7 +3063,7 @@
         <v>104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C119" s="2"/>
     </row>
@@ -3054,7 +3072,7 @@
         <v>333</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C120" s="2"/>
     </row>
@@ -3063,10 +3081,10 @@
         <v>112</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3074,7 +3092,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C122" s="2"/>
     </row>
@@ -3083,7 +3101,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C123" s="2"/>
     </row>
@@ -3092,7 +3110,7 @@
         <v>298</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C124" s="2"/>
     </row>
@@ -3101,7 +3119,7 @@
         <v>549</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C125" s="2"/>
     </row>
@@ -3110,10 +3128,10 @@
         <v>236</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3121,10 +3139,10 @@
         <v>199</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3141,7 +3159,7 @@
         <v>331</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C129" s="2"/>
     </row>
@@ -3150,7 +3168,7 @@
         <v>449</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C130" s="2"/>
     </row>
@@ -3159,7 +3177,7 @@
         <v>114</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C131" s="2"/>
     </row>
@@ -3168,10 +3186,10 @@
         <v>39</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3179,7 +3197,7 @@
         <v>40</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C133" s="7"/>
     </row>
@@ -3188,7 +3206,7 @@
         <v>46</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C134" s="7"/>
     </row>
@@ -3197,7 +3215,7 @@
         <v>47</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C135" s="7"/>
     </row>
@@ -3206,7 +3224,7 @@
         <v>77</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C136" s="7"/>
     </row>
@@ -3215,7 +3233,7 @@
         <v>78</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C137" s="7"/>
     </row>
@@ -3224,7 +3242,7 @@
         <v>90</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C138" s="7"/>
     </row>
@@ -3233,7 +3251,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C139" s="7"/>
     </row>
@@ -3242,7 +3260,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C140" s="7"/>
     </row>
@@ -3251,7 +3269,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C141" s="7"/>
     </row>
@@ -3260,7 +3278,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C142" s="7"/>
     </row>
@@ -3269,7 +3287,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C143" s="7"/>
     </row>
@@ -3278,7 +3296,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C144" s="7"/>
     </row>
@@ -3287,7 +3305,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C145" s="7"/>
     </row>
@@ -3296,7 +3314,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C146" s="7"/>
     </row>
@@ -3305,7 +3323,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C147" s="7"/>
     </row>
@@ -3314,7 +3332,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C148" s="7"/>
     </row>
@@ -3323,10 +3341,10 @@
         <v>113</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3334,7 +3352,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C150" s="7"/>
     </row>
@@ -3343,10 +3361,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3354,7 +3372,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C152" s="7"/>
     </row>
@@ -3363,7 +3381,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C153" s="7"/>
     </row>
@@ -3372,7 +3390,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C154" s="7"/>
     </row>
@@ -3381,7 +3399,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C155" s="7"/>
     </row>
@@ -3390,7 +3408,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C156" s="7"/>
     </row>
@@ -3399,10 +3417,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3410,7 +3428,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C158" s="7"/>
     </row>
@@ -3419,7 +3437,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C159" s="7"/>
     </row>
@@ -3428,7 +3446,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C160" s="7"/>
     </row>
@@ -3437,7 +3455,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C161" s="7"/>
     </row>
@@ -3446,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3457,7 +3475,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C163" s="7"/>
     </row>
@@ -3466,7 +3484,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C164" s="7"/>
     </row>
@@ -3475,7 +3493,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C165" s="7"/>
     </row>
@@ -3484,7 +3502,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C166" s="7"/>
     </row>
@@ -3493,10 +3511,10 @@
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3513,7 +3531,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C169" s="7"/>
     </row>
@@ -3522,7 +3540,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C170" s="7"/>
     </row>
@@ -3531,7 +3549,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C171" s="7"/>
     </row>
@@ -3549,7 +3567,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C173" s="7"/>
     </row>
@@ -3558,7 +3576,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C174" s="7"/>
     </row>
@@ -3576,7 +3594,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C176" s="7"/>
     </row>
@@ -3594,7 +3612,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C178" s="7"/>
     </row>
@@ -3603,7 +3621,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C179" s="7"/>
     </row>
@@ -3630,7 +3648,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C182" s="7"/>
     </row>
@@ -3657,10 +3675,10 @@
         <v>706</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3668,7 +3686,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C186" s="7"/>
     </row>
@@ -3677,7 +3695,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C187" s="7"/>
     </row>
@@ -3695,7 +3713,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C189" s="7"/>
     </row>
@@ -3704,7 +3722,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C190" s="7"/>
     </row>
@@ -3713,10 +3731,10 @@
         <v>23</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3742,7 +3760,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C194" s="7"/>
     </row>
@@ -3751,7 +3769,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C195" s="7"/>
     </row>
@@ -3760,7 +3778,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C196" s="7"/>
     </row>
@@ -3787,10 +3805,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3798,7 +3816,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C200" s="7"/>
     </row>
@@ -3807,7 +3825,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C201" s="7"/>
     </row>
@@ -3816,7 +3834,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C202" s="7"/>
     </row>
@@ -3825,7 +3843,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C203" s="7"/>
     </row>
@@ -3834,7 +3852,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C204" s="7"/>
     </row>
@@ -3843,7 +3861,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C205" s="7"/>
     </row>
@@ -3852,10 +3870,10 @@
         <v>300</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3863,7 +3881,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C207" s="7"/>
     </row>
@@ -3881,7 +3899,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C209" s="7"/>
     </row>
@@ -3890,10 +3908,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3901,7 +3919,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C211" s="7"/>
     </row>
@@ -3910,7 +3928,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C212" s="7"/>
     </row>
@@ -3922,7 +3940,7 @@
         <v>113</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3951,7 +3969,7 @@
         <v>57</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="217" ht="17" spans="1:3">
@@ -3968,10 +3986,10 @@
         <v>307</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3979,7 +3997,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C219" s="7"/>
     </row>
@@ -3988,7 +4006,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C220" s="7"/>
     </row>
@@ -3997,7 +4015,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C221" s="7"/>
     </row>
@@ -4006,7 +4024,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C222" s="7"/>
     </row>
@@ -4015,10 +4033,10 @@
         <v>146</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4026,7 +4044,7 @@
         <v>460</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C224" s="7"/>
     </row>
@@ -4035,7 +4053,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C225" s="7"/>
     </row>
@@ -4044,7 +4062,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C226" s="7"/>
     </row>
@@ -4062,7 +4080,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C228" s="7"/>
     </row>
@@ -4071,7 +4089,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C229" s="7"/>
     </row>
@@ -4080,7 +4098,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C230" s="7"/>
     </row>
@@ -4089,10 +4107,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4100,10 +4118,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4111,7 +4129,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C233" s="7"/>
     </row>
@@ -4120,7 +4138,7 @@
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C234" s="7"/>
     </row>
@@ -4129,7 +4147,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C235" s="7"/>
     </row>
@@ -4138,7 +4156,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C236" s="7"/>
     </row>
@@ -4147,7 +4165,7 @@
         <v>256</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C237" s="7"/>
     </row>
@@ -4156,7 +4174,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C238" s="7"/>
     </row>
@@ -4165,10 +4183,10 @@
         <v>10</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4176,7 +4194,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C240" s="7"/>
     </row>
@@ -4185,7 +4203,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C241" s="7"/>
     </row>
@@ -4194,7 +4212,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C242" s="7"/>
     </row>
@@ -4203,7 +4221,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C243" s="7"/>
     </row>
@@ -4212,7 +4230,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C244" s="7"/>
     </row>
@@ -4221,10 +4239,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4232,7 +4250,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C246" s="7"/>
     </row>
@@ -4241,7 +4259,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C247" s="7"/>
     </row>
@@ -4250,10 +4268,10 @@
         <v>62</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4261,7 +4279,7 @@
         <v>63</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C249" s="7"/>
     </row>
@@ -4270,7 +4288,7 @@
         <v>64</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C250" s="7"/>
     </row>
@@ -4279,7 +4297,7 @@
         <v>85</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C251" s="7"/>
     </row>
@@ -4288,7 +4306,7 @@
         <v>221</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C252" s="7"/>
     </row>
@@ -4297,7 +4315,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C253" s="7"/>
     </row>
@@ -4306,10 +4324,10 @@
         <v>91</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4317,7 +4335,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C255" s="7"/>
     </row>
@@ -4326,7 +4344,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C256" s="7"/>
     </row>
@@ -4335,7 +4353,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C257" s="7"/>
     </row>
@@ -4344,10 +4362,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4355,7 +4373,7 @@
         <v>45</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C259" s="7"/>
     </row>
@@ -4364,7 +4382,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C260" s="7"/>
     </row>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="300">
   <si>
     <t>Question Number</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>Flatten Binary Tree to Linked List</t>
+  </si>
+  <si>
+    <t>39(Medium)</t>
   </si>
   <si>
     <t>Combination Sum</t>
@@ -1896,8 +1899,8 @@
   <sheetPr/>
   <dimension ref="A1:D260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -3181,15 +3184,18 @@
       </c>
       <c r="C131" s="2"/>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132">
-        <v>39</v>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>172</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="D132" s="3">
+        <v>45007</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3197,7 +3203,7 @@
         <v>40</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C133" s="7"/>
     </row>
@@ -3206,7 +3212,7 @@
         <v>46</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C134" s="7"/>
     </row>
@@ -3215,7 +3221,7 @@
         <v>47</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C135" s="7"/>
     </row>
@@ -3224,7 +3230,7 @@
         <v>77</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C136" s="7"/>
     </row>
@@ -3233,7 +3239,7 @@
         <v>78</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C137" s="7"/>
     </row>
@@ -3242,7 +3248,7 @@
         <v>90</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C138" s="7"/>
     </row>
@@ -3251,7 +3257,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C139" s="7"/>
     </row>
@@ -3260,7 +3266,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C140" s="7"/>
     </row>
@@ -3269,7 +3275,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C141" s="7"/>
     </row>
@@ -3278,7 +3284,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C142" s="7"/>
     </row>
@@ -3287,7 +3293,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C143" s="7"/>
     </row>
@@ -3296,7 +3302,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C144" s="7"/>
     </row>
@@ -3305,7 +3311,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C145" s="7"/>
     </row>
@@ -3314,7 +3320,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C146" s="7"/>
     </row>
@@ -3323,7 +3329,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C147" s="7"/>
     </row>
@@ -3332,7 +3338,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C148" s="7"/>
     </row>
@@ -3344,7 +3350,7 @@
         <v>161</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3352,7 +3358,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C150" s="7"/>
     </row>
@@ -3361,10 +3367,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3372,7 +3378,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C152" s="7"/>
     </row>
@@ -3381,7 +3387,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C153" s="7"/>
     </row>
@@ -3390,7 +3396,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C154" s="7"/>
     </row>
@@ -3399,7 +3405,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C155" s="7"/>
     </row>
@@ -3408,7 +3414,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C156" s="7"/>
     </row>
@@ -3417,10 +3423,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3428,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C158" s="7"/>
     </row>
@@ -3437,7 +3443,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C159" s="7"/>
     </row>
@@ -3446,7 +3452,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C160" s="7"/>
     </row>
@@ -3455,7 +3461,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C161" s="7"/>
     </row>
@@ -3464,10 +3470,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3475,7 +3481,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C163" s="7"/>
     </row>
@@ -3484,7 +3490,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C164" s="7"/>
     </row>
@@ -3493,7 +3499,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C165" s="7"/>
     </row>
@@ -3502,7 +3508,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C166" s="7"/>
     </row>
@@ -3511,10 +3517,10 @@
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3531,7 +3537,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C169" s="7"/>
     </row>
@@ -3540,7 +3546,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C170" s="7"/>
     </row>
@@ -3549,7 +3555,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C171" s="7"/>
     </row>
@@ -3567,7 +3573,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C173" s="7"/>
     </row>
@@ -3576,7 +3582,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C174" s="7"/>
     </row>
@@ -3594,7 +3600,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C176" s="7"/>
     </row>
@@ -3612,7 +3618,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C178" s="7"/>
     </row>
@@ -3621,7 +3627,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C179" s="7"/>
     </row>
@@ -3648,7 +3654,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C182" s="7"/>
     </row>
@@ -3675,10 +3681,10 @@
         <v>706</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3686,7 +3692,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C186" s="7"/>
     </row>
@@ -3695,7 +3701,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C187" s="7"/>
     </row>
@@ -3713,7 +3719,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C189" s="7"/>
     </row>
@@ -3722,7 +3728,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C190" s="7"/>
     </row>
@@ -3731,10 +3737,10 @@
         <v>23</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3760,7 +3766,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C194" s="7"/>
     </row>
@@ -3769,7 +3775,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C195" s="7"/>
     </row>
@@ -3778,7 +3784,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C196" s="7"/>
     </row>
@@ -3805,10 +3811,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3816,7 +3822,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C200" s="7"/>
     </row>
@@ -3825,7 +3831,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C201" s="7"/>
     </row>
@@ -3834,7 +3840,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C202" s="7"/>
     </row>
@@ -3843,7 +3849,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C203" s="7"/>
     </row>
@@ -3852,7 +3858,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C204" s="7"/>
     </row>
@@ -3861,7 +3867,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C205" s="7"/>
     </row>
@@ -3870,10 +3876,10 @@
         <v>300</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3881,7 +3887,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C207" s="7"/>
     </row>
@@ -3899,7 +3905,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C209" s="7"/>
     </row>
@@ -3908,10 +3914,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3919,7 +3925,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C211" s="7"/>
     </row>
@@ -3928,7 +3934,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C212" s="7"/>
     </row>
@@ -3940,7 +3946,7 @@
         <v>113</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3969,7 +3975,7 @@
         <v>57</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="217" ht="17" spans="1:3">
@@ -3986,10 +3992,10 @@
         <v>307</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3997,7 +4003,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C219" s="7"/>
     </row>
@@ -4006,7 +4012,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C220" s="7"/>
     </row>
@@ -4015,7 +4021,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C221" s="7"/>
     </row>
@@ -4024,7 +4030,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C222" s="7"/>
     </row>
@@ -4033,10 +4039,10 @@
         <v>146</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4044,7 +4050,7 @@
         <v>460</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C224" s="7"/>
     </row>
@@ -4053,7 +4059,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C225" s="7"/>
     </row>
@@ -4062,7 +4068,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C226" s="7"/>
     </row>
@@ -4080,7 +4086,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C228" s="7"/>
     </row>
@@ -4089,7 +4095,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C229" s="7"/>
     </row>
@@ -4098,7 +4104,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C230" s="7"/>
     </row>
@@ -4107,10 +4113,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4118,10 +4124,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4129,7 +4135,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C233" s="7"/>
     </row>
@@ -4138,7 +4144,7 @@
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C234" s="7"/>
     </row>
@@ -4147,7 +4153,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C235" s="7"/>
     </row>
@@ -4156,7 +4162,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C236" s="7"/>
     </row>
@@ -4165,7 +4171,7 @@
         <v>256</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C237" s="7"/>
     </row>
@@ -4174,7 +4180,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C238" s="7"/>
     </row>
@@ -4183,10 +4189,10 @@
         <v>10</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4194,7 +4200,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C240" s="7"/>
     </row>
@@ -4203,7 +4209,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C241" s="7"/>
     </row>
@@ -4212,7 +4218,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C242" s="7"/>
     </row>
@@ -4221,7 +4227,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C243" s="7"/>
     </row>
@@ -4230,7 +4236,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C244" s="7"/>
     </row>
@@ -4239,10 +4245,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4250,7 +4256,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C246" s="7"/>
     </row>
@@ -4259,7 +4265,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C247" s="7"/>
     </row>
@@ -4268,10 +4274,10 @@
         <v>62</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4279,7 +4285,7 @@
         <v>63</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C249" s="7"/>
     </row>
@@ -4288,7 +4294,7 @@
         <v>64</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C250" s="7"/>
     </row>
@@ -4297,7 +4303,7 @@
         <v>85</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C251" s="7"/>
     </row>
@@ -4306,7 +4312,7 @@
         <v>221</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C252" s="7"/>
     </row>
@@ -4315,7 +4321,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C253" s="7"/>
     </row>
@@ -4324,10 +4330,10 @@
         <v>91</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4335,7 +4341,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C255" s="7"/>
     </row>
@@ -4344,7 +4350,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C256" s="7"/>
     </row>
@@ -4353,7 +4359,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C257" s="7"/>
     </row>
@@ -4362,10 +4368,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4373,7 +4379,7 @@
         <v>45</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C259" s="7"/>
     </row>
@@ -4382,7 +4388,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C260" s="7"/>
     </row>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="301">
   <si>
     <t>Question Number</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>DFS：排列组合</t>
+  </si>
+  <si>
+    <t>40(Medium)</t>
   </si>
   <si>
     <t>Combination Sum II</t>
@@ -1900,7 +1903,7 @@
   <dimension ref="A1:D260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -3198,21 +3201,24 @@
         <v>45007</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133">
-        <v>40</v>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>175</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C133" s="7"/>
+      <c r="D133" s="3">
+        <v>45007</v>
+      </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
         <v>46</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C134" s="7"/>
     </row>
@@ -3221,7 +3227,7 @@
         <v>47</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C135" s="7"/>
     </row>
@@ -3230,7 +3236,7 @@
         <v>77</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C136" s="7"/>
     </row>
@@ -3239,7 +3245,7 @@
         <v>78</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C137" s="7"/>
     </row>
@@ -3248,7 +3254,7 @@
         <v>90</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C138" s="7"/>
     </row>
@@ -3257,7 +3263,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C139" s="7"/>
     </row>
@@ -3266,7 +3272,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C140" s="7"/>
     </row>
@@ -3275,7 +3281,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C141" s="7"/>
     </row>
@@ -3284,7 +3290,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C142" s="7"/>
     </row>
@@ -3293,7 +3299,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C143" s="7"/>
     </row>
@@ -3302,7 +3308,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C144" s="7"/>
     </row>
@@ -3311,7 +3317,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C145" s="7"/>
     </row>
@@ -3320,7 +3326,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C146" s="7"/>
     </row>
@@ -3329,7 +3335,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C147" s="7"/>
     </row>
@@ -3338,7 +3344,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C148" s="7"/>
     </row>
@@ -3350,7 +3356,7 @@
         <v>161</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3358,7 +3364,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C150" s="7"/>
     </row>
@@ -3367,10 +3373,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3378,7 +3384,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C152" s="7"/>
     </row>
@@ -3387,7 +3393,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C153" s="7"/>
     </row>
@@ -3396,7 +3402,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C154" s="7"/>
     </row>
@@ -3405,7 +3411,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C155" s="7"/>
     </row>
@@ -3414,7 +3420,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C156" s="7"/>
     </row>
@@ -3423,10 +3429,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3434,7 +3440,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C158" s="7"/>
     </row>
@@ -3443,7 +3449,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C159" s="7"/>
     </row>
@@ -3452,7 +3458,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C160" s="7"/>
     </row>
@@ -3461,7 +3467,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C161" s="7"/>
     </row>
@@ -3470,10 +3476,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3481,7 +3487,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C163" s="7"/>
     </row>
@@ -3490,7 +3496,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C164" s="7"/>
     </row>
@@ -3499,7 +3505,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C165" s="7"/>
     </row>
@@ -3508,7 +3514,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C166" s="7"/>
     </row>
@@ -3517,10 +3523,10 @@
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3537,7 +3543,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C169" s="7"/>
     </row>
@@ -3546,7 +3552,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C170" s="7"/>
     </row>
@@ -3555,7 +3561,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C171" s="7"/>
     </row>
@@ -3573,7 +3579,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C173" s="7"/>
     </row>
@@ -3582,7 +3588,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C174" s="7"/>
     </row>
@@ -3600,7 +3606,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C176" s="7"/>
     </row>
@@ -3618,7 +3624,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C178" s="7"/>
     </row>
@@ -3627,7 +3633,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C179" s="7"/>
     </row>
@@ -3654,7 +3660,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C182" s="7"/>
     </row>
@@ -3681,10 +3687,10 @@
         <v>706</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3692,7 +3698,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C186" s="7"/>
     </row>
@@ -3701,7 +3707,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C187" s="7"/>
     </row>
@@ -3719,7 +3725,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C189" s="7"/>
     </row>
@@ -3728,7 +3734,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C190" s="7"/>
     </row>
@@ -3737,10 +3743,10 @@
         <v>23</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3766,7 +3772,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C194" s="7"/>
     </row>
@@ -3775,7 +3781,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C195" s="7"/>
     </row>
@@ -3784,7 +3790,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C196" s="7"/>
     </row>
@@ -3811,10 +3817,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3822,7 +3828,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C200" s="7"/>
     </row>
@@ -3831,7 +3837,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C201" s="7"/>
     </row>
@@ -3840,7 +3846,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C202" s="7"/>
     </row>
@@ -3849,7 +3855,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C203" s="7"/>
     </row>
@@ -3858,7 +3864,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C204" s="7"/>
     </row>
@@ -3867,7 +3873,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C205" s="7"/>
     </row>
@@ -3876,10 +3882,10 @@
         <v>300</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3887,7 +3893,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C207" s="7"/>
     </row>
@@ -3905,7 +3911,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C209" s="7"/>
     </row>
@@ -3914,10 +3920,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3925,7 +3931,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C211" s="7"/>
     </row>
@@ -3934,7 +3940,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C212" s="7"/>
     </row>
@@ -3946,7 +3952,7 @@
         <v>113</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3975,7 +3981,7 @@
         <v>57</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="217" ht="17" spans="1:3">
@@ -3992,10 +3998,10 @@
         <v>307</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4003,7 +4009,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C219" s="7"/>
     </row>
@@ -4012,7 +4018,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C220" s="7"/>
     </row>
@@ -4021,7 +4027,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C221" s="7"/>
     </row>
@@ -4030,7 +4036,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C222" s="7"/>
     </row>
@@ -4039,10 +4045,10 @@
         <v>146</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4050,7 +4056,7 @@
         <v>460</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C224" s="7"/>
     </row>
@@ -4059,7 +4065,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C225" s="7"/>
     </row>
@@ -4068,7 +4074,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C226" s="7"/>
     </row>
@@ -4086,7 +4092,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C228" s="7"/>
     </row>
@@ -4095,7 +4101,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C229" s="7"/>
     </row>
@@ -4104,7 +4110,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C230" s="7"/>
     </row>
@@ -4113,10 +4119,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4124,10 +4130,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4135,7 +4141,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C233" s="7"/>
     </row>
@@ -4144,7 +4150,7 @@
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C234" s="7"/>
     </row>
@@ -4153,7 +4159,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C235" s="7"/>
     </row>
@@ -4162,7 +4168,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C236" s="7"/>
     </row>
@@ -4171,7 +4177,7 @@
         <v>256</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C237" s="7"/>
     </row>
@@ -4180,7 +4186,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C238" s="7"/>
     </row>
@@ -4189,10 +4195,10 @@
         <v>10</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4200,7 +4206,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C240" s="7"/>
     </row>
@@ -4209,7 +4215,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C241" s="7"/>
     </row>
@@ -4218,7 +4224,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C242" s="7"/>
     </row>
@@ -4227,7 +4233,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C243" s="7"/>
     </row>
@@ -4236,7 +4242,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C244" s="7"/>
     </row>
@@ -4245,10 +4251,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4256,7 +4262,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C246" s="7"/>
     </row>
@@ -4265,7 +4271,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C247" s="7"/>
     </row>
@@ -4274,10 +4280,10 @@
         <v>62</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4285,7 +4291,7 @@
         <v>63</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C249" s="7"/>
     </row>
@@ -4294,7 +4300,7 @@
         <v>64</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C250" s="7"/>
     </row>
@@ -4303,7 +4309,7 @@
         <v>85</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C251" s="7"/>
     </row>
@@ -4312,7 +4318,7 @@
         <v>221</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C252" s="7"/>
     </row>
@@ -4321,7 +4327,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C253" s="7"/>
     </row>
@@ -4330,10 +4336,10 @@
         <v>91</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4341,7 +4347,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C255" s="7"/>
     </row>
@@ -4350,7 +4356,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C256" s="7"/>
     </row>
@@ -4359,7 +4365,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C257" s="7"/>
     </row>
@@ -4368,10 +4374,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4379,7 +4385,7 @@
         <v>45</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C259" s="7"/>
     </row>
@@ -4388,7 +4394,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C260" s="7"/>
     </row>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="305">
   <si>
     <t>Question Number</t>
   </si>
@@ -25,6 +25,12 @@
     <t>Question Type</t>
   </si>
   <si>
+    <t>1st solved</t>
+  </si>
+  <si>
+    <t>2st solved</t>
+  </si>
+  <si>
     <t>704(Easy)</t>
   </si>
   <si>
@@ -547,7 +553,13 @@
     <t>Combination Sum II</t>
   </si>
   <si>
+    <t>46(Medium)</t>
+  </si>
+  <si>
     <t>Permutations</t>
+  </si>
+  <si>
+    <t>47(Medium)</t>
   </si>
   <si>
     <t>Permutations II</t>
@@ -1900,13 +1912,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D260"/>
+  <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.96875" customWidth="1"/>
     <col min="2" max="2" width="34.2421875" customWidth="1"/>
@@ -1914,7 +1926,7 @@
     <col min="4" max="4" width="9.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1924,16 +1936,22 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3">
         <v>45003</v>
@@ -1944,7 +1962,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -1953,7 +1971,7 @@
         <v>702</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -1962,7 +1980,7 @@
         <v>153</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1971,7 +1989,7 @@
         <v>154</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -1980,7 +1998,7 @@
         <v>278</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -1989,19 +2007,19 @@
         <v>658</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3">
         <v>45003</v>
@@ -2009,10 +2027,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="6"/>
@@ -2022,7 +2040,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -2031,7 +2049,7 @@
         <v>74</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2"/>
     </row>
@@ -2040,7 +2058,7 @@
         <v>162</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2"/>
     </row>
@@ -2049,7 +2067,7 @@
         <v>302</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2"/>
     </row>
@@ -2058,7 +2076,7 @@
         <v>852</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2"/>
     </row>
@@ -2067,10 +2085,10 @@
         <v>875</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2078,7 +2096,7 @@
         <v>1283</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2"/>
     </row>
@@ -2087,19 +2105,19 @@
         <v>69</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D19" s="3">
         <v>45003</v>
@@ -2107,10 +2125,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3">
@@ -2122,7 +2140,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2"/>
     </row>
@@ -2131,7 +2149,7 @@
         <v>80</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2"/>
     </row>
@@ -2140,7 +2158,7 @@
         <v>88</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2"/>
     </row>
@@ -2149,7 +2167,7 @@
         <v>283</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2"/>
     </row>
@@ -2158,7 +2176,7 @@
         <v>215</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2"/>
     </row>
@@ -2167,7 +2185,7 @@
         <v>347</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2"/>
     </row>
@@ -2176,7 +2194,7 @@
         <v>349</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2"/>
     </row>
@@ -2185,7 +2203,7 @@
         <v>350</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2"/>
     </row>
@@ -2194,7 +2212,7 @@
         <v>845</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2"/>
     </row>
@@ -2203,7 +2221,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2"/>
     </row>
@@ -2212,7 +2230,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2"/>
     </row>
@@ -2221,19 +2239,19 @@
         <v>969</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D33" s="3">
         <v>45004</v>
@@ -2244,7 +2262,7 @@
         <v>86</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C34" s="2"/>
     </row>
@@ -2253,7 +2271,7 @@
         <v>141</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C35" s="2"/>
     </row>
@@ -2262,7 +2280,7 @@
         <v>160</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -2271,7 +2289,7 @@
         <v>234</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C37" s="2"/>
     </row>
@@ -2280,7 +2298,7 @@
         <v>328</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C38" s="2"/>
     </row>
@@ -2289,7 +2307,7 @@
         <v>142</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2"/>
     </row>
@@ -2298,7 +2316,7 @@
         <v>287</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C40" s="2"/>
     </row>
@@ -2307,7 +2325,7 @@
         <v>876</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C41" s="2"/>
     </row>
@@ -2316,10 +2334,10 @@
         <v>56</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2327,7 +2345,7 @@
         <v>57</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C43" s="2"/>
     </row>
@@ -2336,7 +2354,7 @@
         <v>252</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C44" s="2"/>
     </row>
@@ -2345,7 +2363,7 @@
         <v>253</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C45" s="2"/>
     </row>
@@ -2354,7 +2372,7 @@
         <v>986</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C46" s="2"/>
     </row>
@@ -2363,10 +2381,10 @@
         <v>5</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2374,7 +2392,7 @@
         <v>345</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C48" s="2"/>
     </row>
@@ -2383,7 +2401,7 @@
         <v>680</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2"/>
     </row>
@@ -2392,19 +2410,19 @@
         <v>125</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D51" s="3">
         <v>45004</v>
@@ -2415,7 +2433,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C52" s="2"/>
     </row>
@@ -2424,7 +2442,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2"/>
     </row>
@@ -2433,7 +2451,7 @@
         <v>209</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C54" s="2"/>
     </row>
@@ -2442,7 +2460,7 @@
         <v>239</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2"/>
     </row>
@@ -2451,7 +2469,7 @@
         <v>713</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C56" s="2"/>
     </row>
@@ -2460,7 +2478,7 @@
         <v>395</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2"/>
     </row>
@@ -2469,7 +2487,7 @@
         <v>480</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C58" s="2"/>
     </row>
@@ -2478,7 +2496,7 @@
         <v>567</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2"/>
     </row>
@@ -2487,7 +2505,7 @@
         <v>727</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2"/>
     </row>
@@ -2496,10 +2514,10 @@
         <v>295</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2507,7 +2525,7 @@
         <v>346</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2"/>
     </row>
@@ -2516,7 +2534,7 @@
         <v>352</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2"/>
     </row>
@@ -2525,19 +2543,19 @@
         <v>703</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D65" s="3">
         <v>45004</v>
@@ -2548,7 +2566,7 @@
         <v>238</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2"/>
     </row>
@@ -2557,7 +2575,7 @@
         <v>303</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2"/>
     </row>
@@ -2566,7 +2584,7 @@
         <v>325</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2"/>
     </row>
@@ -2575,7 +2593,7 @@
         <v>528</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2"/>
     </row>
@@ -2584,19 +2602,19 @@
         <v>560</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D71" s="3">
         <v>45005</v>
@@ -2607,7 +2625,7 @@
         <v>15</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2"/>
     </row>
@@ -2616,7 +2634,7 @@
         <v>18</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2"/>
     </row>
@@ -2625,7 +2643,7 @@
         <v>167</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2"/>
     </row>
@@ -2634,7 +2652,7 @@
         <v>170</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2"/>
     </row>
@@ -2643,7 +2661,7 @@
         <v>653</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2"/>
     </row>
@@ -2652,7 +2670,7 @@
         <v>1099</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2"/>
     </row>
@@ -2661,19 +2679,19 @@
         <v>259</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D79" s="3">
         <v>45005</v>
@@ -2684,7 +2702,7 @@
         <v>102</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2"/>
     </row>
@@ -2693,7 +2711,7 @@
         <v>103</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2"/>
     </row>
@@ -2702,7 +2720,7 @@
         <v>107</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2"/>
     </row>
@@ -2711,7 +2729,7 @@
         <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C83" s="2"/>
     </row>
@@ -2720,10 +2738,10 @@
         <v>207</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2731,7 +2749,7 @@
         <v>210</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C85" s="2"/>
     </row>
@@ -2740,7 +2758,7 @@
         <v>269</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C86" s="2"/>
     </row>
@@ -2749,19 +2767,19 @@
         <v>444</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D88" s="3">
         <v>45005</v>
@@ -2772,7 +2790,7 @@
         <v>490</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C89" s="2"/>
     </row>
@@ -2781,7 +2799,7 @@
         <v>505</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C90" s="2"/>
     </row>
@@ -2790,7 +2808,7 @@
         <v>542</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C91" s="2"/>
     </row>
@@ -2799,7 +2817,7 @@
         <v>733</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C92" s="2"/>
     </row>
@@ -2808,7 +2826,7 @@
         <v>994</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C93" s="2"/>
     </row>
@@ -2817,7 +2835,7 @@
         <v>305</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C94" s="2"/>
     </row>
@@ -2826,19 +2844,19 @@
         <v>773</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C95" s="2"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D96" s="3">
         <v>45005</v>
@@ -2849,7 +2867,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C97" s="2"/>
     </row>
@@ -2858,7 +2876,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C98" s="2"/>
     </row>
@@ -2867,7 +2885,7 @@
         <v>841</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C99" s="2"/>
     </row>
@@ -2876,7 +2894,7 @@
         <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C100" s="2"/>
     </row>
@@ -2885,19 +2903,19 @@
         <v>1306</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D102" s="3">
         <v>45005</v>
@@ -2905,10 +2923,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="3">
@@ -2917,10 +2935,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="3">
@@ -2929,13 +2947,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D105" s="3">
         <v>45006</v>
@@ -2946,7 +2964,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C106" s="2"/>
     </row>
@@ -2955,19 +2973,19 @@
         <v>889</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C107" s="2"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2975,7 +2993,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C109" s="2"/>
     </row>
@@ -2984,7 +3002,7 @@
         <v>285</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C110" s="2"/>
     </row>
@@ -2993,7 +3011,7 @@
         <v>270</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C111" s="2"/>
     </row>
@@ -3002,7 +3020,7 @@
         <v>272</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C112" s="2"/>
     </row>
@@ -3011,7 +3029,7 @@
         <v>510</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C113" s="2"/>
     </row>
@@ -3020,10 +3038,10 @@
         <v>98</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3031,7 +3049,7 @@
         <v>100</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C115" s="2"/>
     </row>
@@ -3040,7 +3058,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C116" s="2"/>
     </row>
@@ -3049,7 +3067,7 @@
         <v>110</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C117" s="2"/>
     </row>
@@ -3058,10 +3076,10 @@
         <v>111</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3069,7 +3087,7 @@
         <v>104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C119" s="2"/>
     </row>
@@ -3078,7 +3096,7 @@
         <v>333</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C120" s="2"/>
     </row>
@@ -3087,10 +3105,10 @@
         <v>112</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3098,7 +3116,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C122" s="2"/>
     </row>
@@ -3107,7 +3125,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C123" s="2"/>
     </row>
@@ -3116,7 +3134,7 @@
         <v>298</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C124" s="2"/>
     </row>
@@ -3125,7 +3143,7 @@
         <v>549</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C125" s="2"/>
     </row>
@@ -3134,10 +3152,10 @@
         <v>236</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3145,10 +3163,10 @@
         <v>199</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3156,7 +3174,7 @@
         <v>513</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C128" s="2"/>
     </row>
@@ -3165,7 +3183,7 @@
         <v>331</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C129" s="2"/>
     </row>
@@ -3174,7 +3192,7 @@
         <v>449</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C130" s="2"/>
     </row>
@@ -3183,19 +3201,19 @@
         <v>114</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C131" s="2"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D132" s="3">
         <v>45007</v>
@@ -3203,40 +3221,46 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="3">
         <v>45007</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134">
-        <v>46</v>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>179</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C134" s="7"/>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135">
-        <v>47</v>
+      <c r="D134" s="3">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>181</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C135" s="7"/>
+      <c r="D135" s="3">
+        <v>45007</v>
+      </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
         <v>77</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C136" s="7"/>
     </row>
@@ -3245,7 +3269,7 @@
         <v>78</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C137" s="7"/>
     </row>
@@ -3254,7 +3278,7 @@
         <v>90</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C138" s="7"/>
     </row>
@@ -3263,7 +3287,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C139" s="7"/>
     </row>
@@ -3272,7 +3296,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C140" s="7"/>
     </row>
@@ -3281,7 +3305,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C141" s="7"/>
     </row>
@@ -3290,7 +3314,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C142" s="7"/>
     </row>
@@ -3299,7 +3323,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C143" s="7"/>
     </row>
@@ -3308,7 +3332,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C144" s="7"/>
     </row>
@@ -3317,7 +3341,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C145" s="7"/>
     </row>
@@ -3326,7 +3350,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C146" s="7"/>
     </row>
@@ -3335,7 +3359,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C147" s="7"/>
     </row>
@@ -3344,7 +3368,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C148" s="7"/>
     </row>
@@ -3353,10 +3377,10 @@
         <v>113</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3364,7 +3388,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C150" s="7"/>
     </row>
@@ -3373,10 +3397,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3384,7 +3408,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C152" s="7"/>
     </row>
@@ -3393,7 +3417,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C153" s="7"/>
     </row>
@@ -3402,7 +3426,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C154" s="7"/>
     </row>
@@ -3411,7 +3435,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C155" s="7"/>
     </row>
@@ -3420,7 +3444,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C156" s="7"/>
     </row>
@@ -3429,10 +3453,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3440,7 +3464,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C158" s="7"/>
     </row>
@@ -3449,7 +3473,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C159" s="7"/>
     </row>
@@ -3458,7 +3482,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C160" s="7"/>
     </row>
@@ -3467,7 +3491,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C161" s="7"/>
     </row>
@@ -3476,10 +3500,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3487,7 +3511,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C163" s="7"/>
     </row>
@@ -3496,7 +3520,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C164" s="7"/>
     </row>
@@ -3505,7 +3529,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C165" s="7"/>
     </row>
@@ -3514,7 +3538,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C166" s="7"/>
     </row>
@@ -3523,10 +3547,10 @@
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3534,7 +3558,7 @@
         <v>21</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C168" s="7"/>
     </row>
@@ -3543,7 +3567,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C169" s="7"/>
     </row>
@@ -3552,7 +3576,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C170" s="7"/>
     </row>
@@ -3561,7 +3585,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C171" s="7"/>
     </row>
@@ -3570,7 +3594,7 @@
         <v>86</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C172" s="7"/>
     </row>
@@ -3579,7 +3603,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C173" s="7"/>
     </row>
@@ -3588,7 +3612,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C174" s="7"/>
     </row>
@@ -3597,7 +3621,7 @@
         <v>141</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C175" s="7"/>
     </row>
@@ -3606,7 +3630,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C176" s="7"/>
     </row>
@@ -3615,7 +3639,7 @@
         <v>160</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C177" s="7"/>
     </row>
@@ -3624,7 +3648,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C178" s="7"/>
     </row>
@@ -3633,7 +3657,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C179" s="7"/>
     </row>
@@ -3642,7 +3666,7 @@
         <v>234</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C180" s="7"/>
     </row>
@@ -3651,7 +3675,7 @@
         <v>328</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C181" s="7"/>
     </row>
@@ -3660,7 +3684,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C182" s="7"/>
     </row>
@@ -3669,7 +3693,7 @@
         <v>142</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C183" s="7"/>
     </row>
@@ -3678,7 +3702,7 @@
         <v>876</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C184" s="7"/>
     </row>
@@ -3687,10 +3711,10 @@
         <v>706</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3698,7 +3722,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C186" s="7"/>
     </row>
@@ -3707,7 +3731,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C187" s="7"/>
     </row>
@@ -3716,7 +3740,7 @@
         <v>560</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C188" s="7"/>
     </row>
@@ -3725,7 +3749,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C189" s="7"/>
     </row>
@@ -3734,7 +3758,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C190" s="7"/>
     </row>
@@ -3743,10 +3767,10 @@
         <v>23</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3754,7 +3778,7 @@
         <v>295</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C192" s="7"/>
     </row>
@@ -3763,7 +3787,7 @@
         <v>347</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C193" s="7"/>
     </row>
@@ -3772,7 +3796,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C194" s="7"/>
     </row>
@@ -3781,7 +3805,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C195" s="7"/>
     </row>
@@ -3790,7 +3814,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C196" s="7"/>
     </row>
@@ -3799,7 +3823,7 @@
         <v>480</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C197" s="7"/>
     </row>
@@ -3808,7 +3832,7 @@
         <v>703</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C198" s="7"/>
     </row>
@@ -3817,10 +3841,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3828,7 +3852,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C200" s="7"/>
     </row>
@@ -3837,7 +3861,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C201" s="7"/>
     </row>
@@ -3846,7 +3870,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C202" s="7"/>
     </row>
@@ -3855,7 +3879,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C203" s="7"/>
     </row>
@@ -3864,7 +3888,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C204" s="7"/>
     </row>
@@ -3873,7 +3897,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C205" s="7"/>
     </row>
@@ -3882,10 +3906,10 @@
         <v>300</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3893,7 +3917,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C207" s="7"/>
     </row>
@@ -3902,7 +3926,7 @@
         <v>239</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C208" s="7"/>
     </row>
@@ -3911,7 +3935,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C209" s="7"/>
     </row>
@@ -3920,10 +3944,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3931,7 +3955,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C211" s="7"/>
     </row>
@@ -3940,7 +3964,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C212" s="7"/>
     </row>
@@ -3949,10 +3973,10 @@
         <v>200</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3960,7 +3984,7 @@
         <v>305</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C214" s="7"/>
     </row>
@@ -3969,7 +3993,7 @@
         <v>323</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C215" s="7"/>
     </row>
@@ -3978,10 +4002,10 @@
         <v>252</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="217" ht="17" spans="1:3">
@@ -3989,7 +4013,7 @@
         <v>253</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C217" s="7"/>
     </row>
@@ -3998,10 +4022,10 @@
         <v>307</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4009,7 +4033,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C219" s="7"/>
     </row>
@@ -4018,7 +4042,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C220" s="7"/>
     </row>
@@ -4027,7 +4051,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C221" s="7"/>
     </row>
@@ -4036,7 +4060,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C222" s="7"/>
     </row>
@@ -4045,10 +4069,10 @@
         <v>146</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4056,7 +4080,7 @@
         <v>460</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C224" s="7"/>
     </row>
@@ -4065,7 +4089,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C225" s="7"/>
     </row>
@@ -4074,7 +4098,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C226" s="7"/>
     </row>
@@ -4083,7 +4107,7 @@
         <v>528</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C227" s="7"/>
     </row>
@@ -4092,7 +4116,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C228" s="7"/>
     </row>
@@ -4101,7 +4125,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C229" s="7"/>
     </row>
@@ -4110,7 +4134,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C230" s="7"/>
     </row>
@@ -4119,10 +4143,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4130,10 +4154,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4141,7 +4165,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C233" s="7"/>
     </row>
@@ -4150,7 +4174,7 @@
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C234" s="7"/>
     </row>
@@ -4159,7 +4183,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C235" s="7"/>
     </row>
@@ -4168,7 +4192,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C236" s="7"/>
     </row>
@@ -4177,7 +4201,7 @@
         <v>256</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C237" s="7"/>
     </row>
@@ -4186,7 +4210,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C238" s="7"/>
     </row>
@@ -4195,10 +4219,10 @@
         <v>10</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4206,7 +4230,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C240" s="7"/>
     </row>
@@ -4215,7 +4239,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C241" s="7"/>
     </row>
@@ -4224,7 +4248,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C242" s="7"/>
     </row>
@@ -4233,7 +4257,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C243" s="7"/>
     </row>
@@ -4242,7 +4266,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C244" s="7"/>
     </row>
@@ -4251,10 +4275,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4262,7 +4286,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C246" s="7"/>
     </row>
@@ -4271,7 +4295,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C247" s="7"/>
     </row>
@@ -4280,10 +4304,10 @@
         <v>62</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4291,7 +4315,7 @@
         <v>63</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C249" s="7"/>
     </row>
@@ -4300,7 +4324,7 @@
         <v>64</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C250" s="7"/>
     </row>
@@ -4309,7 +4333,7 @@
         <v>85</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C251" s="7"/>
     </row>
@@ -4318,7 +4342,7 @@
         <v>221</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C252" s="7"/>
     </row>
@@ -4327,7 +4351,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C253" s="7"/>
     </row>
@@ -4336,10 +4360,10 @@
         <v>91</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4347,7 +4371,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C255" s="7"/>
     </row>
@@ -4356,7 +4380,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C256" s="7"/>
     </row>
@@ -4365,7 +4389,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C257" s="7"/>
     </row>
@@ -4374,10 +4398,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4385,7 +4409,7 @@
         <v>45</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C259" s="7"/>
     </row>
@@ -4394,7 +4418,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C260" s="7"/>
     </row>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11520"/>
+    <workbookView windowWidth="28800" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="306">
   <si>
     <t>Question Number</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>Permutations II</t>
+  </si>
+  <si>
+    <t>77(Medium)</t>
   </si>
   <si>
     <t>Combinations</t>
@@ -936,10 +939,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -971,6 +974,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -979,17 +998,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1001,8 +1036,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,84 +1083,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1107,9 +1096,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1124,7 +1127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,25 +1139,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,49 +1169,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,7 +1211,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,13 +1247,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,13 +1259,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1286,25 +1301,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,24 +1318,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1383,11 +1368,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1420,152 +1423,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1586,9 +1589,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1914,8 +1914,8 @@
   <sheetPr/>
   <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -3154,7 +3154,7 @@
       <c r="B126" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3212,7 +3212,7 @@
       <c r="B132" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="2" t="s">
         <v>176</v>
       </c>
       <c r="D132" s="3">
@@ -3226,7 +3226,7 @@
       <c r="B133" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C133" s="7"/>
+      <c r="C133" s="2"/>
       <c r="D133" s="3">
         <v>45007</v>
       </c>
@@ -3238,7 +3238,7 @@
       <c r="B134" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C134" s="7"/>
+      <c r="C134" s="2"/>
       <c r="D134" s="3">
         <v>45007</v>
       </c>
@@ -3250,127 +3250,130 @@
       <c r="B135" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C135" s="7"/>
+      <c r="C135" s="2"/>
       <c r="D135" s="3">
         <v>45007</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136">
-        <v>77</v>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>183</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C136" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="3">
+        <v>45008</v>
+      </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
         <v>78</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C137" s="7"/>
+        <v>185</v>
+      </c>
+      <c r="C137" s="2"/>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
         <v>90</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C138" s="7"/>
+        <v>186</v>
+      </c>
+      <c r="C138" s="2"/>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C139" s="7"/>
+        <v>187</v>
+      </c>
+      <c r="C139" s="2"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C140" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="C140" s="2"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C141" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="C141" s="2"/>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C142" s="7"/>
+        <v>190</v>
+      </c>
+      <c r="C142" s="2"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C143" s="7"/>
+        <v>191</v>
+      </c>
+      <c r="C143" s="2"/>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C144" s="7"/>
+        <v>192</v>
+      </c>
+      <c r="C144" s="2"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C145" s="7"/>
+        <v>193</v>
+      </c>
+      <c r="C145" s="2"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C146" s="7"/>
+        <v>194</v>
+      </c>
+      <c r="C146" s="2"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C147" s="7"/>
+        <v>195</v>
+      </c>
+      <c r="C147" s="2"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C148" s="7"/>
+        <v>196</v>
+      </c>
+      <c r="C148" s="2"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
@@ -3379,8 +3382,8 @@
       <c r="B149" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C149" s="7" t="s">
-        <v>196</v>
+      <c r="C149" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3388,19 +3391,19 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C150" s="7"/>
+        <v>198</v>
+      </c>
+      <c r="C150" s="2"/>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C151" s="7" t="s">
         <v>199</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3408,55 +3411,55 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C152" s="7"/>
+        <v>201</v>
+      </c>
+      <c r="C152" s="2"/>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C153" s="7"/>
+        <v>202</v>
+      </c>
+      <c r="C153" s="2"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C154" s="7"/>
+        <v>203</v>
+      </c>
+      <c r="C154" s="2"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C155" s="7"/>
+        <v>204</v>
+      </c>
+      <c r="C155" s="2"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C156" s="7"/>
+        <v>205</v>
+      </c>
+      <c r="C156" s="2"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C157" s="7" t="s">
         <v>206</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3464,46 +3467,46 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C158" s="7"/>
+        <v>208</v>
+      </c>
+      <c r="C158" s="2"/>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C159" s="7"/>
+        <v>209</v>
+      </c>
+      <c r="C159" s="2"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C160" s="7"/>
+        <v>210</v>
+      </c>
+      <c r="C160" s="2"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C161" s="7"/>
+        <v>211</v>
+      </c>
+      <c r="C161" s="2"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C162" s="7" t="s">
         <v>212</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3511,46 +3514,46 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C163" s="7"/>
+        <v>214</v>
+      </c>
+      <c r="C163" s="2"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C164" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="C164" s="2"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C165" s="7"/>
+        <v>216</v>
+      </c>
+      <c r="C165" s="2"/>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C166" s="7"/>
+        <v>217</v>
+      </c>
+      <c r="C166" s="2"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C167" s="7" t="s">
         <v>218</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3560,34 +3563,34 @@
       <c r="B168" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C168" s="7"/>
+      <c r="C168" s="2"/>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C169" s="7"/>
+        <v>220</v>
+      </c>
+      <c r="C169" s="2"/>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C170" s="7"/>
+        <v>221</v>
+      </c>
+      <c r="C170" s="2"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C171" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="C171" s="2"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
@@ -3596,25 +3599,25 @@
       <c r="B172" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C172" s="7"/>
+      <c r="C172" s="2"/>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C173" s="7"/>
+        <v>223</v>
+      </c>
+      <c r="C173" s="2"/>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C174" s="7"/>
+        <v>224</v>
+      </c>
+      <c r="C174" s="2"/>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
@@ -3623,16 +3626,16 @@
       <c r="B175" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C175" s="7"/>
+      <c r="C175" s="2"/>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C176" s="7"/>
+        <v>225</v>
+      </c>
+      <c r="C176" s="2"/>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
@@ -3641,25 +3644,25 @@
       <c r="B177" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C177" s="7"/>
+      <c r="C177" s="2"/>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C178" s="7"/>
+        <v>226</v>
+      </c>
+      <c r="C178" s="2"/>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C179" s="7"/>
+        <v>227</v>
+      </c>
+      <c r="C179" s="2"/>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
@@ -3668,7 +3671,7 @@
       <c r="B180" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C180" s="7"/>
+      <c r="C180" s="2"/>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
@@ -3677,16 +3680,16 @@
       <c r="B181" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C181" s="7"/>
+      <c r="C181" s="2"/>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C182" s="7"/>
+        <v>228</v>
+      </c>
+      <c r="C182" s="2"/>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
@@ -3695,7 +3698,7 @@
       <c r="B183" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C183" s="7"/>
+      <c r="C183" s="2"/>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
@@ -3704,17 +3707,17 @@
       <c r="B184" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C184" s="7"/>
+      <c r="C184" s="2"/>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
         <v>706</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C185" s="7" t="s">
         <v>229</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3722,18 +3725,18 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C186" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="C186" s="2"/>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C187" s="7"/>
+        <v>232</v>
+      </c>
+      <c r="C187" s="2"/>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
@@ -3742,35 +3745,35 @@
       <c r="B188" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C188" s="7"/>
+      <c r="C188" s="2"/>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C189" s="7"/>
+        <v>233</v>
+      </c>
+      <c r="C189" s="2"/>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C190" s="7"/>
+        <v>204</v>
+      </c>
+      <c r="C190" s="2"/>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
         <v>23</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C191" s="7" t="s">
         <v>234</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3780,7 +3783,7 @@
       <c r="B192" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C192" s="7"/>
+      <c r="C192" s="2"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
@@ -3789,34 +3792,34 @@
       <c r="B193" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C193" s="7"/>
+      <c r="C193" s="2"/>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C194" s="7"/>
+        <v>236</v>
+      </c>
+      <c r="C194" s="2"/>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C195" s="7"/>
+        <v>237</v>
+      </c>
+      <c r="C195" s="2"/>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C196" s="7"/>
+        <v>238</v>
+      </c>
+      <c r="C196" s="2"/>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
@@ -3825,7 +3828,7 @@
       <c r="B197" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C197" s="7"/>
+      <c r="C197" s="2"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
@@ -3834,17 +3837,17 @@
       <c r="B198" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C198" s="7"/>
+      <c r="C198" s="2"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C199" s="7" t="s">
         <v>239</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3852,64 +3855,64 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C200" s="7"/>
+        <v>241</v>
+      </c>
+      <c r="C200" s="2"/>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C201" s="7"/>
+        <v>242</v>
+      </c>
+      <c r="C201" s="2"/>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C202" s="7"/>
+        <v>243</v>
+      </c>
+      <c r="C202" s="2"/>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C203" s="7"/>
+        <v>244</v>
+      </c>
+      <c r="C203" s="2"/>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C204" s="7"/>
+        <v>245</v>
+      </c>
+      <c r="C204" s="2"/>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C205" s="7"/>
+        <v>246</v>
+      </c>
+      <c r="C205" s="2"/>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
         <v>300</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C206" s="7" t="s">
         <v>247</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3917,9 +3920,9 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C207" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="C207" s="2"/>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
@@ -3928,26 +3931,26 @@
       <c r="B208" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C208" s="7"/>
+      <c r="C208" s="2"/>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C209" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="C209" s="2"/>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C210" s="7" t="s">
         <v>251</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3955,18 +3958,18 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C211" s="7"/>
+        <v>253</v>
+      </c>
+      <c r="C211" s="2"/>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C212" s="7"/>
+        <v>254</v>
+      </c>
+      <c r="C212" s="2"/>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
@@ -3975,8 +3978,8 @@
       <c r="B213" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C213" s="7" t="s">
-        <v>254</v>
+      <c r="C213" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3986,7 +3989,7 @@
       <c r="B214" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C214" s="7"/>
+      <c r="C214" s="2"/>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
@@ -3995,7 +3998,7 @@
       <c r="B215" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C215" s="7"/>
+      <c r="C215" s="2"/>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
@@ -4004,28 +4007,28 @@
       <c r="B216" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C216" s="7" t="s">
-        <v>255</v>
+      <c r="C216" s="2" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="217" ht="17" spans="1:3">
       <c r="A217">
         <v>253</v>
       </c>
-      <c r="B217" s="8" t="s">
+      <c r="B217" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C217" s="7"/>
+      <c r="C217" s="2"/>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
         <v>307</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C218" s="7" t="s">
         <v>257</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4033,46 +4036,46 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C219" s="7"/>
+        <v>259</v>
+      </c>
+      <c r="C219" s="2"/>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C220" s="7"/>
+        <v>260</v>
+      </c>
+      <c r="C220" s="2"/>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C221" s="7"/>
+        <v>261</v>
+      </c>
+      <c r="C221" s="2"/>
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C222" s="7"/>
+        <v>262</v>
+      </c>
+      <c r="C222" s="2"/>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
         <v>146</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C223" s="7" t="s">
         <v>263</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4080,27 +4083,27 @@
         <v>460</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C224" s="7"/>
+        <v>265</v>
+      </c>
+      <c r="C224" s="2"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C225" s="7"/>
+        <v>253</v>
+      </c>
+      <c r="C225" s="2"/>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C226" s="7"/>
+        <v>266</v>
+      </c>
+      <c r="C226" s="2"/>
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
@@ -4109,44 +4112,44 @@
       <c r="B227" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C227" s="7"/>
+      <c r="C227" s="2"/>
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C228" s="7"/>
+        <v>267</v>
+      </c>
+      <c r="C228" s="2"/>
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C229" s="7"/>
+        <v>268</v>
+      </c>
+      <c r="C229" s="2"/>
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C230" s="7"/>
+        <v>269</v>
+      </c>
+      <c r="C230" s="2"/>
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C231" s="7" t="s">
         <v>270</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4154,10 +4157,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C232" s="7" t="s">
         <v>272</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4165,64 +4168,64 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C233" s="7"/>
+        <v>274</v>
+      </c>
+      <c r="C233" s="2"/>
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C234" s="7"/>
+        <v>275</v>
+      </c>
+      <c r="C234" s="2"/>
     </row>
     <row r="235" spans="1:3">
       <c r="A235">
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C235" s="7"/>
+        <v>276</v>
+      </c>
+      <c r="C235" s="2"/>
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C236" s="7"/>
+        <v>277</v>
+      </c>
+      <c r="C236" s="2"/>
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
         <v>256</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C237" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="C237" s="2"/>
     </row>
     <row r="238" spans="1:3">
       <c r="A238">
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="C238" s="7"/>
+        <v>279</v>
+      </c>
+      <c r="C238" s="2"/>
     </row>
     <row r="239" spans="1:3">
       <c r="A239">
         <v>10</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C239" s="7" t="s">
         <v>280</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4230,55 +4233,55 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C240" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="C240" s="2"/>
     </row>
     <row r="241" spans="1:3">
       <c r="A241">
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C241" s="7"/>
+        <v>283</v>
+      </c>
+      <c r="C241" s="2"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242">
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C242" s="7"/>
+        <v>284</v>
+      </c>
+      <c r="C242" s="2"/>
     </row>
     <row r="243" spans="1:3">
       <c r="A243">
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C243" s="7"/>
+        <v>285</v>
+      </c>
+      <c r="C243" s="2"/>
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C244" s="7"/>
+        <v>286</v>
+      </c>
+      <c r="C244" s="2"/>
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C245" s="7" t="s">
         <v>287</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4286,28 +4289,28 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C246" s="7"/>
+        <v>289</v>
+      </c>
+      <c r="C246" s="2"/>
     </row>
     <row r="247" spans="1:3">
       <c r="A247">
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C247" s="7"/>
+        <v>290</v>
+      </c>
+      <c r="C247" s="2"/>
     </row>
     <row r="248" spans="1:3">
       <c r="A248">
         <v>62</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C248" s="7" t="s">
         <v>291</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4315,55 +4318,55 @@
         <v>63</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C249" s="7"/>
+        <v>293</v>
+      </c>
+      <c r="C249" s="2"/>
     </row>
     <row r="250" spans="1:3">
       <c r="A250">
         <v>64</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C250" s="7"/>
+        <v>294</v>
+      </c>
+      <c r="C250" s="2"/>
     </row>
     <row r="251" spans="1:3">
       <c r="A251">
         <v>85</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C251" s="7"/>
+        <v>242</v>
+      </c>
+      <c r="C251" s="2"/>
     </row>
     <row r="252" spans="1:3">
       <c r="A252">
         <v>221</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C252" s="7"/>
+        <v>295</v>
+      </c>
+      <c r="C252" s="2"/>
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C253" s="7"/>
+        <v>296</v>
+      </c>
+      <c r="C253" s="2"/>
     </row>
     <row r="254" spans="1:3">
       <c r="A254">
         <v>91</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C254" s="7" t="s">
         <v>297</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4371,37 +4374,37 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C255" s="7"/>
+        <v>299</v>
+      </c>
+      <c r="C255" s="2"/>
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C256" s="7"/>
+        <v>300</v>
+      </c>
+      <c r="C256" s="2"/>
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="C257" s="7"/>
+        <v>301</v>
+      </c>
+      <c r="C257" s="2"/>
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C258" s="7" t="s">
         <v>302</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4409,18 +4412,18 @@
         <v>45</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C259" s="7"/>
+        <v>304</v>
+      </c>
+      <c r="C259" s="2"/>
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C260" s="7"/>
+        <v>305</v>
+      </c>
+      <c r="C260" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="43">

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11540"/>
+    <workbookView windowWidth="28800" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="307">
   <si>
     <t>Question Number</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>Combinations</t>
+  </si>
+  <si>
+    <t>78(Medium)</t>
   </si>
   <si>
     <t>Subsets</t>
@@ -1914,8 +1917,8 @@
   <sheetPr/>
   <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -3267,21 +3270,24 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137">
-        <v>78</v>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>185</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C137" s="2"/>
+      <c r="D137" s="3">
+        <v>45008</v>
+      </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
         <v>90</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C138" s="2"/>
     </row>
@@ -3290,7 +3296,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C139" s="2"/>
     </row>
@@ -3299,7 +3305,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C140" s="2"/>
     </row>
@@ -3308,7 +3314,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C141" s="2"/>
     </row>
@@ -3317,7 +3323,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C142" s="2"/>
     </row>
@@ -3326,7 +3332,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C143" s="2"/>
     </row>
@@ -3335,7 +3341,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C144" s="2"/>
     </row>
@@ -3344,7 +3350,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C145" s="2"/>
     </row>
@@ -3353,7 +3359,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C146" s="2"/>
     </row>
@@ -3362,7 +3368,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C147" s="2"/>
     </row>
@@ -3371,7 +3377,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C148" s="2"/>
     </row>
@@ -3383,7 +3389,7 @@
         <v>163</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3391,7 +3397,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C150" s="2"/>
     </row>
@@ -3400,10 +3406,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3411,7 +3417,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C152" s="2"/>
     </row>
@@ -3420,7 +3426,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C153" s="2"/>
     </row>
@@ -3429,7 +3435,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C154" s="2"/>
     </row>
@@ -3438,7 +3444,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C155" s="2"/>
     </row>
@@ -3447,7 +3453,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C156" s="2"/>
     </row>
@@ -3456,10 +3462,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3467,7 +3473,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C158" s="2"/>
     </row>
@@ -3476,7 +3482,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C159" s="2"/>
     </row>
@@ -3485,7 +3491,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C160" s="2"/>
     </row>
@@ -3494,7 +3500,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C161" s="2"/>
     </row>
@@ -3503,10 +3509,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3514,7 +3520,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C163" s="2"/>
     </row>
@@ -3523,7 +3529,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C164" s="2"/>
     </row>
@@ -3532,7 +3538,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C165" s="2"/>
     </row>
@@ -3541,7 +3547,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C166" s="2"/>
     </row>
@@ -3550,10 +3556,10 @@
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3570,7 +3576,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C169" s="2"/>
     </row>
@@ -3579,7 +3585,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C170" s="2"/>
     </row>
@@ -3588,7 +3594,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C171" s="2"/>
     </row>
@@ -3606,7 +3612,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C173" s="2"/>
     </row>
@@ -3615,7 +3621,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C174" s="2"/>
     </row>
@@ -3633,7 +3639,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C176" s="2"/>
     </row>
@@ -3651,7 +3657,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C178" s="2"/>
     </row>
@@ -3660,7 +3666,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C179" s="2"/>
     </row>
@@ -3687,7 +3693,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C182" s="2"/>
     </row>
@@ -3714,10 +3720,10 @@
         <v>706</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3725,7 +3731,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C186" s="2"/>
     </row>
@@ -3734,7 +3740,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C187" s="2"/>
     </row>
@@ -3752,7 +3758,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C189" s="2"/>
     </row>
@@ -3761,7 +3767,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C190" s="2"/>
     </row>
@@ -3770,10 +3776,10 @@
         <v>23</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3799,7 +3805,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C194" s="2"/>
     </row>
@@ -3808,7 +3814,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C195" s="2"/>
     </row>
@@ -3817,7 +3823,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C196" s="2"/>
     </row>
@@ -3844,10 +3850,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3855,7 +3861,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C200" s="2"/>
     </row>
@@ -3864,7 +3870,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C201" s="2"/>
     </row>
@@ -3873,7 +3879,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C202" s="2"/>
     </row>
@@ -3882,7 +3888,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C203" s="2"/>
     </row>
@@ -3891,7 +3897,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C204" s="2"/>
     </row>
@@ -3900,7 +3906,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C205" s="2"/>
     </row>
@@ -3909,10 +3915,10 @@
         <v>300</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3920,7 +3926,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C207" s="2"/>
     </row>
@@ -3938,7 +3944,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C209" s="2"/>
     </row>
@@ -3947,10 +3953,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3958,7 +3964,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C211" s="2"/>
     </row>
@@ -3967,7 +3973,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C212" s="2"/>
     </row>
@@ -3979,7 +3985,7 @@
         <v>115</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4008,7 +4014,7 @@
         <v>59</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="217" ht="17" spans="1:3">
@@ -4025,10 +4031,10 @@
         <v>307</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4036,7 +4042,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C219" s="2"/>
     </row>
@@ -4045,7 +4051,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C220" s="2"/>
     </row>
@@ -4054,7 +4060,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C221" s="2"/>
     </row>
@@ -4063,7 +4069,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C222" s="2"/>
     </row>
@@ -4072,10 +4078,10 @@
         <v>146</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4083,7 +4089,7 @@
         <v>460</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C224" s="2"/>
     </row>
@@ -4092,7 +4098,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C225" s="2"/>
     </row>
@@ -4101,7 +4107,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C226" s="2"/>
     </row>
@@ -4119,7 +4125,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C228" s="2"/>
     </row>
@@ -4128,7 +4134,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C229" s="2"/>
     </row>
@@ -4137,7 +4143,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C230" s="2"/>
     </row>
@@ -4146,10 +4152,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4157,10 +4163,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4168,7 +4174,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C233" s="2"/>
     </row>
@@ -4177,7 +4183,7 @@
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C234" s="2"/>
     </row>
@@ -4186,7 +4192,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C235" s="2"/>
     </row>
@@ -4195,7 +4201,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C236" s="2"/>
     </row>
@@ -4204,7 +4210,7 @@
         <v>256</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C237" s="2"/>
     </row>
@@ -4213,7 +4219,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C238" s="2"/>
     </row>
@@ -4222,10 +4228,10 @@
         <v>10</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4233,7 +4239,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C240" s="2"/>
     </row>
@@ -4242,7 +4248,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C241" s="2"/>
     </row>
@@ -4251,7 +4257,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C242" s="2"/>
     </row>
@@ -4260,7 +4266,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C243" s="2"/>
     </row>
@@ -4269,7 +4275,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C244" s="2"/>
     </row>
@@ -4278,10 +4284,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4289,7 +4295,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C246" s="2"/>
     </row>
@@ -4298,7 +4304,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C247" s="2"/>
     </row>
@@ -4307,10 +4313,10 @@
         <v>62</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4318,7 +4324,7 @@
         <v>63</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C249" s="2"/>
     </row>
@@ -4327,7 +4333,7 @@
         <v>64</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C250" s="2"/>
     </row>
@@ -4336,7 +4342,7 @@
         <v>85</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C251" s="2"/>
     </row>
@@ -4345,7 +4351,7 @@
         <v>221</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C252" s="2"/>
     </row>
@@ -4354,7 +4360,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C253" s="2"/>
     </row>
@@ -4363,10 +4369,10 @@
         <v>91</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4374,7 +4380,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C255" s="2"/>
     </row>
@@ -4383,7 +4389,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C256" s="2"/>
     </row>
@@ -4392,7 +4398,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C257" s="2"/>
     </row>
@@ -4401,10 +4407,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4412,7 +4418,7 @@
         <v>45</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C259" s="2"/>
     </row>
@@ -4421,7 +4427,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C260" s="2"/>
     </row>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="308">
   <si>
     <t>Question Number</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>Subsets</t>
+  </si>
+  <si>
+    <t>90(Medium)</t>
   </si>
   <si>
     <t>Subsets II</t>
@@ -1918,7 +1921,7 @@
   <dimension ref="A1:E260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -3282,21 +3285,24 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138">
-        <v>90</v>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>187</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C138" s="2"/>
+      <c r="D138" s="3">
+        <v>45008</v>
+      </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C139" s="2"/>
     </row>
@@ -3305,7 +3311,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C140" s="2"/>
     </row>
@@ -3314,7 +3320,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C141" s="2"/>
     </row>
@@ -3323,7 +3329,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C142" s="2"/>
     </row>
@@ -3332,7 +3338,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C143" s="2"/>
     </row>
@@ -3341,7 +3347,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C144" s="2"/>
     </row>
@@ -3350,7 +3356,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C145" s="2"/>
     </row>
@@ -3359,7 +3365,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C146" s="2"/>
     </row>
@@ -3368,7 +3374,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C147" s="2"/>
     </row>
@@ -3377,7 +3383,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C148" s="2"/>
     </row>
@@ -3389,7 +3395,7 @@
         <v>163</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3397,7 +3403,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C150" s="2"/>
     </row>
@@ -3406,10 +3412,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3417,7 +3423,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C152" s="2"/>
     </row>
@@ -3426,7 +3432,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C153" s="2"/>
     </row>
@@ -3435,7 +3441,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C154" s="2"/>
     </row>
@@ -3444,7 +3450,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C155" s="2"/>
     </row>
@@ -3453,7 +3459,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C156" s="2"/>
     </row>
@@ -3462,10 +3468,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3473,7 +3479,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C158" s="2"/>
     </row>
@@ -3482,7 +3488,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C159" s="2"/>
     </row>
@@ -3491,7 +3497,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C160" s="2"/>
     </row>
@@ -3500,7 +3506,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C161" s="2"/>
     </row>
@@ -3509,10 +3515,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3520,7 +3526,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C163" s="2"/>
     </row>
@@ -3529,7 +3535,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C164" s="2"/>
     </row>
@@ -3538,7 +3544,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C165" s="2"/>
     </row>
@@ -3547,7 +3553,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C166" s="2"/>
     </row>
@@ -3556,10 +3562,10 @@
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3576,7 +3582,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C169" s="2"/>
     </row>
@@ -3585,7 +3591,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C170" s="2"/>
     </row>
@@ -3594,7 +3600,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C171" s="2"/>
     </row>
@@ -3612,7 +3618,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C173" s="2"/>
     </row>
@@ -3621,7 +3627,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C174" s="2"/>
     </row>
@@ -3639,7 +3645,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C176" s="2"/>
     </row>
@@ -3657,7 +3663,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C178" s="2"/>
     </row>
@@ -3666,7 +3672,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C179" s="2"/>
     </row>
@@ -3693,7 +3699,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C182" s="2"/>
     </row>
@@ -3720,10 +3726,10 @@
         <v>706</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3731,7 +3737,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C186" s="2"/>
     </row>
@@ -3740,7 +3746,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C187" s="2"/>
     </row>
@@ -3758,7 +3764,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C189" s="2"/>
     </row>
@@ -3767,7 +3773,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C190" s="2"/>
     </row>
@@ -3776,10 +3782,10 @@
         <v>23</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3805,7 +3811,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C194" s="2"/>
     </row>
@@ -3814,7 +3820,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C195" s="2"/>
     </row>
@@ -3823,7 +3829,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C196" s="2"/>
     </row>
@@ -3850,10 +3856,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3861,7 +3867,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C200" s="2"/>
     </row>
@@ -3870,7 +3876,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C201" s="2"/>
     </row>
@@ -3879,7 +3885,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C202" s="2"/>
     </row>
@@ -3888,7 +3894,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C203" s="2"/>
     </row>
@@ -3897,7 +3903,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C204" s="2"/>
     </row>
@@ -3906,7 +3912,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C205" s="2"/>
     </row>
@@ -3915,10 +3921,10 @@
         <v>300</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3926,7 +3932,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C207" s="2"/>
     </row>
@@ -3944,7 +3950,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C209" s="2"/>
     </row>
@@ -3953,10 +3959,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3964,7 +3970,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C211" s="2"/>
     </row>
@@ -3973,7 +3979,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C212" s="2"/>
     </row>
@@ -3985,7 +3991,7 @@
         <v>115</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4014,7 +4020,7 @@
         <v>59</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="217" ht="17" spans="1:3">
@@ -4031,10 +4037,10 @@
         <v>307</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4042,7 +4048,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C219" s="2"/>
     </row>
@@ -4051,7 +4057,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C220" s="2"/>
     </row>
@@ -4060,7 +4066,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C221" s="2"/>
     </row>
@@ -4069,7 +4075,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C222" s="2"/>
     </row>
@@ -4078,10 +4084,10 @@
         <v>146</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4089,7 +4095,7 @@
         <v>460</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C224" s="2"/>
     </row>
@@ -4098,7 +4104,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C225" s="2"/>
     </row>
@@ -4107,7 +4113,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C226" s="2"/>
     </row>
@@ -4125,7 +4131,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C228" s="2"/>
     </row>
@@ -4134,7 +4140,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C229" s="2"/>
     </row>
@@ -4143,7 +4149,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C230" s="2"/>
     </row>
@@ -4152,10 +4158,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4163,10 +4169,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4174,7 +4180,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C233" s="2"/>
     </row>
@@ -4183,7 +4189,7 @@
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C234" s="2"/>
     </row>
@@ -4192,7 +4198,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C235" s="2"/>
     </row>
@@ -4201,7 +4207,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C236" s="2"/>
     </row>
@@ -4210,7 +4216,7 @@
         <v>256</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C237" s="2"/>
     </row>
@@ -4219,7 +4225,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C238" s="2"/>
     </row>
@@ -4228,10 +4234,10 @@
         <v>10</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4239,7 +4245,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C240" s="2"/>
     </row>
@@ -4248,7 +4254,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C241" s="2"/>
     </row>
@@ -4257,7 +4263,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C242" s="2"/>
     </row>
@@ -4266,7 +4272,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C243" s="2"/>
     </row>
@@ -4275,7 +4281,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C244" s="2"/>
     </row>
@@ -4284,10 +4290,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4295,7 +4301,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C246" s="2"/>
     </row>
@@ -4304,7 +4310,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C247" s="2"/>
     </row>
@@ -4313,10 +4319,10 @@
         <v>62</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4324,7 +4330,7 @@
         <v>63</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C249" s="2"/>
     </row>
@@ -4333,7 +4339,7 @@
         <v>64</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C250" s="2"/>
     </row>
@@ -4342,7 +4348,7 @@
         <v>85</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C251" s="2"/>
     </row>
@@ -4351,7 +4357,7 @@
         <v>221</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C252" s="2"/>
     </row>
@@ -4360,7 +4366,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C253" s="2"/>
     </row>
@@ -4369,10 +4375,10 @@
         <v>91</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4380,7 +4386,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C255" s="2"/>
     </row>
@@ -4389,7 +4395,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C256" s="2"/>
     </row>
@@ -4398,7 +4404,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C257" s="2"/>
     </row>
@@ -4407,10 +4413,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4418,7 +4424,7 @@
         <v>45</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C259" s="2"/>
     </row>
@@ -4427,7 +4433,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C260" s="2"/>
     </row>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="310">
   <si>
     <t>Question Number</t>
   </si>
@@ -676,6 +676,9 @@
     <t>String Compression</t>
   </si>
   <si>
+    <t>2(Medium)</t>
+  </si>
+  <si>
     <t>Add Two Numbers</t>
   </si>
   <si>
@@ -707,6 +710,9 @@
   </si>
   <si>
     <t>Add Two Numbers II</t>
+  </si>
+  <si>
+    <t>706(Easy)</t>
   </si>
   <si>
     <t>Design HashMap</t>
@@ -944,11 +950,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1537,7 +1544,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1584,7 +1591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1593,7 +1600,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1918,18 +1925,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E260"/>
+  <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17.96875" customWidth="1"/>
     <col min="2" max="2" width="34.2421875" customWidth="1"/>
     <col min="3" max="3" width="27.34375" customWidth="1"/>
-    <col min="4" max="4" width="9.625"/>
+    <col min="4" max="5" width="9.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1949,7 +1956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1962,8 +1969,12 @@
       <c r="D2" s="3">
         <v>45003</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>34</v>
       </c>
@@ -1971,8 +1982,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>702</v>
       </c>
@@ -1980,8 +1996,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>153</v>
       </c>
@@ -1989,8 +2010,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>154</v>
       </c>
@@ -1998,8 +2024,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>278</v>
       </c>
@@ -2007,8 +2038,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>658</v>
       </c>
@@ -2016,8 +2052,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2030,8 +2071,12 @@
       <c r="D9" s="3">
         <v>45003</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2040,8 +2085,12 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2049,8 +2098,13 @@
         <v>19</v>
       </c>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>74</v>
       </c>
@@ -2058,8 +2112,13 @@
         <v>20</v>
       </c>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>162</v>
       </c>
@@ -2067,8 +2126,13 @@
         <v>21</v>
       </c>
       <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>302</v>
       </c>
@@ -2076,8 +2140,13 @@
         <v>22</v>
       </c>
       <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>852</v>
       </c>
@@ -2085,8 +2154,13 @@
         <v>23</v>
       </c>
       <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>875</v>
       </c>
@@ -2096,8 +2170,13 @@
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>1283</v>
       </c>
@@ -2105,8 +2184,13 @@
         <v>26</v>
       </c>
       <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>69</v>
       </c>
@@ -2114,8 +2198,13 @@
         <v>27</v>
       </c>
       <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2128,8 +2217,12 @@
       <c r="D19" s="3">
         <v>45003</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2140,8 +2233,12 @@
       <c r="D20" s="3">
         <v>45003</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>26</v>
       </c>
@@ -2149,8 +2246,13 @@
         <v>33</v>
       </c>
       <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>80</v>
       </c>
@@ -2158,8 +2260,13 @@
         <v>34</v>
       </c>
       <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>88</v>
       </c>
@@ -2167,8 +2274,13 @@
         <v>35</v>
       </c>
       <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>283</v>
       </c>
@@ -2176,8 +2288,13 @@
         <v>36</v>
       </c>
       <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>215</v>
       </c>
@@ -2185,8 +2302,13 @@
         <v>37</v>
       </c>
       <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>347</v>
       </c>
@@ -2194,8 +2316,13 @@
         <v>38</v>
       </c>
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>349</v>
       </c>
@@ -2203,8 +2330,13 @@
         <v>39</v>
       </c>
       <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>350</v>
       </c>
@@ -2212,8 +2344,13 @@
         <v>40</v>
       </c>
       <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>845</v>
       </c>
@@ -2221,8 +2358,13 @@
         <v>41</v>
       </c>
       <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>42</v>
       </c>
@@ -2230,8 +2372,13 @@
         <v>42</v>
       </c>
       <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>43</v>
       </c>
@@ -2239,8 +2386,13 @@
         <v>43</v>
       </c>
       <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>969</v>
       </c>
@@ -2248,8 +2400,13 @@
         <v>44</v>
       </c>
       <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -2260,10 +2417,17 @@
         <v>47</v>
       </c>
       <c r="D33" s="3">
+        <f>DATE(2023,3,19)</f>
         <v>45004</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="E33" s="3">
+        <v>45008</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>86</v>
       </c>
@@ -2271,8 +2435,13 @@
         <v>48</v>
       </c>
       <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>141</v>
       </c>
@@ -2280,8 +2449,13 @@
         <v>49</v>
       </c>
       <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>160</v>
       </c>
@@ -2289,8 +2463,13 @@
         <v>50</v>
       </c>
       <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>234</v>
       </c>
@@ -2298,8 +2477,13 @@
         <v>51</v>
       </c>
       <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>328</v>
       </c>
@@ -2307,8 +2491,13 @@
         <v>52</v>
       </c>
       <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>142</v>
       </c>
@@ -2316,8 +2505,13 @@
         <v>53</v>
       </c>
       <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>287</v>
       </c>
@@ -2325,8 +2519,13 @@
         <v>54</v>
       </c>
       <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>876</v>
       </c>
@@ -2334,8 +2533,13 @@
         <v>55</v>
       </c>
       <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>56</v>
       </c>
@@ -2345,8 +2549,13 @@
       <c r="C42" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>57</v>
       </c>
@@ -2354,8 +2563,13 @@
         <v>58</v>
       </c>
       <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>252</v>
       </c>
@@ -2363,8 +2577,13 @@
         <v>59</v>
       </c>
       <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>253</v>
       </c>
@@ -2372,8 +2591,13 @@
         <v>60</v>
       </c>
       <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>986</v>
       </c>
@@ -2381,8 +2605,13 @@
         <v>61</v>
       </c>
       <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2392,8 +2621,13 @@
       <c r="C47" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>345</v>
       </c>
@@ -2401,8 +2635,13 @@
         <v>64</v>
       </c>
       <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>680</v>
       </c>
@@ -2410,8 +2649,13 @@
         <v>65</v>
       </c>
       <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>125</v>
       </c>
@@ -2419,8 +2663,13 @@
         <v>66</v>
       </c>
       <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -2433,8 +2682,12 @@
       <c r="D51" s="3">
         <v>45004</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>11</v>
       </c>
@@ -2442,8 +2695,13 @@
         <v>70</v>
       </c>
       <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>76</v>
       </c>
@@ -2451,8 +2709,13 @@
         <v>71</v>
       </c>
       <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>209</v>
       </c>
@@ -2460,8 +2723,13 @@
         <v>72</v>
       </c>
       <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>239</v>
       </c>
@@ -2469,8 +2737,13 @@
         <v>73</v>
       </c>
       <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>713</v>
       </c>
@@ -2478,8 +2751,13 @@
         <v>74</v>
       </c>
       <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>395</v>
       </c>
@@ -2487,8 +2765,13 @@
         <v>75</v>
       </c>
       <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>480</v>
       </c>
@@ -2496,8 +2779,13 @@
         <v>76</v>
       </c>
       <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>567</v>
       </c>
@@ -2505,8 +2793,13 @@
         <v>77</v>
       </c>
       <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>727</v>
       </c>
@@ -2514,8 +2807,13 @@
         <v>78</v>
       </c>
       <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>295</v>
       </c>
@@ -2525,8 +2823,13 @@
       <c r="C61" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>346</v>
       </c>
@@ -2534,8 +2837,13 @@
         <v>81</v>
       </c>
       <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>352</v>
       </c>
@@ -2543,8 +2851,13 @@
         <v>82</v>
       </c>
       <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>703</v>
       </c>
@@ -2552,8 +2865,13 @@
         <v>83</v>
       </c>
       <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>84</v>
       </c>
@@ -2566,8 +2884,12 @@
       <c r="D65" s="3">
         <v>45004</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>238</v>
       </c>
@@ -2575,8 +2897,13 @@
         <v>87</v>
       </c>
       <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>303</v>
       </c>
@@ -2584,8 +2911,13 @@
         <v>88</v>
       </c>
       <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>325</v>
       </c>
@@ -2593,8 +2925,13 @@
         <v>89</v>
       </c>
       <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>528</v>
       </c>
@@ -2602,8 +2939,13 @@
         <v>90</v>
       </c>
       <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>560</v>
       </c>
@@ -2611,8 +2953,13 @@
         <v>91</v>
       </c>
       <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>92</v>
       </c>
@@ -2625,8 +2972,12 @@
       <c r="D71" s="3">
         <v>45005</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>15</v>
       </c>
@@ -2634,8 +2985,13 @@
         <v>95</v>
       </c>
       <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>18</v>
       </c>
@@ -2643,8 +2999,13 @@
         <v>96</v>
       </c>
       <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>167</v>
       </c>
@@ -2652,8 +3013,13 @@
         <v>97</v>
       </c>
       <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>170</v>
       </c>
@@ -2661,8 +3027,13 @@
         <v>98</v>
       </c>
       <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>653</v>
       </c>
@@ -2670,8 +3041,13 @@
         <v>99</v>
       </c>
       <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>1099</v>
       </c>
@@ -2679,8 +3055,13 @@
         <v>100</v>
       </c>
       <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>259</v>
       </c>
@@ -2688,8 +3069,13 @@
         <v>101</v>
       </c>
       <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>102</v>
       </c>
@@ -2702,8 +3088,12 @@
       <c r="D79" s="3">
         <v>45005</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>102</v>
       </c>
@@ -2711,8 +3101,13 @@
         <v>105</v>
       </c>
       <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>103</v>
       </c>
@@ -2720,8 +3115,13 @@
         <v>106</v>
       </c>
       <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>107</v>
       </c>
@@ -2729,8 +3129,13 @@
         <v>107</v>
       </c>
       <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>513</v>
       </c>
@@ -2738,8 +3143,13 @@
         <v>108</v>
       </c>
       <c r="C83" s="2"/>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>207</v>
       </c>
@@ -2749,8 +3159,13 @@
       <c r="C84" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>210</v>
       </c>
@@ -2758,8 +3173,13 @@
         <v>111</v>
       </c>
       <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>269</v>
       </c>
@@ -2767,8 +3187,13 @@
         <v>112</v>
       </c>
       <c r="C86" s="2"/>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>444</v>
       </c>
@@ -2776,8 +3201,13 @@
         <v>113</v>
       </c>
       <c r="C87" s="2"/>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>114</v>
       </c>
@@ -2790,8 +3220,12 @@
       <c r="D88" s="3">
         <v>45005</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>490</v>
       </c>
@@ -2799,8 +3233,13 @@
         <v>117</v>
       </c>
       <c r="C89" s="2"/>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>505</v>
       </c>
@@ -2808,8 +3247,13 @@
         <v>118</v>
       </c>
       <c r="C90" s="2"/>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>542</v>
       </c>
@@ -2817,8 +3261,13 @@
         <v>119</v>
       </c>
       <c r="C91" s="2"/>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>733</v>
       </c>
@@ -2826,8 +3275,13 @@
         <v>120</v>
       </c>
       <c r="C92" s="2"/>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>994</v>
       </c>
@@ -2835,8 +3289,13 @@
         <v>121</v>
       </c>
       <c r="C93" s="2"/>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>305</v>
       </c>
@@ -2844,8 +3303,13 @@
         <v>122</v>
       </c>
       <c r="C94" s="2"/>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>773</v>
       </c>
@@ -2853,8 +3317,13 @@
         <v>123</v>
       </c>
       <c r="C95" s="2"/>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>124</v>
       </c>
@@ -2867,8 +3336,12 @@
       <c r="D96" s="3">
         <v>45005</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>127</v>
       </c>
@@ -2876,8 +3349,13 @@
         <v>127</v>
       </c>
       <c r="C97" s="2"/>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>261</v>
       </c>
@@ -2885,8 +3363,13 @@
         <v>128</v>
       </c>
       <c r="C98" s="2"/>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>841</v>
       </c>
@@ -2894,8 +3377,13 @@
         <v>129</v>
       </c>
       <c r="C99" s="2"/>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>323</v>
       </c>
@@ -2903,8 +3391,13 @@
         <v>130</v>
       </c>
       <c r="C100" s="2"/>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>1306</v>
       </c>
@@ -2912,8 +3405,13 @@
         <v>131</v>
       </c>
       <c r="C101" s="2"/>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>132</v>
       </c>
@@ -2926,8 +3424,12 @@
       <c r="D102" s="3">
         <v>45005</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>135</v>
       </c>
@@ -2938,8 +3440,12 @@
       <c r="D103" s="3">
         <v>45006</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>137</v>
       </c>
@@ -2950,8 +3456,12 @@
       <c r="D104" s="3">
         <v>45006</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>139</v>
       </c>
@@ -2964,8 +3474,12 @@
       <c r="D105" s="3">
         <v>45006</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>106</v>
       </c>
@@ -2973,8 +3487,13 @@
         <v>142</v>
       </c>
       <c r="C106" s="2"/>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>889</v>
       </c>
@@ -2982,8 +3501,13 @@
         <v>143</v>
       </c>
       <c r="C107" s="2"/>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>144</v>
       </c>
@@ -2993,8 +3517,16 @@
       <c r="C108" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" s="3">
+        <f>DATE(2023,3,21)</f>
+        <v>45006</v>
+      </c>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>30</v>
       </c>
@@ -3002,8 +3534,13 @@
         <v>147</v>
       </c>
       <c r="C109" s="2"/>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>285</v>
       </c>
@@ -3011,8 +3548,13 @@
         <v>148</v>
       </c>
       <c r="C110" s="2"/>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>270</v>
       </c>
@@ -3020,8 +3562,13 @@
         <v>149</v>
       </c>
       <c r="C111" s="2"/>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>272</v>
       </c>
@@ -3029,8 +3576,13 @@
         <v>150</v>
       </c>
       <c r="C112" s="2"/>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>510</v>
       </c>
@@ -3038,8 +3590,13 @@
         <v>151</v>
       </c>
       <c r="C113" s="2"/>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>98</v>
       </c>
@@ -3049,8 +3606,13 @@
       <c r="C114" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>100</v>
       </c>
@@ -3058,8 +3620,13 @@
         <v>154</v>
       </c>
       <c r="C115" s="2"/>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>101</v>
       </c>
@@ -3067,8 +3634,13 @@
         <v>155</v>
       </c>
       <c r="C116" s="2"/>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>110</v>
       </c>
@@ -3076,8 +3648,13 @@
         <v>156</v>
       </c>
       <c r="C117" s="2"/>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>111</v>
       </c>
@@ -3087,8 +3664,13 @@
       <c r="C118" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>104</v>
       </c>
@@ -3096,8 +3678,13 @@
         <v>159</v>
       </c>
       <c r="C119" s="2"/>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>333</v>
       </c>
@@ -3105,8 +3692,13 @@
         <v>160</v>
       </c>
       <c r="C120" s="2"/>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>112</v>
       </c>
@@ -3116,8 +3708,13 @@
       <c r="C121" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>113</v>
       </c>
@@ -3125,8 +3722,13 @@
         <v>163</v>
       </c>
       <c r="C122" s="2"/>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>124</v>
       </c>
@@ -3134,8 +3736,13 @@
         <v>164</v>
       </c>
       <c r="C123" s="2"/>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>298</v>
       </c>
@@ -3143,8 +3750,13 @@
         <v>165</v>
       </c>
       <c r="C124" s="2"/>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>549</v>
       </c>
@@ -3152,8 +3764,13 @@
         <v>166</v>
       </c>
       <c r="C125" s="2"/>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>236</v>
       </c>
@@ -3163,8 +3780,13 @@
       <c r="C126" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>199</v>
       </c>
@@ -3174,8 +3796,13 @@
       <c r="C127" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>513</v>
       </c>
@@ -3183,8 +3810,13 @@
         <v>108</v>
       </c>
       <c r="C128" s="2"/>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>331</v>
       </c>
@@ -3192,8 +3824,13 @@
         <v>171</v>
       </c>
       <c r="C129" s="2"/>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>449</v>
       </c>
@@ -3201,8 +3838,13 @@
         <v>172</v>
       </c>
       <c r="C130" s="2"/>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>114</v>
       </c>
@@ -3210,8 +3852,13 @@
         <v>173</v>
       </c>
       <c r="C131" s="2"/>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>174</v>
       </c>
@@ -3224,8 +3871,12 @@
       <c r="D132" s="3">
         <v>45007</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>177</v>
       </c>
@@ -3236,8 +3887,12 @@
       <c r="D133" s="3">
         <v>45007</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>179</v>
       </c>
@@ -3248,8 +3903,12 @@
       <c r="D134" s="3">
         <v>45007</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>181</v>
       </c>
@@ -3260,8 +3919,12 @@
       <c r="D135" s="3">
         <v>45007</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>183</v>
       </c>
@@ -3272,8 +3935,12 @@
       <c r="D136" s="3">
         <v>45008</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>185</v>
       </c>
@@ -3284,8 +3951,12 @@
       <c r="D137" s="3">
         <v>45008</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>187</v>
       </c>
@@ -3296,8 +3967,12 @@
       <c r="D138" s="3">
         <v>45008</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>17</v>
       </c>
@@ -3305,8 +3980,13 @@
         <v>189</v>
       </c>
       <c r="C139" s="2"/>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>22</v>
       </c>
@@ -3314,8 +3994,13 @@
         <v>190</v>
       </c>
       <c r="C140" s="2"/>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>51</v>
       </c>
@@ -3323,8 +4008,13 @@
         <v>191</v>
       </c>
       <c r="C141" s="2"/>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>254</v>
       </c>
@@ -3332,8 +4022,13 @@
         <v>192</v>
       </c>
       <c r="C142" s="2"/>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>301</v>
       </c>
@@ -3341,8 +4036,13 @@
         <v>193</v>
       </c>
       <c r="C143" s="2"/>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>491</v>
       </c>
@@ -3350,8 +4050,13 @@
         <v>194</v>
       </c>
       <c r="C144" s="2"/>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>37</v>
       </c>
@@ -3359,8 +4064,13 @@
         <v>195</v>
       </c>
       <c r="C145" s="2"/>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>52</v>
       </c>
@@ -3368,8 +4078,13 @@
         <v>196</v>
       </c>
       <c r="C146" s="2"/>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>93</v>
       </c>
@@ -3377,8 +4092,13 @@
         <v>197</v>
       </c>
       <c r="C147" s="2"/>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>131</v>
       </c>
@@ -3386,8 +4106,13 @@
         <v>198</v>
       </c>
       <c r="C148" s="2"/>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>113</v>
       </c>
@@ -3397,8 +4122,13 @@
       <c r="C149" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>257</v>
       </c>
@@ -3406,8 +4136,13 @@
         <v>200</v>
       </c>
       <c r="C150" s="2"/>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>140</v>
       </c>
@@ -3417,8 +4152,13 @@
       <c r="C151" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>494</v>
       </c>
@@ -3426,8 +4166,13 @@
         <v>203</v>
       </c>
       <c r="C152" s="2"/>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>1192</v>
       </c>
@@ -3435,8 +4180,13 @@
         <v>204</v>
       </c>
       <c r="C153" s="2"/>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>126</v>
       </c>
@@ -3444,8 +4194,13 @@
         <v>205</v>
       </c>
       <c r="C154" s="2"/>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>290</v>
       </c>
@@ -3453,8 +4208,13 @@
         <v>206</v>
       </c>
       <c r="C155" s="2"/>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>291</v>
       </c>
@@ -3462,8 +4222,13 @@
         <v>207</v>
       </c>
       <c r="C156" s="2"/>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>442</v>
       </c>
@@ -3473,8 +4238,13 @@
       <c r="C157" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>48</v>
       </c>
@@ -3482,8 +4252,13 @@
         <v>210</v>
       </c>
       <c r="C158" s="2"/>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>54</v>
       </c>
@@ -3491,8 +4266,13 @@
         <v>211</v>
       </c>
       <c r="C159" s="2"/>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>73</v>
       </c>
@@ -3500,8 +4280,13 @@
         <v>212</v>
       </c>
       <c r="C160" s="2"/>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>289</v>
       </c>
@@ -3509,8 +4294,13 @@
         <v>213</v>
       </c>
       <c r="C161" s="2"/>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>6</v>
       </c>
@@ -3520,8 +4310,13 @@
       <c r="C162" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>13</v>
       </c>
@@ -3529,8 +4324,13 @@
         <v>216</v>
       </c>
       <c r="C163" s="2"/>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>14</v>
       </c>
@@ -3538,8 +4338,13 @@
         <v>217</v>
       </c>
       <c r="C164" s="2"/>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>68</v>
       </c>
@@ -3547,8 +4352,13 @@
         <v>218</v>
       </c>
       <c r="C165" s="2"/>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>443</v>
       </c>
@@ -3556,55 +4366,95 @@
         <v>219</v>
       </c>
       <c r="C166" s="2"/>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167">
-        <v>2</v>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
+        <v>220</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168">
-        <v>21</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>46</v>
+        <v>222</v>
+      </c>
+      <c r="D167" s="3">
+        <v>45008</v>
+      </c>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="str">
+        <f>A33</f>
+        <v>21(Easy)</v>
+      </c>
+      <c r="B168" s="1" t="str">
+        <f>B33</f>
+        <v>Merge Two Sorted Lists</v>
       </c>
       <c r="C168" s="2"/>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="D168" s="3">
+        <f>D33</f>
+        <v>45004</v>
+      </c>
+      <c r="E168" s="3">
+        <f>E33</f>
+        <v>45008</v>
+      </c>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C169" s="2"/>
-    </row>
-    <row r="170" spans="1:3">
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C170" s="2"/>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C171" s="2"/>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>86</v>
       </c>
@@ -3612,26 +4462,41 @@
         <v>48</v>
       </c>
       <c r="C172" s="2"/>
-    </row>
-    <row r="173" spans="1:3">
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C173" s="2"/>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C174" s="2"/>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>141</v>
       </c>
@@ -3639,17 +4504,27 @@
         <v>49</v>
       </c>
       <c r="C175" s="2"/>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C176" s="2"/>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>160</v>
       </c>
@@ -3657,26 +4532,41 @@
         <v>50</v>
       </c>
       <c r="C177" s="2"/>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C178" s="2"/>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C179" s="2"/>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>234</v>
       </c>
@@ -3684,8 +4574,13 @@
         <v>51</v>
       </c>
       <c r="C180" s="2"/>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>328</v>
       </c>
@@ -3693,17 +4588,27 @@
         <v>52</v>
       </c>
       <c r="C181" s="2"/>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C182" s="2"/>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>142</v>
       </c>
@@ -3711,8 +4616,13 @@
         <v>53</v>
       </c>
       <c r="C183" s="2"/>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184">
         <v>876</v>
       </c>
@@ -3720,37 +4630,59 @@
         <v>55</v>
       </c>
       <c r="C184" s="2"/>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185">
-        <v>706</v>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" t="s">
+        <v>232</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>234</v>
+      </c>
+      <c r="D185" s="3">
+        <v>45008</v>
+      </c>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186">
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C186" s="2"/>
-    </row>
-    <row r="187" spans="1:3">
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C187" s="2"/>
-    </row>
-    <row r="188" spans="1:3">
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188">
         <v>560</v>
       </c>
@@ -3758,17 +4690,27 @@
         <v>91</v>
       </c>
       <c r="C188" s="2"/>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C189" s="2"/>
-    </row>
-    <row r="190" spans="1:3">
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>290</v>
       </c>
@@ -3776,19 +4718,29 @@
         <v>206</v>
       </c>
       <c r="C190" s="2"/>
-    </row>
-    <row r="191" spans="1:3">
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>23</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>239</v>
+      </c>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192">
         <v>295</v>
       </c>
@@ -3796,8 +4748,13 @@
         <v>79</v>
       </c>
       <c r="C192" s="2"/>
-    </row>
-    <row r="193" spans="1:3">
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>347</v>
       </c>
@@ -3805,35 +4762,55 @@
         <v>38</v>
       </c>
       <c r="C193" s="2"/>
-    </row>
-    <row r="194" spans="1:3">
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194">
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C194" s="2"/>
-    </row>
-    <row r="195" spans="1:3">
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C195" s="2"/>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196">
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C196" s="2"/>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197">
         <v>480</v>
       </c>
@@ -3841,8 +4818,13 @@
         <v>76</v>
       </c>
       <c r="C197" s="2"/>
-    </row>
-    <row r="198" spans="1:3">
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198">
         <v>703</v>
       </c>
@@ -3850,93 +4832,143 @@
         <v>83</v>
       </c>
       <c r="C198" s="2"/>
-    </row>
-    <row r="199" spans="1:3">
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+        <v>244</v>
+      </c>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200">
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C200" s="2"/>
-    </row>
-    <row r="201" spans="1:3">
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201">
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C201" s="2"/>
-    </row>
-    <row r="202" spans="1:3">
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202">
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C202" s="2"/>
-    </row>
-    <row r="203" spans="1:3">
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C203" s="2"/>
-    </row>
-    <row r="204" spans="1:3">
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C204" s="2"/>
-    </row>
-    <row r="205" spans="1:3">
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205">
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C205" s="2"/>
-    </row>
-    <row r="206" spans="1:3">
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206">
         <v>300</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>252</v>
+      </c>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207">
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C207" s="2"/>
-    </row>
-    <row r="208" spans="1:3">
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208">
         <v>239</v>
       </c>
@@ -3944,46 +4976,71 @@
         <v>73</v>
       </c>
       <c r="C208" s="2"/>
-    </row>
-    <row r="209" spans="1:3">
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C209" s="2"/>
-    </row>
-    <row r="210" spans="1:3">
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210">
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>256</v>
+      </c>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C211" s="2"/>
-    </row>
-    <row r="212" spans="1:3">
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212">
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C212" s="2"/>
-    </row>
-    <row r="213" spans="1:3">
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>200</v>
       </c>
@@ -3991,10 +5048,15 @@
         <v>115</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>259</v>
+      </c>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="3"/>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214">
         <v>305</v>
       </c>
@@ -4002,8 +5064,13 @@
         <v>122</v>
       </c>
       <c r="C214" s="2"/>
-    </row>
-    <row r="215" spans="1:3">
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3"/>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>323</v>
       </c>
@@ -4011,8 +5078,13 @@
         <v>130</v>
       </c>
       <c r="C215" s="2"/>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="3"/>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>252</v>
       </c>
@@ -4020,10 +5092,15 @@
         <v>59</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="217" ht="17" spans="1:3">
+        <v>260</v>
+      </c>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+    </row>
+    <row r="217" ht="17" spans="1:8">
       <c r="A217">
         <v>253</v>
       </c>
@@ -4031,93 +5108,143 @@
         <v>60</v>
       </c>
       <c r="C217" s="2"/>
-    </row>
-    <row r="218" spans="1:3">
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218">
         <v>307</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+        <v>262</v>
+      </c>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3"/>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219">
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C219" s="2"/>
-    </row>
-    <row r="220" spans="1:3">
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220">
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C220" s="2"/>
-    </row>
-    <row r="221" spans="1:3">
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221">
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C221" s="2"/>
-    </row>
-    <row r="222" spans="1:3">
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222">
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C222" s="2"/>
-    </row>
-    <row r="223" spans="1:3">
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3"/>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223">
         <v>146</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
+        <v>268</v>
+      </c>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3"/>
+      <c r="F223" s="3"/>
+      <c r="G223" s="3"/>
+      <c r="H223" s="3"/>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224">
         <v>460</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C224" s="2"/>
-    </row>
-    <row r="225" spans="1:3">
+      <c r="D224" s="3"/>
+      <c r="E224" s="3"/>
+      <c r="F224" s="3"/>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3"/>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225">
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C225" s="2"/>
-    </row>
-    <row r="226" spans="1:3">
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3"/>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226">
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C226" s="2"/>
-    </row>
-    <row r="227" spans="1:3">
+      <c r="D226" s="3"/>
+      <c r="E226" s="3"/>
+      <c r="F226" s="3"/>
+      <c r="G226" s="3"/>
+      <c r="H226" s="3"/>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227">
         <v>528</v>
       </c>
@@ -4125,317 +5252,487 @@
         <v>90</v>
       </c>
       <c r="C227" s="2"/>
-    </row>
-    <row r="228" spans="1:3">
+      <c r="D227" s="3"/>
+      <c r="E227" s="3"/>
+      <c r="F227" s="3"/>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3"/>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228">
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C228" s="2"/>
-    </row>
-    <row r="229" spans="1:3">
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229">
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C229" s="2"/>
-    </row>
-    <row r="230" spans="1:3">
+      <c r="D229" s="3"/>
+      <c r="E229" s="3"/>
+      <c r="F229" s="3"/>
+      <c r="G229" s="3"/>
+      <c r="H229" s="3"/>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230">
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C230" s="2"/>
-    </row>
-    <row r="231" spans="1:3">
+      <c r="D230" s="3"/>
+      <c r="E230" s="3"/>
+      <c r="F230" s="3"/>
+      <c r="G230" s="3"/>
+      <c r="H230" s="3"/>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231">
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+        <v>275</v>
+      </c>
+      <c r="D231" s="3"/>
+      <c r="E231" s="3"/>
+      <c r="F231" s="3"/>
+      <c r="G231" s="3"/>
+      <c r="H231" s="3"/>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232">
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <v>277</v>
+      </c>
+      <c r="D232" s="3"/>
+      <c r="E232" s="3"/>
+      <c r="F232" s="3"/>
+      <c r="G232" s="3"/>
+      <c r="H232" s="3"/>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233">
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C233" s="2"/>
-    </row>
-    <row r="234" spans="1:3">
+      <c r="D233" s="3"/>
+      <c r="E233" s="3"/>
+      <c r="F233" s="3"/>
+      <c r="G233" s="3"/>
+      <c r="H233" s="3"/>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234">
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C234" s="2"/>
-    </row>
-    <row r="235" spans="1:3">
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235">
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C235" s="2"/>
-    </row>
-    <row r="236" spans="1:3">
+      <c r="D235" s="3"/>
+      <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236">
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C236" s="2"/>
-    </row>
-    <row r="237" spans="1:3">
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
+      <c r="F236" s="3"/>
+      <c r="G236" s="3"/>
+      <c r="H236" s="3"/>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237">
         <v>256</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C237" s="2"/>
-    </row>
-    <row r="238" spans="1:3">
+      <c r="D237" s="3"/>
+      <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238">
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C238" s="2"/>
-    </row>
-    <row r="239" spans="1:3">
+      <c r="D238" s="3"/>
+      <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239">
         <v>10</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <v>285</v>
+      </c>
+      <c r="D239" s="3"/>
+      <c r="E239" s="3"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240">
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C240" s="2"/>
-    </row>
-    <row r="241" spans="1:3">
+      <c r="D240" s="3"/>
+      <c r="E240" s="3"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241">
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C241" s="2"/>
-    </row>
-    <row r="242" spans="1:3">
+      <c r="D241" s="3"/>
+      <c r="E241" s="3"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="3"/>
+      <c r="H241" s="3"/>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242">
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C242" s="2"/>
-    </row>
-    <row r="243" spans="1:3">
+      <c r="D242" s="3"/>
+      <c r="E242" s="3"/>
+      <c r="F242" s="3"/>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243">
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C243" s="2"/>
-    </row>
-    <row r="244" spans="1:3">
+      <c r="D243" s="3"/>
+      <c r="E243" s="3"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3"/>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244">
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C244" s="2"/>
-    </row>
-    <row r="245" spans="1:3">
+      <c r="D244" s="3"/>
+      <c r="E244" s="3"/>
+      <c r="F244" s="3"/>
+      <c r="G244" s="3"/>
+      <c r="H244" s="3"/>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245">
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+        <v>292</v>
+      </c>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3"/>
+      <c r="F245" s="3"/>
+      <c r="G245" s="3"/>
+      <c r="H245" s="3"/>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246">
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C246" s="2"/>
-    </row>
-    <row r="247" spans="1:3">
+      <c r="D246" s="3"/>
+      <c r="E246" s="3"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="3"/>
+      <c r="H246" s="3"/>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C247" s="2"/>
-    </row>
-    <row r="248" spans="1:3">
+      <c r="D247" s="3"/>
+      <c r="E247" s="3"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="3"/>
+      <c r="H247" s="3"/>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248">
         <v>62</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
+        <v>296</v>
+      </c>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="3"/>
+      <c r="H248" s="3"/>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249">
         <v>63</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C249" s="2"/>
-    </row>
-    <row r="250" spans="1:3">
+      <c r="D249" s="3"/>
+      <c r="E249" s="3"/>
+      <c r="F249" s="3"/>
+      <c r="G249" s="3"/>
+      <c r="H249" s="3"/>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250">
         <v>64</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C250" s="2"/>
-    </row>
-    <row r="251" spans="1:3">
+      <c r="D250" s="3"/>
+      <c r="E250" s="3"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="3"/>
+      <c r="H250" s="3"/>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251">
         <v>85</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C251" s="2"/>
-    </row>
-    <row r="252" spans="1:3">
+      <c r="D251" s="3"/>
+      <c r="E251" s="3"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="3"/>
+      <c r="H251" s="3"/>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252">
         <v>221</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C252" s="2"/>
-    </row>
-    <row r="253" spans="1:3">
+      <c r="D252" s="3"/>
+      <c r="E252" s="3"/>
+      <c r="F252" s="3"/>
+      <c r="G252" s="3"/>
+      <c r="H252" s="3"/>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253">
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C253" s="2"/>
-    </row>
-    <row r="254" spans="1:3">
+      <c r="D253" s="3"/>
+      <c r="E253" s="3"/>
+      <c r="F253" s="3"/>
+      <c r="G253" s="3"/>
+      <c r="H253" s="3"/>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254">
         <v>91</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
+        <v>302</v>
+      </c>
+      <c r="D254" s="3"/>
+      <c r="E254" s="3"/>
+      <c r="F254" s="3"/>
+      <c r="G254" s="3"/>
+      <c r="H254" s="3"/>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255">
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C255" s="2"/>
-    </row>
-    <row r="256" spans="1:3">
+      <c r="D255" s="3"/>
+      <c r="E255" s="3"/>
+      <c r="F255" s="3"/>
+      <c r="G255" s="3"/>
+      <c r="H255" s="3"/>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256">
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C256" s="2"/>
-    </row>
-    <row r="257" spans="1:3">
+      <c r="D256" s="3"/>
+      <c r="E256" s="3"/>
+      <c r="F256" s="3"/>
+      <c r="G256" s="3"/>
+      <c r="H256" s="3"/>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257">
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C257" s="2"/>
-    </row>
-    <row r="258" spans="1:3">
+      <c r="D257" s="3"/>
+      <c r="E257" s="3"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="3"/>
+      <c r="H257" s="3"/>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258">
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
+        <v>307</v>
+      </c>
+      <c r="D258" s="3"/>
+      <c r="E258" s="3"/>
+      <c r="F258" s="3"/>
+      <c r="G258" s="3"/>
+      <c r="H258" s="3"/>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259">
         <v>45</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C259" s="2"/>
-    </row>
-    <row r="260" spans="1:3">
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
+      <c r="F259" s="3"/>
+      <c r="G259" s="3"/>
+      <c r="H259" s="3"/>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260">
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C260" s="2"/>
+      <c r="D260" s="3"/>
+      <c r="E260" s="3"/>
+      <c r="F260" s="3"/>
+      <c r="G260" s="3"/>
+      <c r="H260" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="43">

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11520"/>
+    <workbookView windowWidth="28000" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="311">
   <si>
     <t>Question Number</t>
   </si>
@@ -728,6 +728,9 @@
   </si>
   <si>
     <t>Verifying an Alien Dictionary</t>
+  </si>
+  <si>
+    <t>23(Hard)</t>
   </si>
   <si>
     <t>Merge k Sorted Lists</t>
@@ -952,10 +955,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -995,9 +998,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1010,8 +1012,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1020,14 +1062,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1042,14 +1076,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1057,8 +1083,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1073,30 +1100,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1109,16 +1113,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1140,139 +1143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,7 +1161,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,25 +1323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1334,17 +1337,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1360,6 +1366,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1381,15 +1402,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1399,11 +1411,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1416,162 +1434,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1591,7 +1594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1600,7 +1603,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1928,7 +1931,7 @@
   <dimension ref="A1:H260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -4725,16 +4728,18 @@
       <c r="H190" s="3"/>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191">
-        <v>23</v>
+      <c r="A191" t="s">
+        <v>238</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D191" s="3"/>
+        <v>240</v>
+      </c>
+      <c r="D191" s="3">
+        <v>45009</v>
+      </c>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
@@ -4773,7 +4778,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
@@ -4787,7 +4792,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
@@ -4801,7 +4806,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
@@ -4843,10 +4848,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -4859,7 +4864,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
@@ -4873,7 +4878,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
@@ -4887,7 +4892,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
@@ -4901,7 +4906,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
@@ -4915,7 +4920,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
@@ -4929,7 +4934,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
@@ -4943,10 +4948,10 @@
         <v>300</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -4959,7 +4964,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
@@ -4987,7 +4992,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
@@ -5001,10 +5006,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -5017,7 +5022,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
@@ -5031,7 +5036,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
@@ -5048,7 +5053,7 @@
         <v>115</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -5092,7 +5097,7 @@
         <v>59</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -5119,10 +5124,10 @@
         <v>307</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -5135,7 +5140,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
@@ -5149,7 +5154,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
@@ -5163,7 +5168,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
@@ -5177,7 +5182,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
@@ -5191,10 +5196,10 @@
         <v>146</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -5207,7 +5212,7 @@
         <v>460</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="3"/>
@@ -5221,7 +5226,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
@@ -5235,7 +5240,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
@@ -5263,7 +5268,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
@@ -5277,7 +5282,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
@@ -5291,7 +5296,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
@@ -5305,10 +5310,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5321,10 +5326,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5337,7 +5342,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
@@ -5351,7 +5356,7 @@
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="3"/>
@@ -5365,7 +5370,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -5379,7 +5384,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -5393,7 +5398,7 @@
         <v>256</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="3"/>
@@ -5407,7 +5412,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -5421,10 +5426,10 @@
         <v>10</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -5437,7 +5442,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5451,7 +5456,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5465,7 +5470,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5479,7 +5484,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5493,7 +5498,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5507,10 +5512,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5523,7 +5528,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5537,7 +5542,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5551,10 +5556,10 @@
         <v>62</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -5567,7 +5572,7 @@
         <v>63</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3"/>
@@ -5581,7 +5586,7 @@
         <v>64</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3"/>
@@ -5595,7 +5600,7 @@
         <v>85</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="3"/>
@@ -5609,7 +5614,7 @@
         <v>221</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3"/>
@@ -5623,7 +5628,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5637,10 +5642,10 @@
         <v>91</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -5653,7 +5658,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -5667,7 +5672,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3"/>
@@ -5681,7 +5686,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -5695,10 +5700,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -5711,7 +5716,7 @@
         <v>45</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3"/>
@@ -5725,7 +5730,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="3"/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="311">
   <si>
     <t>Question Number</t>
   </si>
@@ -1930,14 +1930,14 @@
   <sheetPr/>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17.96875" customWidth="1"/>
-    <col min="2" max="2" width="34.2421875" customWidth="1"/>
+    <col min="2" max="2" width="44.265625" customWidth="1"/>
     <col min="3" max="3" width="27.34375" customWidth="1"/>
     <col min="4" max="5" width="9.625"/>
   </cols>
@@ -3223,7 +3223,9 @@
       <c r="D88" s="3">
         <v>45005</v>
       </c>
-      <c r="E88" s="3"/>
+      <c r="E88" s="3">
+        <v>45009</v>
+      </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -4853,7 +4855,9 @@
       <c r="C199" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D199" s="3"/>
+      <c r="D199" s="3">
+        <v>45009</v>
+      </c>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
@@ -5046,31 +5050,47 @@
       <c r="H212" s="3"/>
     </row>
     <row r="213" spans="1:8">
-      <c r="A213">
-        <v>200</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>115</v>
+      <c r="A213" t="str">
+        <f>A88</f>
+        <v>200(Medium)</v>
+      </c>
+      <c r="B213" s="1" t="str">
+        <f>B88</f>
+        <v>Number of Islands</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
+      <c r="D213" s="3">
+        <f>D88</f>
+        <v>45005</v>
+      </c>
+      <c r="E213" s="3">
+        <f>E88</f>
+        <v>45009</v>
+      </c>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
     </row>
     <row r="214" spans="1:8">
       <c r="A214">
+        <f>A94</f>
         <v>305</v>
       </c>
-      <c r="B214" s="4" t="s">
-        <v>122</v>
+      <c r="B214" s="4" t="str">
+        <f>B94</f>
+        <v>Number of Islands II</v>
       </c>
       <c r="C214" s="2"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
+      <c r="D214" s="3">
+        <f>D94</f>
+        <v>0</v>
+      </c>
+      <c r="E214" s="3">
+        <f>E94</f>
+        <v>0</v>
+      </c>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="312">
   <si>
     <t>Question Number</t>
   </si>
@@ -770,6 +770,9 @@
   </si>
   <si>
     <t>Minimum Remove to Make Valid Parentheses</t>
+  </si>
+  <si>
+    <t>300(Medium)</t>
   </si>
   <si>
     <t>Longest Increasing Subsequence (Patience Sort)</t>
@@ -1930,8 +1933,8 @@
   <sheetPr/>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -4948,16 +4951,18 @@
       <c r="H205" s="3"/>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206">
-        <v>300</v>
+      <c r="A206" t="s">
+        <v>252</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D206" s="3"/>
+        <v>254</v>
+      </c>
+      <c r="D206" s="3">
+        <v>45009</v>
+      </c>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
@@ -4968,7 +4973,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
@@ -4996,7 +5001,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
@@ -5010,10 +5015,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -5026,7 +5031,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
@@ -5040,7 +5045,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
@@ -5059,7 +5064,7 @@
         <v>Number of Islands</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D213" s="3">
         <f>D88</f>
@@ -5117,7 +5122,7 @@
         <v>59</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -5144,10 +5149,10 @@
         <v>307</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -5160,7 +5165,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
@@ -5174,7 +5179,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
@@ -5188,7 +5193,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
@@ -5202,7 +5207,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
@@ -5216,10 +5221,10 @@
         <v>146</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -5232,7 +5237,7 @@
         <v>460</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="3"/>
@@ -5246,7 +5251,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
@@ -5260,7 +5265,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
@@ -5288,7 +5293,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
@@ -5302,7 +5307,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
@@ -5316,7 +5321,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
@@ -5330,10 +5335,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5346,10 +5351,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5362,7 +5367,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
@@ -5376,7 +5381,7 @@
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="3"/>
@@ -5390,7 +5395,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -5404,7 +5409,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -5418,7 +5423,7 @@
         <v>256</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="3"/>
@@ -5432,7 +5437,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -5446,10 +5451,10 @@
         <v>10</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -5462,7 +5467,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5476,7 +5481,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5490,7 +5495,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5504,7 +5509,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5518,7 +5523,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5532,10 +5537,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5548,7 +5553,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5562,7 +5567,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5576,10 +5581,10 @@
         <v>62</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -5592,7 +5597,7 @@
         <v>63</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3"/>
@@ -5606,7 +5611,7 @@
         <v>64</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3"/>
@@ -5634,7 +5639,7 @@
         <v>221</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3"/>
@@ -5648,7 +5653,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5662,10 +5667,10 @@
         <v>91</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -5678,7 +5683,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -5692,7 +5697,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3"/>
@@ -5706,7 +5711,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -5720,10 +5725,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -5736,7 +5741,7 @@
         <v>45</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3"/>
@@ -5750,7 +5755,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="3"/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="313">
   <si>
     <t>Question Number</t>
   </si>
@@ -803,6 +803,9 @@
   </si>
   <si>
     <t>数据结构：Sweep Line</t>
+  </si>
+  <si>
+    <t>307(Medium)</t>
   </si>
   <si>
     <t>Range Sum Query - Mutable</t>
@@ -957,11 +960,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -993,6 +996,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1001,8 +1019,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1015,9 +1034,84 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1039,99 +1133,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1146,7 +1149,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,13 +1263,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,157 +1323,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,11 +1343,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1369,6 +1378,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1405,32 +1434,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1442,148 +1445,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1597,7 +1600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1606,7 +1609,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1933,15 +1936,15 @@
   <sheetPr/>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="D218" sqref="D218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17.96875" customWidth="1"/>
     <col min="2" max="2" width="44.265625" customWidth="1"/>
-    <col min="3" max="3" width="27.34375" customWidth="1"/>
+    <col min="3" max="3" width="40.359375" customWidth="1"/>
     <col min="4" max="5" width="9.625"/>
   </cols>
   <sheetData>
@@ -5145,16 +5148,18 @@
       <c r="H217" s="3"/>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218">
-        <v>307</v>
+      <c r="A218" t="s">
+        <v>263</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D218" s="3"/>
+        <v>265</v>
+      </c>
+      <c r="D218" s="3">
+        <v>45010</v>
+      </c>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
@@ -5165,7 +5170,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
@@ -5179,7 +5184,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
@@ -5193,7 +5198,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
@@ -5207,7 +5212,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
@@ -5221,10 +5226,10 @@
         <v>146</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -5237,7 +5242,7 @@
         <v>460</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="3"/>
@@ -5265,7 +5270,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
@@ -5293,7 +5298,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
@@ -5307,7 +5312,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
@@ -5321,7 +5326,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
@@ -5335,10 +5340,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5351,10 +5356,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5367,7 +5372,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
@@ -5381,7 +5386,7 @@
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="3"/>
@@ -5395,7 +5400,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -5409,7 +5414,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -5423,7 +5428,7 @@
         <v>256</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="3"/>
@@ -5437,7 +5442,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -5451,10 +5456,10 @@
         <v>10</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -5467,7 +5472,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5481,7 +5486,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5495,7 +5500,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5509,7 +5514,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5523,7 +5528,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5537,10 +5542,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5553,7 +5558,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5567,7 +5572,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5581,10 +5586,10 @@
         <v>62</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -5597,7 +5602,7 @@
         <v>63</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3"/>
@@ -5611,7 +5616,7 @@
         <v>64</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3"/>
@@ -5639,7 +5644,7 @@
         <v>221</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3"/>
@@ -5653,7 +5658,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5667,10 +5672,10 @@
         <v>91</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -5683,7 +5688,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -5697,7 +5702,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3"/>
@@ -5711,7 +5716,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -5725,10 +5730,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -5741,7 +5746,7 @@
         <v>45</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3"/>
@@ -5755,7 +5760,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="3"/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="315">
   <si>
     <t>Question Number</t>
   </si>
@@ -826,10 +826,16 @@
     <t>Reverse Pairs</t>
   </si>
   <si>
+    <t>146(Medium)</t>
+  </si>
+  <si>
     <t>LRU Cache</t>
   </si>
   <si>
     <t>数据结构：Complex Data Structure</t>
+  </si>
+  <si>
+    <t>460(Hard)</t>
   </si>
   <si>
     <t>LFU Cache</t>
@@ -1936,8 +1942,8 @@
   <sheetPr/>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="D218" sqref="D218"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="A224" sqref="A224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -5222,30 +5228,34 @@
       <c r="H222" s="3"/>
     </row>
     <row r="223" spans="1:8">
-      <c r="A223">
-        <v>146</v>
+      <c r="A223" t="s">
+        <v>270</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D223" s="3"/>
+        <v>272</v>
+      </c>
+      <c r="D223" s="3">
+        <v>45010</v>
+      </c>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224">
-        <v>460</v>
+      <c r="A224" t="s">
+        <v>273</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C224" s="2"/>
-      <c r="D224" s="3"/>
+      <c r="D224" s="3">
+        <v>45010</v>
+      </c>
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
@@ -5270,7 +5280,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
@@ -5298,7 +5308,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
@@ -5312,7 +5322,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
@@ -5326,7 +5336,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
@@ -5340,10 +5350,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5356,10 +5366,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5372,7 +5382,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
@@ -5386,7 +5396,7 @@
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="3"/>
@@ -5400,7 +5410,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -5414,7 +5424,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -5428,7 +5438,7 @@
         <v>256</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="3"/>
@@ -5442,7 +5452,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -5456,10 +5466,10 @@
         <v>10</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -5472,7 +5482,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5486,7 +5496,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5500,7 +5510,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5514,7 +5524,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5528,7 +5538,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5542,10 +5552,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5558,7 +5568,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5572,7 +5582,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5586,10 +5596,10 @@
         <v>62</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -5602,7 +5612,7 @@
         <v>63</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3"/>
@@ -5616,7 +5626,7 @@
         <v>64</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3"/>
@@ -5644,7 +5654,7 @@
         <v>221</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3"/>
@@ -5658,7 +5668,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5672,10 +5682,10 @@
         <v>91</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -5688,7 +5698,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -5702,7 +5712,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3"/>
@@ -5716,7 +5726,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -5730,10 +5740,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -5746,7 +5756,7 @@
         <v>45</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3"/>
@@ -5760,7 +5770,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="3"/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="317">
   <si>
     <t>Question Number</t>
   </si>
@@ -916,10 +916,16 @@
     <t>Scramble String</t>
   </si>
   <si>
+    <t>62(Medium)</t>
+  </si>
+  <si>
     <t>Unique Paths</t>
   </si>
   <si>
     <t>DP：Matrix</t>
+  </si>
+  <si>
+    <t>63(Medium)</t>
   </si>
   <si>
     <t>Unique Paths II</t>
@@ -966,11 +972,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1003,7 +1009,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,24 +1030,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1048,16 +1053,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1071,8 +1068,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1080,6 +1094,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1093,24 +1123,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1124,23 +1138,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1155,7 +1161,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,7 +1191,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,13 +1317,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,145 +1341,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,6 +1352,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1373,21 +1394,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1395,30 +1401,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1441,6 +1423,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1451,148 +1457,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1942,8 +1948,8 @@
   <sheetPr/>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="A224" sqref="A224"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="A249" sqref="A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -5592,30 +5598,34 @@
       <c r="H247" s="3"/>
     </row>
     <row r="248" spans="1:8">
-      <c r="A248">
-        <v>62</v>
+      <c r="A248" t="s">
+        <v>300</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D248" s="3"/>
+        <v>302</v>
+      </c>
+      <c r="D248" s="3">
+        <v>45011</v>
+      </c>
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249">
-        <v>63</v>
+      <c r="A249" t="s">
+        <v>303</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C249" s="2"/>
-      <c r="D249" s="3"/>
+      <c r="D249" s="3">
+        <v>45011</v>
+      </c>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
@@ -5626,7 +5636,7 @@
         <v>64</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3"/>
@@ -5654,7 +5664,7 @@
         <v>221</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3"/>
@@ -5668,7 +5678,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5682,10 +5692,10 @@
         <v>91</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -5698,7 +5708,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -5712,7 +5722,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3"/>
@@ -5726,7 +5736,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -5740,10 +5750,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -5756,7 +5766,7 @@
         <v>45</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3"/>
@@ -5770,7 +5780,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="3"/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="319">
   <si>
     <t>Question Number</t>
   </si>
@@ -40,6 +40,9 @@
     <t>朴素二分法</t>
   </si>
   <si>
+    <t>34(Medium)</t>
+  </si>
+  <si>
     <t>Find First and Last Position of Element in Sorted Array</t>
   </si>
   <si>
@@ -929,6 +932,9 @@
   </si>
   <si>
     <t>Unique Paths II</t>
+  </si>
+  <si>
+    <t>64(Medium)</t>
   </si>
   <si>
     <t>Minimum Path Sum</t>
@@ -972,10 +978,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1009,29 +1015,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1039,9 +1038,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1062,7 +1069,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1070,46 +1077,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,13 +1120,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1139,16 +1130,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1161,37 +1167,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,13 +1197,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,25 +1215,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,13 +1245,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,25 +1293,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,37 +1335,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1352,6 +1358,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1366,41 +1390,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1422,8 +1411,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1452,153 +1443,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1612,7 +1618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1621,7 +1627,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1948,8 +1954,8 @@
   <sheetPr/>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="A249" sqref="A249"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="D250" sqref="D250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1996,14 +2002,16 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3">
-        <v>34</v>
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <v>45011</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -2014,7 +2022,7 @@
         <v>702</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
@@ -2028,7 +2036,7 @@
         <v>153</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
@@ -2042,7 +2050,7 @@
         <v>154</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
@@ -2056,7 +2064,7 @@
         <v>278</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
@@ -2070,7 +2078,7 @@
         <v>658</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
@@ -2081,13 +2089,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3">
         <v>45003</v>
@@ -2099,10 +2107,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="6"/>
@@ -2116,7 +2124,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
@@ -2130,7 +2138,7 @@
         <v>74</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -2144,7 +2152,7 @@
         <v>162</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
@@ -2158,7 +2166,7 @@
         <v>302</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
@@ -2172,7 +2180,7 @@
         <v>852</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
@@ -2186,10 +2194,10 @@
         <v>875</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2202,7 +2210,7 @@
         <v>1283</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
@@ -2216,7 +2224,7 @@
         <v>69</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
@@ -2227,13 +2235,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" s="3">
         <v>45003</v>
@@ -2245,10 +2253,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3">
@@ -2264,7 +2272,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
@@ -2278,7 +2286,7 @@
         <v>80</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
@@ -2292,7 +2300,7 @@
         <v>88</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
@@ -2306,7 +2314,7 @@
         <v>283</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
@@ -2320,7 +2328,7 @@
         <v>215</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
@@ -2334,7 +2342,7 @@
         <v>347</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
@@ -2348,7 +2356,7 @@
         <v>349</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
@@ -2362,7 +2370,7 @@
         <v>350</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
@@ -2376,7 +2384,7 @@
         <v>845</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
@@ -2390,7 +2398,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
@@ -2404,7 +2412,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
@@ -2418,7 +2426,7 @@
         <v>969</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
@@ -2429,13 +2437,13 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D33" s="3">
         <f>DATE(2023,3,19)</f>
@@ -2453,7 +2461,7 @@
         <v>86</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
@@ -2467,7 +2475,7 @@
         <v>141</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
@@ -2481,7 +2489,7 @@
         <v>160</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
@@ -2495,7 +2503,7 @@
         <v>234</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
@@ -2509,7 +2517,7 @@
         <v>328</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
@@ -2523,7 +2531,7 @@
         <v>142</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
@@ -2537,7 +2545,7 @@
         <v>287</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
@@ -2551,7 +2559,7 @@
         <v>876</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
@@ -2565,10 +2573,10 @@
         <v>56</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2581,7 +2589,7 @@
         <v>57</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
@@ -2595,7 +2603,7 @@
         <v>252</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
@@ -2609,7 +2617,7 @@
         <v>253</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
@@ -2623,7 +2631,7 @@
         <v>986</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
@@ -2637,10 +2645,10 @@
         <v>5</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2653,7 +2661,7 @@
         <v>345</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
@@ -2667,7 +2675,7 @@
         <v>680</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
@@ -2681,7 +2689,7 @@
         <v>125</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
@@ -2692,13 +2700,13 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D51" s="3">
         <v>45004</v>
@@ -2713,7 +2721,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
@@ -2727,7 +2735,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
@@ -2741,7 +2749,7 @@
         <v>209</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
@@ -2755,7 +2763,7 @@
         <v>239</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
@@ -2769,7 +2777,7 @@
         <v>713</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
@@ -2783,7 +2791,7 @@
         <v>395</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
@@ -2797,7 +2805,7 @@
         <v>480</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
@@ -2811,7 +2819,7 @@
         <v>567</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
@@ -2825,7 +2833,7 @@
         <v>727</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
@@ -2839,10 +2847,10 @@
         <v>295</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2855,7 +2863,7 @@
         <v>346</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
@@ -2869,7 +2877,7 @@
         <v>352</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
@@ -2883,7 +2891,7 @@
         <v>703</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
@@ -2894,13 +2902,13 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D65" s="3">
         <v>45004</v>
@@ -2915,7 +2923,7 @@
         <v>238</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
@@ -2929,7 +2937,7 @@
         <v>303</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
@@ -2943,7 +2951,7 @@
         <v>325</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
@@ -2957,7 +2965,7 @@
         <v>528</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
@@ -2971,7 +2979,7 @@
         <v>560</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
@@ -2982,13 +2990,13 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D71" s="3">
         <v>45005</v>
@@ -3003,7 +3011,7 @@
         <v>15</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
@@ -3017,7 +3025,7 @@
         <v>18</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
@@ -3031,7 +3039,7 @@
         <v>167</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
@@ -3045,7 +3053,7 @@
         <v>170</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
@@ -3059,7 +3067,7 @@
         <v>653</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
@@ -3073,7 +3081,7 @@
         <v>1099</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
@@ -3087,7 +3095,7 @@
         <v>259</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
@@ -3098,13 +3106,13 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D79" s="3">
         <v>45005</v>
@@ -3119,7 +3127,7 @@
         <v>102</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
@@ -3133,7 +3141,7 @@
         <v>103</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
@@ -3147,7 +3155,7 @@
         <v>107</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
@@ -3161,7 +3169,7 @@
         <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
@@ -3175,10 +3183,10 @@
         <v>207</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3191,7 +3199,7 @@
         <v>210</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
@@ -3205,7 +3213,7 @@
         <v>269</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
@@ -3219,7 +3227,7 @@
         <v>444</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
@@ -3230,13 +3238,13 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D88" s="3">
         <v>45005</v>
@@ -3253,7 +3261,7 @@
         <v>490</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
@@ -3267,7 +3275,7 @@
         <v>505</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
@@ -3281,7 +3289,7 @@
         <v>542</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
@@ -3295,7 +3303,7 @@
         <v>733</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
@@ -3309,7 +3317,7 @@
         <v>994</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
@@ -3323,7 +3331,7 @@
         <v>305</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
@@ -3337,7 +3345,7 @@
         <v>773</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
@@ -3348,13 +3356,13 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D96" s="3">
         <v>45005</v>
@@ -3369,7 +3377,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
@@ -3383,7 +3391,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
@@ -3397,7 +3405,7 @@
         <v>841</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
@@ -3411,7 +3419,7 @@
         <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
@@ -3425,7 +3433,7 @@
         <v>1306</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
@@ -3436,13 +3444,13 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D102" s="3">
         <v>45005</v>
@@ -3454,10 +3462,10 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="3">
@@ -3470,10 +3478,10 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="3">
@@ -3486,13 +3494,13 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D105" s="3">
         <v>45006</v>
@@ -3507,7 +3515,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
@@ -3521,7 +3529,7 @@
         <v>889</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
@@ -3532,13 +3540,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D108" s="3">
         <f>DATE(2023,3,21)</f>
@@ -3554,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
@@ -3568,7 +3576,7 @@
         <v>285</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
@@ -3582,7 +3590,7 @@
         <v>270</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
@@ -3596,7 +3604,7 @@
         <v>272</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
@@ -3610,7 +3618,7 @@
         <v>510</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
@@ -3624,10 +3632,10 @@
         <v>98</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3640,7 +3648,7 @@
         <v>100</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
@@ -3654,7 +3662,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
@@ -3668,7 +3676,7 @@
         <v>110</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
@@ -3682,10 +3690,10 @@
         <v>111</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -3698,7 +3706,7 @@
         <v>104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
@@ -3712,7 +3720,7 @@
         <v>333</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
@@ -3726,10 +3734,10 @@
         <v>112</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -3742,7 +3750,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
@@ -3756,7 +3764,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
@@ -3770,7 +3778,7 @@
         <v>298</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
@@ -3784,7 +3792,7 @@
         <v>549</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
@@ -3798,10 +3806,10 @@
         <v>236</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -3814,10 +3822,10 @@
         <v>199</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -3830,7 +3838,7 @@
         <v>513</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
@@ -3844,7 +3852,7 @@
         <v>331</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
@@ -3858,7 +3866,7 @@
         <v>449</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
@@ -3872,7 +3880,7 @@
         <v>114</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
@@ -3883,13 +3891,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D132" s="3">
         <v>45007</v>
@@ -3901,10 +3909,10 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="3">
@@ -3917,10 +3925,10 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="3">
@@ -3933,10 +3941,10 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="3">
@@ -3949,10 +3957,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="3">
@@ -3965,10 +3973,10 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="3">
@@ -3981,10 +3989,10 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="3">
@@ -4000,7 +4008,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
@@ -4014,7 +4022,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
@@ -4028,7 +4036,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
@@ -4042,7 +4050,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
@@ -4056,7 +4064,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
@@ -4070,7 +4078,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
@@ -4084,7 +4092,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
@@ -4098,7 +4106,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
@@ -4112,7 +4120,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
@@ -4126,7 +4134,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
@@ -4140,10 +4148,10 @@
         <v>113</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4156,7 +4164,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
@@ -4170,10 +4178,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4186,7 +4194,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
@@ -4200,7 +4208,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
@@ -4214,7 +4222,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
@@ -4228,7 +4236,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
@@ -4242,7 +4250,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
@@ -4256,10 +4264,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4272,7 +4280,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
@@ -4286,7 +4294,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
@@ -4300,7 +4308,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
@@ -4314,7 +4322,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
@@ -4328,10 +4336,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -4344,7 +4352,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
@@ -4358,7 +4366,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
@@ -4372,7 +4380,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
@@ -4386,7 +4394,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
@@ -4397,13 +4405,13 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D167" s="3">
         <v>45008</v>
@@ -4440,7 +4448,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
@@ -4454,7 +4462,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
@@ -4468,7 +4476,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
@@ -4482,7 +4490,7 @@
         <v>86</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
@@ -4496,7 +4504,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
@@ -4510,7 +4518,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
@@ -4524,7 +4532,7 @@
         <v>141</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
@@ -4538,7 +4546,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
@@ -4552,7 +4560,7 @@
         <v>160</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
@@ -4566,7 +4574,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
@@ -4580,7 +4588,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
@@ -4594,7 +4602,7 @@
         <v>234</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
@@ -4608,7 +4616,7 @@
         <v>328</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
@@ -4622,7 +4630,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
@@ -4636,7 +4644,7 @@
         <v>142</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="3"/>
@@ -4650,7 +4658,7 @@
         <v>876</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="3"/>
@@ -4661,13 +4669,13 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D185" s="3">
         <v>45008</v>
@@ -4682,7 +4690,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
@@ -4696,7 +4704,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
@@ -4710,7 +4718,7 @@
         <v>560</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
@@ -4724,7 +4732,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
@@ -4738,7 +4746,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
@@ -4749,13 +4757,13 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D191" s="3">
         <v>45009</v>
@@ -4770,7 +4778,7 @@
         <v>295</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
@@ -4784,7 +4792,7 @@
         <v>347</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
@@ -4798,7 +4806,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
@@ -4812,7 +4820,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
@@ -4826,7 +4834,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
@@ -4840,7 +4848,7 @@
         <v>480</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
@@ -4854,7 +4862,7 @@
         <v>703</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
@@ -4868,10 +4876,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D199" s="3">
         <v>45009</v>
@@ -4886,7 +4894,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
@@ -4900,7 +4908,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
@@ -4914,7 +4922,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
@@ -4928,7 +4936,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
@@ -4942,7 +4950,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
@@ -4956,7 +4964,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
@@ -4967,13 +4975,13 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D206" s="3">
         <v>45009</v>
@@ -4988,7 +4996,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
@@ -5002,7 +5010,7 @@
         <v>239</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
@@ -5016,7 +5024,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
@@ -5030,10 +5038,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -5046,7 +5054,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
@@ -5060,7 +5068,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
@@ -5079,7 +5087,7 @@
         <v>Number of Islands</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D213" s="3">
         <f>D88</f>
@@ -5120,7 +5128,7 @@
         <v>323</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
@@ -5134,10 +5142,10 @@
         <v>252</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -5150,7 +5158,7 @@
         <v>253</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="3"/>
@@ -5161,13 +5169,13 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D218" s="3">
         <v>45010</v>
@@ -5182,7 +5190,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
@@ -5196,7 +5204,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
@@ -5210,7 +5218,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
@@ -5224,7 +5232,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
@@ -5235,13 +5243,13 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D223" s="3">
         <v>45010</v>
@@ -5253,10 +5261,10 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="3">
@@ -5272,7 +5280,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
@@ -5286,7 +5294,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
@@ -5300,7 +5308,7 @@
         <v>528</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="3"/>
@@ -5314,7 +5322,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
@@ -5328,7 +5336,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
@@ -5342,7 +5350,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
@@ -5356,10 +5364,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5372,10 +5380,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5388,7 +5396,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
@@ -5402,7 +5410,7 @@
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="3"/>
@@ -5416,7 +5424,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -5430,7 +5438,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -5444,7 +5452,7 @@
         <v>256</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="3"/>
@@ -5458,7 +5466,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -5472,10 +5480,10 @@
         <v>10</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -5488,7 +5496,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5502,7 +5510,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5516,7 +5524,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5530,7 +5538,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5544,7 +5552,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5558,10 +5566,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5574,7 +5582,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5588,7 +5596,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5599,13 +5607,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D248" s="3">
         <v>45011</v>
@@ -5617,10 +5625,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3">
@@ -5632,14 +5640,16 @@
       <c r="H249" s="3"/>
     </row>
     <row r="250" spans="1:8">
-      <c r="A250">
-        <v>64</v>
+      <c r="A250" t="s">
+        <v>306</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C250" s="2"/>
-      <c r="D250" s="3"/>
+      <c r="D250" s="3">
+        <v>45011</v>
+      </c>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
@@ -5650,7 +5660,7 @@
         <v>85</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="3"/>
@@ -5664,7 +5674,7 @@
         <v>221</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3"/>
@@ -5678,7 +5688,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5692,10 +5702,10 @@
         <v>91</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -5708,7 +5718,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -5722,7 +5732,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3"/>
@@ -5736,7 +5746,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -5750,10 +5760,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -5766,7 +5776,7 @@
         <v>45</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3"/>
@@ -5780,7 +5790,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="3"/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="321">
   <si>
     <t>Question Number</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Find First and Last Position of Element in Sorted Array</t>
   </si>
   <si>
+    <t>702(Medium)</t>
+  </si>
+  <si>
     <t>Search in a Sorted Array of Unknown Size</t>
   </si>
   <si>
@@ -965,6 +968,9 @@
   </si>
   <si>
     <t>DP：Greedy</t>
+  </si>
+  <si>
+    <t>45(Medium)</t>
   </si>
   <si>
     <t>Jump Game II</t>
@@ -978,10 +984,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1014,8 +1020,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1029,8 +1051,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1052,24 +1089,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1084,13 +1105,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1098,15 +1112,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1121,6 +1127,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1130,31 +1151,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1167,37 +1173,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,61 +1221,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,7 +1239,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,7 +1257,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,7 +1317,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,37 +1347,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1361,11 +1367,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1379,42 +1391,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1437,6 +1417,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1444,16 +1450,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1463,103 +1469,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1568,43 +1574,43 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1618,7 +1624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1627,7 +1633,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1954,8 +1960,8 @@
   <sheetPr/>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="D250" sqref="D250"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -2018,14 +2024,16 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4">
-        <v>702</v>
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>45012</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2036,7 +2044,7 @@
         <v>153</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
@@ -2050,7 +2058,7 @@
         <v>154</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
@@ -2064,7 +2072,7 @@
         <v>278</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
@@ -2078,7 +2086,7 @@
         <v>658</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
@@ -2089,13 +2097,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3">
         <v>45003</v>
@@ -2107,10 +2115,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="6"/>
@@ -2124,7 +2132,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
@@ -2138,7 +2146,7 @@
         <v>74</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -2152,7 +2160,7 @@
         <v>162</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
@@ -2166,7 +2174,7 @@
         <v>302</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
@@ -2180,7 +2188,7 @@
         <v>852</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
@@ -2194,10 +2202,10 @@
         <v>875</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2210,7 +2218,7 @@
         <v>1283</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
@@ -2224,7 +2232,7 @@
         <v>69</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
@@ -2235,13 +2243,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="3">
         <v>45003</v>
@@ -2253,10 +2261,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3">
@@ -2272,7 +2280,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
@@ -2286,7 +2294,7 @@
         <v>80</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
@@ -2300,7 +2308,7 @@
         <v>88</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
@@ -2314,7 +2322,7 @@
         <v>283</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
@@ -2328,7 +2336,7 @@
         <v>215</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
@@ -2342,7 +2350,7 @@
         <v>347</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
@@ -2356,7 +2364,7 @@
         <v>349</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
@@ -2370,7 +2378,7 @@
         <v>350</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
@@ -2384,7 +2392,7 @@
         <v>845</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
@@ -2398,7 +2406,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
@@ -2412,7 +2420,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
@@ -2426,7 +2434,7 @@
         <v>969</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
@@ -2437,13 +2445,13 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D33" s="3">
         <f>DATE(2023,3,19)</f>
@@ -2461,7 +2469,7 @@
         <v>86</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
@@ -2475,7 +2483,7 @@
         <v>141</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
@@ -2489,7 +2497,7 @@
         <v>160</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
@@ -2503,7 +2511,7 @@
         <v>234</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
@@ -2517,7 +2525,7 @@
         <v>328</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
@@ -2531,7 +2539,7 @@
         <v>142</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
@@ -2545,7 +2553,7 @@
         <v>287</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
@@ -2559,7 +2567,7 @@
         <v>876</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
@@ -2573,10 +2581,10 @@
         <v>56</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2589,7 +2597,7 @@
         <v>57</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
@@ -2603,7 +2611,7 @@
         <v>252</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
@@ -2617,7 +2625,7 @@
         <v>253</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
@@ -2631,7 +2639,7 @@
         <v>986</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
@@ -2645,10 +2653,10 @@
         <v>5</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2661,7 +2669,7 @@
         <v>345</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
@@ -2675,7 +2683,7 @@
         <v>680</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
@@ -2689,7 +2697,7 @@
         <v>125</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
@@ -2700,13 +2708,13 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D51" s="3">
         <v>45004</v>
@@ -2721,7 +2729,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
@@ -2735,7 +2743,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
@@ -2749,7 +2757,7 @@
         <v>209</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
@@ -2763,7 +2771,7 @@
         <v>239</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
@@ -2777,7 +2785,7 @@
         <v>713</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
@@ -2791,7 +2799,7 @@
         <v>395</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
@@ -2805,7 +2813,7 @@
         <v>480</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
@@ -2819,7 +2827,7 @@
         <v>567</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
@@ -2833,7 +2841,7 @@
         <v>727</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
@@ -2847,10 +2855,10 @@
         <v>295</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2863,7 +2871,7 @@
         <v>346</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
@@ -2877,7 +2885,7 @@
         <v>352</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
@@ -2891,7 +2899,7 @@
         <v>703</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
@@ -2902,13 +2910,13 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D65" s="3">
         <v>45004</v>
@@ -2923,7 +2931,7 @@
         <v>238</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
@@ -2937,7 +2945,7 @@
         <v>303</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
@@ -2951,7 +2959,7 @@
         <v>325</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
@@ -2965,7 +2973,7 @@
         <v>528</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
@@ -2979,7 +2987,7 @@
         <v>560</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
@@ -2990,13 +2998,13 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D71" s="3">
         <v>45005</v>
@@ -3011,7 +3019,7 @@
         <v>15</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
@@ -3025,7 +3033,7 @@
         <v>18</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
@@ -3039,7 +3047,7 @@
         <v>167</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
@@ -3053,7 +3061,7 @@
         <v>170</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
@@ -3067,7 +3075,7 @@
         <v>653</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
@@ -3081,7 +3089,7 @@
         <v>1099</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
@@ -3095,7 +3103,7 @@
         <v>259</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
@@ -3106,13 +3114,13 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D79" s="3">
         <v>45005</v>
@@ -3127,7 +3135,7 @@
         <v>102</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
@@ -3141,7 +3149,7 @@
         <v>103</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
@@ -3155,7 +3163,7 @@
         <v>107</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
@@ -3169,7 +3177,7 @@
         <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
@@ -3183,10 +3191,10 @@
         <v>207</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3199,7 +3207,7 @@
         <v>210</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
@@ -3213,7 +3221,7 @@
         <v>269</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
@@ -3227,7 +3235,7 @@
         <v>444</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
@@ -3238,13 +3246,13 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D88" s="3">
         <v>45005</v>
@@ -3261,7 +3269,7 @@
         <v>490</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
@@ -3275,7 +3283,7 @@
         <v>505</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
@@ -3289,7 +3297,7 @@
         <v>542</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
@@ -3303,7 +3311,7 @@
         <v>733</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
@@ -3317,7 +3325,7 @@
         <v>994</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
@@ -3331,7 +3339,7 @@
         <v>305</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
@@ -3345,7 +3353,7 @@
         <v>773</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
@@ -3356,13 +3364,13 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D96" s="3">
         <v>45005</v>
@@ -3377,7 +3385,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
@@ -3391,7 +3399,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
@@ -3405,7 +3413,7 @@
         <v>841</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
@@ -3419,7 +3427,7 @@
         <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
@@ -3433,7 +3441,7 @@
         <v>1306</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
@@ -3444,13 +3452,13 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D102" s="3">
         <v>45005</v>
@@ -3462,10 +3470,10 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="3">
@@ -3478,10 +3486,10 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="3">
@@ -3494,13 +3502,13 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D105" s="3">
         <v>45006</v>
@@ -3515,7 +3523,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
@@ -3529,7 +3537,7 @@
         <v>889</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
@@ -3540,13 +3548,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D108" s="3">
         <f>DATE(2023,3,21)</f>
@@ -3562,7 +3570,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
@@ -3576,7 +3584,7 @@
         <v>285</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
@@ -3590,7 +3598,7 @@
         <v>270</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
@@ -3604,7 +3612,7 @@
         <v>272</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
@@ -3618,7 +3626,7 @@
         <v>510</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
@@ -3632,10 +3640,10 @@
         <v>98</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3648,7 +3656,7 @@
         <v>100</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
@@ -3662,7 +3670,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
@@ -3676,7 +3684,7 @@
         <v>110</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
@@ -3690,10 +3698,10 @@
         <v>111</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -3706,7 +3714,7 @@
         <v>104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
@@ -3720,7 +3728,7 @@
         <v>333</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
@@ -3734,10 +3742,10 @@
         <v>112</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -3750,7 +3758,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
@@ -3764,7 +3772,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
@@ -3778,7 +3786,7 @@
         <v>298</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
@@ -3792,7 +3800,7 @@
         <v>549</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
@@ -3806,10 +3814,10 @@
         <v>236</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -3822,10 +3830,10 @@
         <v>199</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -3838,7 +3846,7 @@
         <v>513</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
@@ -3852,7 +3860,7 @@
         <v>331</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
@@ -3866,7 +3874,7 @@
         <v>449</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
@@ -3880,7 +3888,7 @@
         <v>114</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
@@ -3891,13 +3899,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D132" s="3">
         <v>45007</v>
@@ -3909,10 +3917,10 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="3">
@@ -3925,10 +3933,10 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="3">
@@ -3941,10 +3949,10 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="3">
@@ -3957,10 +3965,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="3">
@@ -3973,10 +3981,10 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="3">
@@ -3989,10 +3997,10 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="3">
@@ -4008,7 +4016,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
@@ -4022,7 +4030,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
@@ -4036,7 +4044,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
@@ -4050,7 +4058,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
@@ -4064,7 +4072,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
@@ -4078,7 +4086,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
@@ -4092,7 +4100,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
@@ -4106,7 +4114,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
@@ -4120,7 +4128,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
@@ -4134,7 +4142,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
@@ -4148,10 +4156,10 @@
         <v>113</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4164,7 +4172,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
@@ -4178,10 +4186,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4194,7 +4202,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
@@ -4208,7 +4216,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
@@ -4222,7 +4230,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
@@ -4236,7 +4244,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
@@ -4250,7 +4258,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
@@ -4264,10 +4272,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4280,7 +4288,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
@@ -4294,7 +4302,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
@@ -4308,7 +4316,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
@@ -4322,7 +4330,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
@@ -4336,10 +4344,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -4352,7 +4360,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
@@ -4366,7 +4374,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
@@ -4380,7 +4388,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
@@ -4394,7 +4402,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
@@ -4405,13 +4413,13 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D167" s="3">
         <v>45008</v>
@@ -4448,7 +4456,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
@@ -4462,7 +4470,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
@@ -4476,7 +4484,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
@@ -4490,7 +4498,7 @@
         <v>86</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
@@ -4504,7 +4512,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
@@ -4518,7 +4526,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
@@ -4532,7 +4540,7 @@
         <v>141</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
@@ -4546,7 +4554,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
@@ -4560,7 +4568,7 @@
         <v>160</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
@@ -4574,7 +4582,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
@@ -4588,7 +4596,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
@@ -4602,7 +4610,7 @@
         <v>234</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
@@ -4616,7 +4624,7 @@
         <v>328</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
@@ -4630,7 +4638,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
@@ -4644,7 +4652,7 @@
         <v>142</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="3"/>
@@ -4658,7 +4666,7 @@
         <v>876</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="3"/>
@@ -4669,13 +4677,13 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D185" s="3">
         <v>45008</v>
@@ -4690,7 +4698,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
@@ -4704,7 +4712,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
@@ -4718,7 +4726,7 @@
         <v>560</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
@@ -4732,7 +4740,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
@@ -4746,7 +4754,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
@@ -4757,13 +4765,13 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D191" s="3">
         <v>45009</v>
@@ -4778,7 +4786,7 @@
         <v>295</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
@@ -4792,7 +4800,7 @@
         <v>347</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
@@ -4806,7 +4814,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
@@ -4820,7 +4828,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
@@ -4834,7 +4842,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
@@ -4848,7 +4856,7 @@
         <v>480</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
@@ -4862,7 +4870,7 @@
         <v>703</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
@@ -4876,10 +4884,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D199" s="3">
         <v>45009</v>
@@ -4894,7 +4902,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
@@ -4908,7 +4916,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
@@ -4922,7 +4930,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
@@ -4936,7 +4944,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
@@ -4950,7 +4958,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
@@ -4964,7 +4972,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
@@ -4975,13 +4983,13 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D206" s="3">
         <v>45009</v>
@@ -4996,7 +5004,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
@@ -5010,7 +5018,7 @@
         <v>239</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
@@ -5024,7 +5032,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
@@ -5038,10 +5046,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -5054,7 +5062,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
@@ -5068,7 +5076,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
@@ -5087,7 +5095,7 @@
         <v>Number of Islands</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D213" s="3">
         <f>D88</f>
@@ -5128,7 +5136,7 @@
         <v>323</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
@@ -5142,10 +5150,10 @@
         <v>252</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -5158,7 +5166,7 @@
         <v>253</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="3"/>
@@ -5169,13 +5177,13 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D218" s="3">
         <v>45010</v>
@@ -5190,7 +5198,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
@@ -5204,7 +5212,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
@@ -5218,7 +5226,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
@@ -5232,7 +5240,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
@@ -5243,13 +5251,13 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D223" s="3">
         <v>45010</v>
@@ -5261,10 +5269,10 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="3">
@@ -5280,7 +5288,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
@@ -5294,7 +5302,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
@@ -5308,7 +5316,7 @@
         <v>528</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="3"/>
@@ -5322,7 +5330,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
@@ -5336,7 +5344,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
@@ -5350,7 +5358,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
@@ -5364,10 +5372,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5380,10 +5388,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5396,7 +5404,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
@@ -5410,7 +5418,7 @@
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="3"/>
@@ -5424,7 +5432,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -5438,7 +5446,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -5452,7 +5460,7 @@
         <v>256</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="3"/>
@@ -5466,7 +5474,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -5480,10 +5488,10 @@
         <v>10</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -5496,7 +5504,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5510,7 +5518,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5524,7 +5532,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5538,7 +5546,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5552,7 +5560,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5566,10 +5574,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5582,7 +5590,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5596,7 +5604,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5607,13 +5615,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D248" s="3">
         <v>45011</v>
@@ -5625,10 +5633,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3">
@@ -5641,10 +5649,10 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3">
@@ -5660,7 +5668,7 @@
         <v>85</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="3"/>
@@ -5674,7 +5682,7 @@
         <v>221</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3"/>
@@ -5688,7 +5696,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5702,10 +5710,10 @@
         <v>91</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -5718,7 +5726,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -5732,7 +5740,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3"/>
@@ -5746,7 +5754,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -5760,10 +5768,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -5772,14 +5780,16 @@
       <c r="H258" s="3"/>
     </row>
     <row r="259" spans="1:8">
-      <c r="A259">
-        <v>45</v>
+      <c r="A259" t="s">
+        <v>318</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C259" s="2"/>
-      <c r="D259" s="3"/>
+      <c r="D259" s="3">
+        <v>45011</v>
+      </c>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
@@ -5790,7 +5800,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="3"/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="322">
   <si>
     <t>Question Number</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Search in Rotated Sorted Array II， follow up</t>
+  </si>
+  <si>
+    <t>4(Hard)</t>
   </si>
   <si>
     <t>Median of Two Sorted Arrays</t>
@@ -1961,7 +1964,7 @@
   <dimension ref="A1:H260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -2128,14 +2131,16 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11">
-        <v>4</v>
+      <c r="A11" t="s">
+        <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>45012</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -2146,7 +2151,7 @@
         <v>74</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -2160,7 +2165,7 @@
         <v>162</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
@@ -2174,7 +2179,7 @@
         <v>302</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
@@ -2188,7 +2193,7 @@
         <v>852</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
@@ -2202,10 +2207,10 @@
         <v>875</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2218,7 +2223,7 @@
         <v>1283</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
@@ -2232,7 +2237,7 @@
         <v>69</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
@@ -2243,13 +2248,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="3">
         <v>45003</v>
@@ -2261,10 +2266,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3">
@@ -2280,7 +2285,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
@@ -2294,7 +2299,7 @@
         <v>80</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
@@ -2308,7 +2313,7 @@
         <v>88</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
@@ -2322,7 +2327,7 @@
         <v>283</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
@@ -2336,7 +2341,7 @@
         <v>215</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
@@ -2350,7 +2355,7 @@
         <v>347</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
@@ -2364,7 +2369,7 @@
         <v>349</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
@@ -2378,7 +2383,7 @@
         <v>350</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
@@ -2392,7 +2397,7 @@
         <v>845</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
@@ -2406,7 +2411,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
@@ -2420,7 +2425,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
@@ -2434,7 +2439,7 @@
         <v>969</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
@@ -2445,13 +2450,13 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D33" s="3">
         <f>DATE(2023,3,19)</f>
@@ -2469,7 +2474,7 @@
         <v>86</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
@@ -2483,7 +2488,7 @@
         <v>141</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
@@ -2497,7 +2502,7 @@
         <v>160</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
@@ -2511,7 +2516,7 @@
         <v>234</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
@@ -2525,7 +2530,7 @@
         <v>328</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
@@ -2539,7 +2544,7 @@
         <v>142</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
@@ -2553,7 +2558,7 @@
         <v>287</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
@@ -2567,7 +2572,7 @@
         <v>876</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
@@ -2581,10 +2586,10 @@
         <v>56</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2597,7 +2602,7 @@
         <v>57</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
@@ -2611,7 +2616,7 @@
         <v>252</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
@@ -2625,7 +2630,7 @@
         <v>253</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
@@ -2639,7 +2644,7 @@
         <v>986</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
@@ -2653,10 +2658,10 @@
         <v>5</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2669,7 +2674,7 @@
         <v>345</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
@@ -2683,7 +2688,7 @@
         <v>680</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
@@ -2697,7 +2702,7 @@
         <v>125</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
@@ -2708,13 +2713,13 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D51" s="3">
         <v>45004</v>
@@ -2729,7 +2734,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
@@ -2743,7 +2748,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
@@ -2757,7 +2762,7 @@
         <v>209</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
@@ -2771,7 +2776,7 @@
         <v>239</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
@@ -2785,7 +2790,7 @@
         <v>713</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
@@ -2799,7 +2804,7 @@
         <v>395</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
@@ -2813,7 +2818,7 @@
         <v>480</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
@@ -2827,7 +2832,7 @@
         <v>567</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
@@ -2841,7 +2846,7 @@
         <v>727</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
@@ -2855,10 +2860,10 @@
         <v>295</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2871,7 +2876,7 @@
         <v>346</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
@@ -2885,7 +2890,7 @@
         <v>352</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
@@ -2899,7 +2904,7 @@
         <v>703</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
@@ -2910,13 +2915,13 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D65" s="3">
         <v>45004</v>
@@ -2931,7 +2936,7 @@
         <v>238</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
@@ -2945,7 +2950,7 @@
         <v>303</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
@@ -2959,7 +2964,7 @@
         <v>325</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
@@ -2973,7 +2978,7 @@
         <v>528</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
@@ -2987,7 +2992,7 @@
         <v>560</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
@@ -2998,13 +3003,13 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D71" s="3">
         <v>45005</v>
@@ -3019,7 +3024,7 @@
         <v>15</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
@@ -3033,7 +3038,7 @@
         <v>18</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
@@ -3047,7 +3052,7 @@
         <v>167</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
@@ -3061,7 +3066,7 @@
         <v>170</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
@@ -3075,7 +3080,7 @@
         <v>653</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
@@ -3089,7 +3094,7 @@
         <v>1099</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
@@ -3103,7 +3108,7 @@
         <v>259</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
@@ -3114,13 +3119,13 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D79" s="3">
         <v>45005</v>
@@ -3135,7 +3140,7 @@
         <v>102</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
@@ -3149,7 +3154,7 @@
         <v>103</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
@@ -3163,7 +3168,7 @@
         <v>107</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
@@ -3177,7 +3182,7 @@
         <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
@@ -3191,10 +3196,10 @@
         <v>207</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3207,7 +3212,7 @@
         <v>210</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
@@ -3221,7 +3226,7 @@
         <v>269</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
@@ -3235,7 +3240,7 @@
         <v>444</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
@@ -3246,13 +3251,13 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D88" s="3">
         <v>45005</v>
@@ -3269,7 +3274,7 @@
         <v>490</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
@@ -3283,7 +3288,7 @@
         <v>505</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
@@ -3297,7 +3302,7 @@
         <v>542</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
@@ -3311,7 +3316,7 @@
         <v>733</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
@@ -3325,7 +3330,7 @@
         <v>994</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
@@ -3339,7 +3344,7 @@
         <v>305</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
@@ -3353,7 +3358,7 @@
         <v>773</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
@@ -3364,13 +3369,13 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D96" s="3">
         <v>45005</v>
@@ -3385,7 +3390,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
@@ -3399,7 +3404,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
@@ -3413,7 +3418,7 @@
         <v>841</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
@@ -3427,7 +3432,7 @@
         <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
@@ -3441,7 +3446,7 @@
         <v>1306</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
@@ -3452,13 +3457,13 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D102" s="3">
         <v>45005</v>
@@ -3470,10 +3475,10 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="3">
@@ -3486,10 +3491,10 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="3">
@@ -3502,13 +3507,13 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D105" s="3">
         <v>45006</v>
@@ -3523,7 +3528,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
@@ -3537,7 +3542,7 @@
         <v>889</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
@@ -3548,13 +3553,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D108" s="3">
         <f>DATE(2023,3,21)</f>
@@ -3570,7 +3575,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
@@ -3584,7 +3589,7 @@
         <v>285</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
@@ -3598,7 +3603,7 @@
         <v>270</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
@@ -3612,7 +3617,7 @@
         <v>272</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
@@ -3626,7 +3631,7 @@
         <v>510</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
@@ -3640,10 +3645,10 @@
         <v>98</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3656,7 +3661,7 @@
         <v>100</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
@@ -3670,7 +3675,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
@@ -3684,7 +3689,7 @@
         <v>110</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
@@ -3698,10 +3703,10 @@
         <v>111</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -3714,7 +3719,7 @@
         <v>104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
@@ -3728,7 +3733,7 @@
         <v>333</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
@@ -3742,10 +3747,10 @@
         <v>112</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -3758,7 +3763,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
@@ -3772,7 +3777,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
@@ -3786,7 +3791,7 @@
         <v>298</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
@@ -3800,7 +3805,7 @@
         <v>549</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
@@ -3814,10 +3819,10 @@
         <v>236</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -3830,10 +3835,10 @@
         <v>199</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -3846,7 +3851,7 @@
         <v>513</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
@@ -3860,7 +3865,7 @@
         <v>331</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
@@ -3874,7 +3879,7 @@
         <v>449</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
@@ -3888,7 +3893,7 @@
         <v>114</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
@@ -3899,13 +3904,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D132" s="3">
         <v>45007</v>
@@ -3917,10 +3922,10 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="3">
@@ -3933,10 +3938,10 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="3">
@@ -3949,10 +3954,10 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="3">
@@ -3965,10 +3970,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="3">
@@ -3981,10 +3986,10 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="3">
@@ -3997,10 +4002,10 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="3">
@@ -4016,7 +4021,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
@@ -4030,7 +4035,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
@@ -4044,7 +4049,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
@@ -4058,7 +4063,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
@@ -4072,7 +4077,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
@@ -4086,7 +4091,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
@@ -4100,7 +4105,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
@@ -4114,7 +4119,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
@@ -4128,7 +4133,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
@@ -4142,7 +4147,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
@@ -4156,10 +4161,10 @@
         <v>113</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4172,7 +4177,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
@@ -4186,10 +4191,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4202,7 +4207,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
@@ -4216,7 +4221,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
@@ -4230,7 +4235,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
@@ -4244,7 +4249,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
@@ -4258,7 +4263,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
@@ -4272,10 +4277,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4288,7 +4293,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
@@ -4302,7 +4307,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
@@ -4316,7 +4321,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
@@ -4330,7 +4335,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
@@ -4344,10 +4349,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -4360,7 +4365,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
@@ -4374,7 +4379,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
@@ -4388,7 +4393,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
@@ -4402,7 +4407,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
@@ -4413,13 +4418,13 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D167" s="3">
         <v>45008</v>
@@ -4456,7 +4461,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
@@ -4470,7 +4475,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
@@ -4484,7 +4489,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
@@ -4498,7 +4503,7 @@
         <v>86</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
@@ -4512,7 +4517,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
@@ -4526,7 +4531,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
@@ -4540,7 +4545,7 @@
         <v>141</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
@@ -4554,7 +4559,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
@@ -4568,7 +4573,7 @@
         <v>160</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
@@ -4582,7 +4587,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
@@ -4596,7 +4601,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
@@ -4610,7 +4615,7 @@
         <v>234</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
@@ -4624,7 +4629,7 @@
         <v>328</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
@@ -4638,7 +4643,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
@@ -4652,7 +4657,7 @@
         <v>142</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="3"/>
@@ -4666,7 +4671,7 @@
         <v>876</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="3"/>
@@ -4677,13 +4682,13 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D185" s="3">
         <v>45008</v>
@@ -4698,7 +4703,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
@@ -4712,7 +4717,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
@@ -4726,7 +4731,7 @@
         <v>560</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
@@ -4740,7 +4745,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
@@ -4754,7 +4759,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
@@ -4765,13 +4770,13 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D191" s="3">
         <v>45009</v>
@@ -4786,7 +4791,7 @@
         <v>295</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
@@ -4800,7 +4805,7 @@
         <v>347</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
@@ -4814,7 +4819,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
@@ -4828,7 +4833,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
@@ -4842,7 +4847,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
@@ -4856,7 +4861,7 @@
         <v>480</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
@@ -4870,7 +4875,7 @@
         <v>703</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
@@ -4884,10 +4889,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D199" s="3">
         <v>45009</v>
@@ -4902,7 +4907,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
@@ -4916,7 +4921,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
@@ -4930,7 +4935,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
@@ -4944,7 +4949,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
@@ -4958,7 +4963,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
@@ -4972,7 +4977,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
@@ -4983,13 +4988,13 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D206" s="3">
         <v>45009</v>
@@ -5004,7 +5009,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
@@ -5018,7 +5023,7 @@
         <v>239</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
@@ -5032,7 +5037,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
@@ -5046,10 +5051,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -5062,7 +5067,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
@@ -5076,7 +5081,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
@@ -5095,7 +5100,7 @@
         <v>Number of Islands</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D213" s="3">
         <f>D88</f>
@@ -5136,7 +5141,7 @@
         <v>323</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
@@ -5150,10 +5155,10 @@
         <v>252</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -5166,7 +5171,7 @@
         <v>253</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="3"/>
@@ -5177,13 +5182,13 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D218" s="3">
         <v>45010</v>
@@ -5198,7 +5203,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
@@ -5212,7 +5217,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
@@ -5226,7 +5231,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
@@ -5240,7 +5245,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
@@ -5251,13 +5256,13 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D223" s="3">
         <v>45010</v>
@@ -5269,10 +5274,10 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="3">
@@ -5288,7 +5293,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
@@ -5302,7 +5307,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
@@ -5316,7 +5321,7 @@
         <v>528</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="3"/>
@@ -5330,7 +5335,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
@@ -5344,7 +5349,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
@@ -5358,7 +5363,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
@@ -5372,10 +5377,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5388,10 +5393,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5404,7 +5409,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
@@ -5418,7 +5423,7 @@
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="3"/>
@@ -5432,7 +5437,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -5446,7 +5451,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -5460,7 +5465,7 @@
         <v>256</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="3"/>
@@ -5474,7 +5479,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -5488,10 +5493,10 @@
         <v>10</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -5504,7 +5509,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5518,7 +5523,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5532,7 +5537,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5546,7 +5551,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5560,7 +5565,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5574,10 +5579,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5590,7 +5595,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5604,7 +5609,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5615,13 +5620,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D248" s="3">
         <v>45011</v>
@@ -5633,10 +5638,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3">
@@ -5649,10 +5654,10 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3">
@@ -5668,7 +5673,7 @@
         <v>85</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="3"/>
@@ -5682,7 +5687,7 @@
         <v>221</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3"/>
@@ -5696,7 +5701,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5710,10 +5715,10 @@
         <v>91</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -5726,7 +5731,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -5740,7 +5745,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3"/>
@@ -5754,7 +5759,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -5768,10 +5773,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -5781,10 +5786,10 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3">
@@ -5800,7 +5805,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="3"/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="325">
   <si>
     <t>Question Number</t>
   </si>
@@ -85,9 +85,15 @@
     <t>Median of Two Sorted Arrays</t>
   </si>
   <si>
+    <t>74(Medium)</t>
+  </si>
+  <si>
     <t>Search a 2D Matrix</t>
   </si>
   <si>
+    <t>162(Medium)</t>
+  </si>
+  <si>
     <t>Find Peak Element</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
   </si>
   <si>
     <t>Peak Index in a Mountain Array</t>
+  </si>
+  <si>
+    <t>875(Medium)</t>
   </si>
   <si>
     <t>Koko Eating Bananas</t>
@@ -1963,8 +1972,8 @@
   <sheetPr/>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -2147,28 +2156,32 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12">
-        <v>74</v>
+      <c r="A12" t="s">
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>45012</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13">
-        <v>162</v>
+      <c r="A13" t="s">
+        <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>45012</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2179,7 +2192,7 @@
         <v>302</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
@@ -2193,7 +2206,7 @@
         <v>852</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
@@ -2203,14 +2216,14 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16">
-        <v>875</v>
+      <c r="A16" t="s">
+        <v>29</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2223,7 +2236,7 @@
         <v>1283</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
@@ -2237,7 +2250,7 @@
         <v>69</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
@@ -2248,13 +2261,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D19" s="3">
         <v>45003</v>
@@ -2266,10 +2279,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3">
@@ -2285,7 +2298,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
@@ -2299,7 +2312,7 @@
         <v>80</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
@@ -2313,7 +2326,7 @@
         <v>88</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
@@ -2327,7 +2340,7 @@
         <v>283</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
@@ -2341,7 +2354,7 @@
         <v>215</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
@@ -2355,7 +2368,7 @@
         <v>347</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
@@ -2369,7 +2382,7 @@
         <v>349</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
@@ -2383,7 +2396,7 @@
         <v>350</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
@@ -2397,7 +2410,7 @@
         <v>845</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
@@ -2411,7 +2424,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
@@ -2425,7 +2438,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
@@ -2439,7 +2452,7 @@
         <v>969</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
@@ -2450,13 +2463,13 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D33" s="3">
         <f>DATE(2023,3,19)</f>
@@ -2474,7 +2487,7 @@
         <v>86</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
@@ -2488,7 +2501,7 @@
         <v>141</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
@@ -2502,7 +2515,7 @@
         <v>160</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
@@ -2516,7 +2529,7 @@
         <v>234</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
@@ -2530,7 +2543,7 @@
         <v>328</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
@@ -2544,7 +2557,7 @@
         <v>142</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
@@ -2558,7 +2571,7 @@
         <v>287</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
@@ -2572,7 +2585,7 @@
         <v>876</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
@@ -2586,10 +2599,10 @@
         <v>56</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2602,7 +2615,7 @@
         <v>57</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
@@ -2616,7 +2629,7 @@
         <v>252</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
@@ -2630,7 +2643,7 @@
         <v>253</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
@@ -2644,7 +2657,7 @@
         <v>986</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
@@ -2658,10 +2671,10 @@
         <v>5</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2674,7 +2687,7 @@
         <v>345</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
@@ -2688,7 +2701,7 @@
         <v>680</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
@@ -2702,7 +2715,7 @@
         <v>125</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
@@ -2713,13 +2726,13 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D51" s="3">
         <v>45004</v>
@@ -2734,7 +2747,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
@@ -2748,7 +2761,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
@@ -2762,7 +2775,7 @@
         <v>209</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
@@ -2776,7 +2789,7 @@
         <v>239</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
@@ -2790,7 +2803,7 @@
         <v>713</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
@@ -2804,7 +2817,7 @@
         <v>395</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
@@ -2818,7 +2831,7 @@
         <v>480</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
@@ -2832,7 +2845,7 @@
         <v>567</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
@@ -2846,7 +2859,7 @@
         <v>727</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
@@ -2860,10 +2873,10 @@
         <v>295</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2876,7 +2889,7 @@
         <v>346</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
@@ -2890,7 +2903,7 @@
         <v>352</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
@@ -2904,7 +2917,7 @@
         <v>703</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
@@ -2915,13 +2928,13 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D65" s="3">
         <v>45004</v>
@@ -2936,7 +2949,7 @@
         <v>238</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
@@ -2950,7 +2963,7 @@
         <v>303</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
@@ -2964,7 +2977,7 @@
         <v>325</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
@@ -2978,7 +2991,7 @@
         <v>528</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
@@ -2992,7 +3005,7 @@
         <v>560</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
@@ -3003,13 +3016,13 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D71" s="3">
         <v>45005</v>
@@ -3024,7 +3037,7 @@
         <v>15</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
@@ -3038,7 +3051,7 @@
         <v>18</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
@@ -3052,7 +3065,7 @@
         <v>167</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
@@ -3066,7 +3079,7 @@
         <v>170</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
@@ -3080,7 +3093,7 @@
         <v>653</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
@@ -3094,7 +3107,7 @@
         <v>1099</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
@@ -3108,7 +3121,7 @@
         <v>259</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
@@ -3119,13 +3132,13 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D79" s="3">
         <v>45005</v>
@@ -3140,7 +3153,7 @@
         <v>102</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
@@ -3154,7 +3167,7 @@
         <v>103</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
@@ -3168,7 +3181,7 @@
         <v>107</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
@@ -3182,7 +3195,7 @@
         <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
@@ -3196,10 +3209,10 @@
         <v>207</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3212,7 +3225,7 @@
         <v>210</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
@@ -3226,7 +3239,7 @@
         <v>269</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
@@ -3240,7 +3253,7 @@
         <v>444</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
@@ -3251,13 +3264,13 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D88" s="3">
         <v>45005</v>
@@ -3274,7 +3287,7 @@
         <v>490</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
@@ -3288,7 +3301,7 @@
         <v>505</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
@@ -3302,7 +3315,7 @@
         <v>542</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
@@ -3316,7 +3329,7 @@
         <v>733</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
@@ -3330,7 +3343,7 @@
         <v>994</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
@@ -3344,7 +3357,7 @@
         <v>305</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
@@ -3358,7 +3371,7 @@
         <v>773</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
@@ -3369,13 +3382,13 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D96" s="3">
         <v>45005</v>
@@ -3390,7 +3403,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
@@ -3404,7 +3417,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
@@ -3418,7 +3431,7 @@
         <v>841</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
@@ -3432,7 +3445,7 @@
         <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
@@ -3446,7 +3459,7 @@
         <v>1306</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
@@ -3457,13 +3470,13 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D102" s="3">
         <v>45005</v>
@@ -3475,10 +3488,10 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="3">
@@ -3491,10 +3504,10 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="3">
@@ -3507,13 +3520,13 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D105" s="3">
         <v>45006</v>
@@ -3528,7 +3541,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
@@ -3542,7 +3555,7 @@
         <v>889</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
@@ -3553,13 +3566,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D108" s="3">
         <f>DATE(2023,3,21)</f>
@@ -3575,7 +3588,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
@@ -3589,7 +3602,7 @@
         <v>285</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
@@ -3603,7 +3616,7 @@
         <v>270</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
@@ -3617,7 +3630,7 @@
         <v>272</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
@@ -3631,7 +3644,7 @@
         <v>510</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
@@ -3645,10 +3658,10 @@
         <v>98</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3661,7 +3674,7 @@
         <v>100</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
@@ -3675,7 +3688,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
@@ -3689,7 +3702,7 @@
         <v>110</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
@@ -3703,10 +3716,10 @@
         <v>111</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -3719,7 +3732,7 @@
         <v>104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
@@ -3733,7 +3746,7 @@
         <v>333</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
@@ -3747,10 +3760,10 @@
         <v>112</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -3763,7 +3776,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
@@ -3777,7 +3790,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
@@ -3791,7 +3804,7 @@
         <v>298</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
@@ -3805,7 +3818,7 @@
         <v>549</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
@@ -3819,10 +3832,10 @@
         <v>236</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -3835,10 +3848,10 @@
         <v>199</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -3851,7 +3864,7 @@
         <v>513</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
@@ -3865,7 +3878,7 @@
         <v>331</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
@@ -3879,7 +3892,7 @@
         <v>449</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
@@ -3893,7 +3906,7 @@
         <v>114</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
@@ -3904,13 +3917,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D132" s="3">
         <v>45007</v>
@@ -3922,10 +3935,10 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="3">
@@ -3938,10 +3951,10 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="3">
@@ -3954,10 +3967,10 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="3">
@@ -3970,10 +3983,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="3">
@@ -3986,10 +3999,10 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="3">
@@ -4002,10 +4015,10 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="3">
@@ -4021,7 +4034,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
@@ -4035,7 +4048,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
@@ -4049,7 +4062,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
@@ -4063,7 +4076,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
@@ -4077,7 +4090,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
@@ -4091,7 +4104,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
@@ -4105,7 +4118,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
@@ -4119,7 +4132,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
@@ -4133,7 +4146,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
@@ -4147,7 +4160,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
@@ -4161,10 +4174,10 @@
         <v>113</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4177,7 +4190,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
@@ -4191,10 +4204,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4207,7 +4220,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
@@ -4221,7 +4234,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
@@ -4235,7 +4248,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
@@ -4249,7 +4262,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
@@ -4263,7 +4276,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
@@ -4277,10 +4290,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4293,7 +4306,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
@@ -4307,7 +4320,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
@@ -4321,7 +4334,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
@@ -4335,7 +4348,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
@@ -4349,10 +4362,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -4365,7 +4378,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
@@ -4379,7 +4392,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
@@ -4393,7 +4406,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
@@ -4407,7 +4420,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
@@ -4418,13 +4431,13 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D167" s="3">
         <v>45008</v>
@@ -4461,7 +4474,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
@@ -4475,7 +4488,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
@@ -4489,7 +4502,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
@@ -4503,7 +4516,7 @@
         <v>86</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
@@ -4517,7 +4530,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
@@ -4531,7 +4544,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
@@ -4545,7 +4558,7 @@
         <v>141</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
@@ -4559,7 +4572,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
@@ -4573,7 +4586,7 @@
         <v>160</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
@@ -4587,7 +4600,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
@@ -4601,7 +4614,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
@@ -4615,7 +4628,7 @@
         <v>234</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
@@ -4629,7 +4642,7 @@
         <v>328</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
@@ -4643,7 +4656,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
@@ -4657,7 +4670,7 @@
         <v>142</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="3"/>
@@ -4671,7 +4684,7 @@
         <v>876</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="3"/>
@@ -4682,13 +4695,13 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D185" s="3">
         <v>45008</v>
@@ -4703,7 +4716,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
@@ -4717,7 +4730,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
@@ -4731,7 +4744,7 @@
         <v>560</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
@@ -4745,7 +4758,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
@@ -4759,7 +4772,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
@@ -4770,13 +4783,13 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D191" s="3">
         <v>45009</v>
@@ -4791,7 +4804,7 @@
         <v>295</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
@@ -4805,7 +4818,7 @@
         <v>347</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
@@ -4819,7 +4832,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
@@ -4833,7 +4846,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
@@ -4847,7 +4860,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
@@ -4861,7 +4874,7 @@
         <v>480</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
@@ -4875,7 +4888,7 @@
         <v>703</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
@@ -4889,10 +4902,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D199" s="3">
         <v>45009</v>
@@ -4907,7 +4920,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
@@ -4921,7 +4934,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
@@ -4935,7 +4948,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
@@ -4949,7 +4962,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
@@ -4963,7 +4976,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
@@ -4977,7 +4990,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
@@ -4988,13 +5001,13 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D206" s="3">
         <v>45009</v>
@@ -5009,7 +5022,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
@@ -5023,7 +5036,7 @@
         <v>239</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
@@ -5037,7 +5050,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
@@ -5051,10 +5064,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -5067,7 +5080,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
@@ -5081,7 +5094,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
@@ -5100,7 +5113,7 @@
         <v>Number of Islands</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D213" s="3">
         <f>D88</f>
@@ -5141,7 +5154,7 @@
         <v>323</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
@@ -5155,10 +5168,10 @@
         <v>252</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -5171,7 +5184,7 @@
         <v>253</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="3"/>
@@ -5182,13 +5195,13 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D218" s="3">
         <v>45010</v>
@@ -5203,7 +5216,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
@@ -5217,7 +5230,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
@@ -5231,7 +5244,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
@@ -5245,7 +5258,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
@@ -5256,13 +5269,13 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D223" s="3">
         <v>45010</v>
@@ -5274,10 +5287,10 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="3">
@@ -5293,7 +5306,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
@@ -5307,7 +5320,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
@@ -5321,7 +5334,7 @@
         <v>528</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="3"/>
@@ -5335,7 +5348,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
@@ -5349,7 +5362,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
@@ -5363,7 +5376,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
@@ -5377,10 +5390,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5393,10 +5406,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5409,7 +5422,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
@@ -5423,7 +5436,7 @@
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="3"/>
@@ -5437,7 +5450,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -5451,7 +5464,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -5465,7 +5478,7 @@
         <v>256</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="3"/>
@@ -5479,7 +5492,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -5493,10 +5506,10 @@
         <v>10</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -5509,7 +5522,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5523,7 +5536,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5537,7 +5550,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5551,7 +5564,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5565,7 +5578,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5579,10 +5592,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5595,7 +5608,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5609,7 +5622,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5620,13 +5633,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D248" s="3">
         <v>45011</v>
@@ -5638,10 +5651,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3">
@@ -5654,10 +5667,10 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3">
@@ -5673,7 +5686,7 @@
         <v>85</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="3"/>
@@ -5687,7 +5700,7 @@
         <v>221</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3"/>
@@ -5701,7 +5714,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5715,10 +5728,10 @@
         <v>91</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -5731,7 +5744,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -5745,7 +5758,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3"/>
@@ -5759,7 +5772,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -5773,10 +5786,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -5786,10 +5799,10 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3">
@@ -5805,7 +5818,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="3"/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="327">
   <si>
     <t>Question Number</t>
   </si>
@@ -112,6 +112,9 @@
     <t>答案二分法</t>
   </si>
   <si>
+    <t>1283(Medium)</t>
+  </si>
+  <si>
     <t>Find the Smallest Divisor Given a Threshold</t>
   </si>
   <si>
@@ -893,6 +896,9 @@
   </si>
   <si>
     <t>Best Time to Buy and Sell Stock IV</t>
+  </si>
+  <si>
+    <t>256(Medium)</t>
   </si>
   <si>
     <t>Paint House</t>
@@ -1972,8 +1978,8 @@
   <sheetPr/>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="D237" sqref="D237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -2225,21 +2231,25 @@
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>45012</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17">
-        <v>1283</v>
+      <c r="A17" t="s">
+        <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>45012</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -2250,7 +2260,7 @@
         <v>69</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
@@ -2261,13 +2271,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" s="3">
         <v>45003</v>
@@ -2279,10 +2289,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3">
@@ -2298,7 +2308,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
@@ -2312,7 +2322,7 @@
         <v>80</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
@@ -2326,7 +2336,7 @@
         <v>88</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
@@ -2340,7 +2350,7 @@
         <v>283</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
@@ -2354,7 +2364,7 @@
         <v>215</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
@@ -2368,7 +2378,7 @@
         <v>347</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
@@ -2382,7 +2392,7 @@
         <v>349</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
@@ -2396,7 +2406,7 @@
         <v>350</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
@@ -2410,7 +2420,7 @@
         <v>845</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
@@ -2424,7 +2434,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
@@ -2438,7 +2448,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
@@ -2452,7 +2462,7 @@
         <v>969</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
@@ -2463,13 +2473,13 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D33" s="3">
         <f>DATE(2023,3,19)</f>
@@ -2487,7 +2497,7 @@
         <v>86</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
@@ -2501,7 +2511,7 @@
         <v>141</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
@@ -2515,7 +2525,7 @@
         <v>160</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
@@ -2529,7 +2539,7 @@
         <v>234</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
@@ -2543,7 +2553,7 @@
         <v>328</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
@@ -2557,7 +2567,7 @@
         <v>142</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
@@ -2571,7 +2581,7 @@
         <v>287</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
@@ -2585,7 +2595,7 @@
         <v>876</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
@@ -2599,10 +2609,10 @@
         <v>56</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2615,7 +2625,7 @@
         <v>57</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
@@ -2629,7 +2639,7 @@
         <v>252</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
@@ -2643,7 +2653,7 @@
         <v>253</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
@@ -2657,7 +2667,7 @@
         <v>986</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
@@ -2671,10 +2681,10 @@
         <v>5</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2687,7 +2697,7 @@
         <v>345</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
@@ -2701,7 +2711,7 @@
         <v>680</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
@@ -2715,7 +2725,7 @@
         <v>125</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
@@ -2726,13 +2736,13 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D51" s="3">
         <v>45004</v>
@@ -2747,7 +2757,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
@@ -2761,7 +2771,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
@@ -2775,7 +2785,7 @@
         <v>209</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
@@ -2789,7 +2799,7 @@
         <v>239</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
@@ -2803,7 +2813,7 @@
         <v>713</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
@@ -2817,7 +2827,7 @@
         <v>395</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
@@ -2831,7 +2841,7 @@
         <v>480</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
@@ -2845,7 +2855,7 @@
         <v>567</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
@@ -2859,7 +2869,7 @@
         <v>727</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
@@ -2873,10 +2883,10 @@
         <v>295</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2889,7 +2899,7 @@
         <v>346</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
@@ -2903,7 +2913,7 @@
         <v>352</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
@@ -2917,7 +2927,7 @@
         <v>703</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
@@ -2928,13 +2938,13 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D65" s="3">
         <v>45004</v>
@@ -2949,7 +2959,7 @@
         <v>238</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
@@ -2963,7 +2973,7 @@
         <v>303</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
@@ -2977,7 +2987,7 @@
         <v>325</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
@@ -2991,7 +3001,7 @@
         <v>528</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
@@ -3005,7 +3015,7 @@
         <v>560</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
@@ -3016,13 +3026,13 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D71" s="3">
         <v>45005</v>
@@ -3037,7 +3047,7 @@
         <v>15</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
@@ -3051,7 +3061,7 @@
         <v>18</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
@@ -3065,7 +3075,7 @@
         <v>167</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
@@ -3079,7 +3089,7 @@
         <v>170</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
@@ -3093,7 +3103,7 @@
         <v>653</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
@@ -3107,7 +3117,7 @@
         <v>1099</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
@@ -3121,7 +3131,7 @@
         <v>259</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
@@ -3132,13 +3142,13 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D79" s="3">
         <v>45005</v>
@@ -3153,7 +3163,7 @@
         <v>102</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
@@ -3167,7 +3177,7 @@
         <v>103</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
@@ -3181,7 +3191,7 @@
         <v>107</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
@@ -3195,7 +3205,7 @@
         <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
@@ -3209,10 +3219,10 @@
         <v>207</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3225,7 +3235,7 @@
         <v>210</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
@@ -3239,7 +3249,7 @@
         <v>269</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
@@ -3253,7 +3263,7 @@
         <v>444</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
@@ -3264,13 +3274,13 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D88" s="3">
         <v>45005</v>
@@ -3287,7 +3297,7 @@
         <v>490</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
@@ -3301,7 +3311,7 @@
         <v>505</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
@@ -3315,7 +3325,7 @@
         <v>542</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
@@ -3329,7 +3339,7 @@
         <v>733</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
@@ -3343,7 +3353,7 @@
         <v>994</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
@@ -3357,7 +3367,7 @@
         <v>305</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
@@ -3371,7 +3381,7 @@
         <v>773</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
@@ -3382,13 +3392,13 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D96" s="3">
         <v>45005</v>
@@ -3403,7 +3413,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
@@ -3417,7 +3427,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
@@ -3431,7 +3441,7 @@
         <v>841</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
@@ -3445,7 +3455,7 @@
         <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
@@ -3459,7 +3469,7 @@
         <v>1306</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
@@ -3470,13 +3480,13 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D102" s="3">
         <v>45005</v>
@@ -3488,10 +3498,10 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="3">
@@ -3504,10 +3514,10 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="3">
@@ -3520,13 +3530,13 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D105" s="3">
         <v>45006</v>
@@ -3541,7 +3551,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
@@ -3555,7 +3565,7 @@
         <v>889</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
@@ -3566,13 +3576,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D108" s="3">
         <f>DATE(2023,3,21)</f>
@@ -3588,7 +3598,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
@@ -3602,7 +3612,7 @@
         <v>285</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
@@ -3616,7 +3626,7 @@
         <v>270</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
@@ -3630,7 +3640,7 @@
         <v>272</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
@@ -3644,7 +3654,7 @@
         <v>510</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
@@ -3658,10 +3668,10 @@
         <v>98</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3674,7 +3684,7 @@
         <v>100</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
@@ -3688,7 +3698,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
@@ -3702,7 +3712,7 @@
         <v>110</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
@@ -3716,10 +3726,10 @@
         <v>111</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -3732,7 +3742,7 @@
         <v>104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
@@ -3746,7 +3756,7 @@
         <v>333</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
@@ -3760,10 +3770,10 @@
         <v>112</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -3776,7 +3786,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
@@ -3790,7 +3800,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
@@ -3804,7 +3814,7 @@
         <v>298</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
@@ -3818,7 +3828,7 @@
         <v>549</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
@@ -3832,10 +3842,10 @@
         <v>236</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -3848,10 +3858,10 @@
         <v>199</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -3864,7 +3874,7 @@
         <v>513</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
@@ -3878,7 +3888,7 @@
         <v>331</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
@@ -3892,7 +3902,7 @@
         <v>449</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
@@ -3906,7 +3916,7 @@
         <v>114</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
@@ -3917,13 +3927,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D132" s="3">
         <v>45007</v>
@@ -3935,10 +3945,10 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="3">
@@ -3951,10 +3961,10 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="3">
@@ -3967,10 +3977,10 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="3">
@@ -3983,10 +3993,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="3">
@@ -3999,10 +4009,10 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="3">
@@ -4015,10 +4025,10 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="3">
@@ -4034,7 +4044,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
@@ -4048,7 +4058,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
@@ -4062,7 +4072,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
@@ -4076,7 +4086,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
@@ -4090,7 +4100,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
@@ -4104,7 +4114,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
@@ -4118,7 +4128,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
@@ -4132,7 +4142,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
@@ -4146,7 +4156,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
@@ -4160,7 +4170,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
@@ -4174,10 +4184,10 @@
         <v>113</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4190,7 +4200,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
@@ -4204,10 +4214,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4220,7 +4230,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
@@ -4234,7 +4244,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
@@ -4248,7 +4258,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
@@ -4262,7 +4272,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
@@ -4276,7 +4286,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
@@ -4290,10 +4300,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4306,7 +4316,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
@@ -4320,7 +4330,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
@@ -4334,7 +4344,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
@@ -4348,7 +4358,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
@@ -4362,10 +4372,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -4378,7 +4388,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
@@ -4392,7 +4402,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
@@ -4406,7 +4416,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
@@ -4420,7 +4430,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
@@ -4431,13 +4441,13 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D167" s="3">
         <v>45008</v>
@@ -4474,7 +4484,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
@@ -4488,7 +4498,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
@@ -4502,7 +4512,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
@@ -4516,7 +4526,7 @@
         <v>86</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
@@ -4530,7 +4540,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
@@ -4544,7 +4554,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
@@ -4558,7 +4568,7 @@
         <v>141</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
@@ -4572,7 +4582,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
@@ -4586,7 +4596,7 @@
         <v>160</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
@@ -4600,7 +4610,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
@@ -4614,7 +4624,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
@@ -4628,7 +4638,7 @@
         <v>234</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
@@ -4642,7 +4652,7 @@
         <v>328</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
@@ -4656,7 +4666,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
@@ -4670,7 +4680,7 @@
         <v>142</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="3"/>
@@ -4684,7 +4694,7 @@
         <v>876</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="3"/>
@@ -4695,13 +4705,13 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D185" s="3">
         <v>45008</v>
@@ -4716,7 +4726,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
@@ -4730,7 +4740,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
@@ -4744,7 +4754,7 @@
         <v>560</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
@@ -4758,7 +4768,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
@@ -4772,7 +4782,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
@@ -4783,13 +4793,13 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D191" s="3">
         <v>45009</v>
@@ -4804,7 +4814,7 @@
         <v>295</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
@@ -4818,7 +4828,7 @@
         <v>347</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
@@ -4832,7 +4842,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
@@ -4846,7 +4856,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
@@ -4860,7 +4870,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
@@ -4874,7 +4884,7 @@
         <v>480</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
@@ -4888,7 +4898,7 @@
         <v>703</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
@@ -4902,10 +4912,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D199" s="3">
         <v>45009</v>
@@ -4920,7 +4930,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
@@ -4934,7 +4944,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
@@ -4948,7 +4958,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
@@ -4962,7 +4972,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
@@ -4976,7 +4986,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
@@ -4990,7 +5000,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
@@ -5001,13 +5011,13 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D206" s="3">
         <v>45009</v>
@@ -5022,7 +5032,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
@@ -5036,7 +5046,7 @@
         <v>239</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
@@ -5050,7 +5060,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
@@ -5064,10 +5074,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -5080,7 +5090,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
@@ -5094,7 +5104,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
@@ -5113,7 +5123,7 @@
         <v>Number of Islands</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D213" s="3">
         <f>D88</f>
@@ -5154,7 +5164,7 @@
         <v>323</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
@@ -5168,10 +5178,10 @@
         <v>252</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -5184,7 +5194,7 @@
         <v>253</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="3"/>
@@ -5195,13 +5205,13 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D218" s="3">
         <v>45010</v>
@@ -5216,7 +5226,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
@@ -5230,7 +5240,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
@@ -5244,7 +5254,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
@@ -5258,7 +5268,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
@@ -5269,13 +5279,13 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D223" s="3">
         <v>45010</v>
@@ -5287,10 +5297,10 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="3">
@@ -5306,7 +5316,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
@@ -5320,7 +5330,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
@@ -5334,7 +5344,7 @@
         <v>528</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="3"/>
@@ -5348,7 +5358,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
@@ -5362,7 +5372,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
@@ -5376,7 +5386,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
@@ -5390,10 +5400,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5406,10 +5416,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5422,7 +5432,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
@@ -5436,7 +5446,7 @@
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="3"/>
@@ -5450,7 +5460,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -5464,7 +5474,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -5474,14 +5484,16 @@
       <c r="H236" s="3"/>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237">
-        <v>256</v>
+      <c r="A237" t="s">
+        <v>294</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C237" s="2"/>
-      <c r="D237" s="3"/>
+      <c r="D237" s="3">
+        <v>45012</v>
+      </c>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
@@ -5492,7 +5504,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -5506,10 +5518,10 @@
         <v>10</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -5522,7 +5534,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5536,7 +5548,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5550,7 +5562,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5564,7 +5576,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5578,7 +5590,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5592,10 +5604,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5608,7 +5620,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5622,7 +5634,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5633,13 +5645,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D248" s="3">
         <v>45011</v>
@@ -5651,10 +5663,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3">
@@ -5667,10 +5679,10 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3">
@@ -5686,7 +5698,7 @@
         <v>85</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="3"/>
@@ -5700,7 +5712,7 @@
         <v>221</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3"/>
@@ -5714,7 +5726,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5728,10 +5740,10 @@
         <v>91</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -5744,7 +5756,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -5758,7 +5770,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3"/>
@@ -5772,7 +5784,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -5786,10 +5798,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -5799,10 +5811,10 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3">
@@ -5818,7 +5830,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="3"/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11520"/>
+    <workbookView windowWidth="28800" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="328">
   <si>
     <t>Question Number</t>
   </si>
@@ -905,6 +905,9 @@
   </si>
   <si>
     <t>Paint House II</t>
+  </si>
+  <si>
+    <t>10(Hard)</t>
   </si>
   <si>
     <t>Regular Expression Matching</t>
@@ -1002,11 +1005,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1046,6 +1049,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1054,10 +1065,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1069,26 +1080,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1107,8 +1103,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1130,30 +1157,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1161,22 +1164,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,6 +1191,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1203,7 +1212,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,31 +1344,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,127 +1374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,39 +1385,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1435,11 +1405,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1459,15 +1442,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1482,147 +1456,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1642,7 +1645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1651,7 +1654,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1978,8 +1981,8 @@
   <sheetPr/>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="D237" sqref="D237"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="D239" sqref="D239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -5514,16 +5517,18 @@
       <c r="H238" s="3"/>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239">
-        <v>10</v>
+      <c r="A239" t="s">
+        <v>297</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D239" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D239" s="3">
+        <v>45012</v>
+      </c>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
@@ -5534,7 +5539,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5548,7 +5553,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5562,7 +5567,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5576,7 +5581,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5590,7 +5595,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5604,10 +5609,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5620,7 +5625,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5634,7 +5639,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5645,13 +5650,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D248" s="3">
         <v>45011</v>
@@ -5663,10 +5668,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3">
@@ -5679,10 +5684,10 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3">
@@ -5712,7 +5717,7 @@
         <v>221</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3"/>
@@ -5726,7 +5731,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5740,10 +5745,10 @@
         <v>91</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -5756,7 +5761,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -5770,7 +5775,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3"/>
@@ -5784,7 +5789,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -5798,10 +5803,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -5811,10 +5816,10 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3">
@@ -5830,7 +5835,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="3"/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="333">
   <si>
     <t>Question Number</t>
   </si>
@@ -136,16 +136,31 @@
     <t>Sort Colors</t>
   </si>
   <si>
+    <t>26(Easy)</t>
+  </si>
+  <si>
     <t>Remove Duplicates from Sorted Array</t>
   </si>
   <si>
+    <t>80(Medium)</t>
+  </si>
+  <si>
     <t>Remove Duplicates from Sorted Array II</t>
   </si>
   <si>
+    <t>88(Easy)</t>
+  </si>
+  <si>
     <t>Merge Sorted Array</t>
   </si>
   <si>
+    <t>283(Easy)</t>
+  </si>
+  <si>
     <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>215(Medium)</t>
   </si>
   <si>
     <t>Kth Largest Element in an Array</t>
@@ -1005,11 +1020,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1051,30 +1066,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,14 +1088,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1120,9 +1127,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1133,9 +1140,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1143,7 +1149,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1157,29 +1194,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1200,7 +1215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,7 +1227,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,7 +1245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,7 +1257,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,37 +1275,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,7 +1335,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,31 +1365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,37 +1377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,6 +1400,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1407,52 +1461,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1477,11 +1486,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1490,142 +1505,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1645,7 +1660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1654,7 +1669,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1981,8 +1996,8 @@
   <sheetPr/>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="D239" sqref="D239"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -2307,70 +2322,80 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21">
-        <v>26</v>
+      <c r="A21" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>45013</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22">
-        <v>80</v>
+      <c r="A22" t="s">
+        <v>42</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>45013</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23">
-        <v>88</v>
+      <c r="A23" t="s">
+        <v>44</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <v>45013</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24">
-        <v>283</v>
+      <c r="A24" t="s">
+        <v>46</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <v>45013</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25">
-        <v>215</v>
+      <c r="A25" t="s">
+        <v>48</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3">
+        <v>45013</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -2381,7 +2406,7 @@
         <v>347</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
@@ -2395,7 +2420,7 @@
         <v>349</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
@@ -2409,7 +2434,7 @@
         <v>350</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
@@ -2423,7 +2448,7 @@
         <v>845</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
@@ -2437,7 +2462,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
@@ -2451,7 +2476,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
@@ -2465,7 +2490,7 @@
         <v>969</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
@@ -2476,13 +2501,13 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D33" s="3">
         <f>DATE(2023,3,19)</f>
@@ -2500,7 +2525,7 @@
         <v>86</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
@@ -2514,7 +2539,7 @@
         <v>141</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
@@ -2528,7 +2553,7 @@
         <v>160</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
@@ -2542,7 +2567,7 @@
         <v>234</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
@@ -2556,7 +2581,7 @@
         <v>328</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
@@ -2570,7 +2595,7 @@
         <v>142</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
@@ -2584,7 +2609,7 @@
         <v>287</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
@@ -2598,7 +2623,7 @@
         <v>876</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
@@ -2612,10 +2637,10 @@
         <v>56</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2628,7 +2653,7 @@
         <v>57</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
@@ -2642,7 +2667,7 @@
         <v>252</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
@@ -2656,7 +2681,7 @@
         <v>253</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
@@ -2670,7 +2695,7 @@
         <v>986</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
@@ -2684,10 +2709,10 @@
         <v>5</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2700,7 +2725,7 @@
         <v>345</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
@@ -2714,7 +2739,7 @@
         <v>680</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
@@ -2728,7 +2753,7 @@
         <v>125</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
@@ -2739,13 +2764,13 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D51" s="3">
         <v>45004</v>
@@ -2760,7 +2785,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
@@ -2774,7 +2799,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
@@ -2788,7 +2813,7 @@
         <v>209</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
@@ -2802,7 +2827,7 @@
         <v>239</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
@@ -2816,7 +2841,7 @@
         <v>713</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
@@ -2830,7 +2855,7 @@
         <v>395</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
@@ -2844,7 +2869,7 @@
         <v>480</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
@@ -2858,7 +2883,7 @@
         <v>567</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
@@ -2872,7 +2897,7 @@
         <v>727</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
@@ -2886,10 +2911,10 @@
         <v>295</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2902,7 +2927,7 @@
         <v>346</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
@@ -2916,7 +2941,7 @@
         <v>352</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
@@ -2930,7 +2955,7 @@
         <v>703</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
@@ -2941,13 +2966,13 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D65" s="3">
         <v>45004</v>
@@ -2962,7 +2987,7 @@
         <v>238</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
@@ -2976,7 +3001,7 @@
         <v>303</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
@@ -2990,7 +3015,7 @@
         <v>325</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
@@ -3004,7 +3029,7 @@
         <v>528</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
@@ -3018,7 +3043,7 @@
         <v>560</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
@@ -3029,13 +3054,13 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D71" s="3">
         <v>45005</v>
@@ -3050,7 +3075,7 @@
         <v>15</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
@@ -3064,7 +3089,7 @@
         <v>18</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
@@ -3078,7 +3103,7 @@
         <v>167</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
@@ -3092,7 +3117,7 @@
         <v>170</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
@@ -3106,7 +3131,7 @@
         <v>653</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
@@ -3120,7 +3145,7 @@
         <v>1099</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
@@ -3134,7 +3159,7 @@
         <v>259</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
@@ -3145,13 +3170,13 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D79" s="3">
         <v>45005</v>
@@ -3166,7 +3191,7 @@
         <v>102</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
@@ -3180,7 +3205,7 @@
         <v>103</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
@@ -3194,7 +3219,7 @@
         <v>107</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
@@ -3208,7 +3233,7 @@
         <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
@@ -3222,10 +3247,10 @@
         <v>207</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3238,7 +3263,7 @@
         <v>210</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
@@ -3252,7 +3277,7 @@
         <v>269</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
@@ -3266,7 +3291,7 @@
         <v>444</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
@@ -3277,13 +3302,13 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D88" s="3">
         <v>45005</v>
@@ -3300,7 +3325,7 @@
         <v>490</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
@@ -3314,7 +3339,7 @@
         <v>505</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
@@ -3328,7 +3353,7 @@
         <v>542</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
@@ -3342,7 +3367,7 @@
         <v>733</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
@@ -3356,7 +3381,7 @@
         <v>994</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
@@ -3370,7 +3395,7 @@
         <v>305</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
@@ -3384,7 +3409,7 @@
         <v>773</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
@@ -3395,13 +3420,13 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D96" s="3">
         <v>45005</v>
@@ -3416,7 +3441,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
@@ -3430,7 +3455,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
@@ -3444,7 +3469,7 @@
         <v>841</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
@@ -3458,7 +3483,7 @@
         <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
@@ -3472,7 +3497,7 @@
         <v>1306</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
@@ -3483,13 +3508,13 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D102" s="3">
         <v>45005</v>
@@ -3501,10 +3526,10 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="3">
@@ -3517,10 +3542,10 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="3">
@@ -3533,13 +3558,13 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D105" s="3">
         <v>45006</v>
@@ -3554,7 +3579,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
@@ -3568,7 +3593,7 @@
         <v>889</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
@@ -3579,13 +3604,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D108" s="3">
         <f>DATE(2023,3,21)</f>
@@ -3601,7 +3626,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
@@ -3615,7 +3640,7 @@
         <v>285</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
@@ -3629,7 +3654,7 @@
         <v>270</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
@@ -3643,7 +3668,7 @@
         <v>272</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
@@ -3657,7 +3682,7 @@
         <v>510</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
@@ -3671,10 +3696,10 @@
         <v>98</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3687,7 +3712,7 @@
         <v>100</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
@@ -3701,7 +3726,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
@@ -3715,7 +3740,7 @@
         <v>110</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
@@ -3729,10 +3754,10 @@
         <v>111</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -3745,7 +3770,7 @@
         <v>104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
@@ -3759,7 +3784,7 @@
         <v>333</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
@@ -3773,10 +3798,10 @@
         <v>112</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -3789,7 +3814,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
@@ -3803,7 +3828,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
@@ -3817,7 +3842,7 @@
         <v>298</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
@@ -3831,7 +3856,7 @@
         <v>549</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
@@ -3845,10 +3870,10 @@
         <v>236</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -3861,10 +3886,10 @@
         <v>199</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -3877,7 +3902,7 @@
         <v>513</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
@@ -3891,7 +3916,7 @@
         <v>331</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
@@ -3905,7 +3930,7 @@
         <v>449</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
@@ -3919,7 +3944,7 @@
         <v>114</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
@@ -3930,13 +3955,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D132" s="3">
         <v>45007</v>
@@ -3948,10 +3973,10 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="3">
@@ -3964,10 +3989,10 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="3">
@@ -3980,10 +4005,10 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="3">
@@ -3996,10 +4021,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="3">
@@ -4012,10 +4037,10 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="3">
@@ -4028,10 +4053,10 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="3">
@@ -4047,7 +4072,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
@@ -4061,7 +4086,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
@@ -4075,7 +4100,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
@@ -4089,7 +4114,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
@@ -4103,7 +4128,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
@@ -4117,7 +4142,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
@@ -4131,7 +4156,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
@@ -4145,7 +4170,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
@@ -4159,7 +4184,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
@@ -4173,7 +4198,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
@@ -4187,10 +4212,10 @@
         <v>113</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4203,7 +4228,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
@@ -4217,10 +4242,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4233,7 +4258,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
@@ -4247,7 +4272,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
@@ -4261,7 +4286,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
@@ -4275,7 +4300,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
@@ -4289,7 +4314,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
@@ -4303,10 +4328,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4319,7 +4344,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
@@ -4333,7 +4358,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
@@ -4347,7 +4372,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
@@ -4361,7 +4386,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
@@ -4375,10 +4400,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -4391,7 +4416,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
@@ -4405,7 +4430,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
@@ -4419,7 +4444,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
@@ -4433,7 +4458,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
@@ -4444,13 +4469,13 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D167" s="3">
         <v>45008</v>
@@ -4487,7 +4512,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
@@ -4501,7 +4526,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
@@ -4515,7 +4540,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
@@ -4529,7 +4554,7 @@
         <v>86</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
@@ -4543,7 +4568,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
@@ -4557,7 +4582,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
@@ -4571,7 +4596,7 @@
         <v>141</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
@@ -4585,7 +4610,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
@@ -4599,7 +4624,7 @@
         <v>160</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
@@ -4613,7 +4638,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
@@ -4627,7 +4652,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
@@ -4641,7 +4666,7 @@
         <v>234</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
@@ -4655,7 +4680,7 @@
         <v>328</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
@@ -4669,7 +4694,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
@@ -4683,7 +4708,7 @@
         <v>142</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="3"/>
@@ -4697,7 +4722,7 @@
         <v>876</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="3"/>
@@ -4708,13 +4733,13 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D185" s="3">
         <v>45008</v>
@@ -4729,7 +4754,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
@@ -4743,7 +4768,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
@@ -4757,7 +4782,7 @@
         <v>560</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
@@ -4771,7 +4796,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
@@ -4785,7 +4810,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
@@ -4796,13 +4821,13 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D191" s="3">
         <v>45009</v>
@@ -4817,7 +4842,7 @@
         <v>295</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
@@ -4831,7 +4856,7 @@
         <v>347</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
@@ -4845,7 +4870,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
@@ -4859,7 +4884,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
@@ -4873,7 +4898,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
@@ -4887,7 +4912,7 @@
         <v>480</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
@@ -4901,7 +4926,7 @@
         <v>703</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
@@ -4915,10 +4940,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D199" s="3">
         <v>45009</v>
@@ -4933,7 +4958,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
@@ -4947,7 +4972,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
@@ -4961,7 +4986,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
@@ -4975,7 +5000,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
@@ -4989,7 +5014,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
@@ -5003,7 +5028,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
@@ -5014,13 +5039,13 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D206" s="3">
         <v>45009</v>
@@ -5035,7 +5060,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
@@ -5049,7 +5074,7 @@
         <v>239</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
@@ -5063,7 +5088,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
@@ -5077,10 +5102,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -5093,7 +5118,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
@@ -5107,7 +5132,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
@@ -5126,7 +5151,7 @@
         <v>Number of Islands</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D213" s="3">
         <f>D88</f>
@@ -5167,7 +5192,7 @@
         <v>323</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
@@ -5181,10 +5206,10 @@
         <v>252</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -5197,7 +5222,7 @@
         <v>253</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="3"/>
@@ -5208,13 +5233,13 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D218" s="3">
         <v>45010</v>
@@ -5229,7 +5254,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
@@ -5243,7 +5268,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
@@ -5257,7 +5282,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
@@ -5271,7 +5296,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
@@ -5282,13 +5307,13 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D223" s="3">
         <v>45010</v>
@@ -5300,10 +5325,10 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="3">
@@ -5319,7 +5344,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
@@ -5333,7 +5358,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
@@ -5347,7 +5372,7 @@
         <v>528</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="3"/>
@@ -5361,7 +5386,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
@@ -5375,7 +5400,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
@@ -5389,7 +5414,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
@@ -5403,10 +5428,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5419,10 +5444,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5435,7 +5460,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
@@ -5449,7 +5474,7 @@
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="3"/>
@@ -5463,7 +5488,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -5477,7 +5502,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -5488,10 +5513,10 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="3">
@@ -5507,7 +5532,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -5518,13 +5543,13 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D239" s="3">
         <v>45012</v>
@@ -5539,7 +5564,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5553,7 +5578,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5567,7 +5592,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5581,7 +5606,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5595,7 +5620,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5609,10 +5634,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5625,7 +5650,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5639,7 +5664,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5650,13 +5675,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D248" s="3">
         <v>45011</v>
@@ -5668,10 +5693,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3">
@@ -5684,10 +5709,10 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3">
@@ -5703,7 +5728,7 @@
         <v>85</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="3"/>
@@ -5717,7 +5742,7 @@
         <v>221</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3"/>
@@ -5731,7 +5756,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5745,10 +5770,10 @@
         <v>91</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -5761,7 +5786,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -5775,7 +5800,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3"/>
@@ -5789,7 +5814,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -5803,10 +5828,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -5816,10 +5841,10 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3">
@@ -5835,7 +5860,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="3"/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="336">
   <si>
     <t>Question Number</t>
   </si>
@@ -166,6 +166,9 @@
     <t>Kth Largest Element in an Array</t>
   </si>
   <si>
+    <t>347(Medium)</t>
+  </si>
+  <si>
     <t>Top K Frequent Elements</t>
   </si>
   <si>
@@ -979,10 +982,16 @@
     <t>Minimum Path Sum</t>
   </si>
   <si>
+    <t>221(Medium)</t>
+  </si>
+  <si>
     <t>Maximal Square</t>
   </si>
   <si>
     <t>Bomb Enemy</t>
+  </si>
+  <si>
+    <t>91(Medium)</t>
   </si>
   <si>
     <t>Decode Ways</t>
@@ -1020,11 +1029,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1064,16 +1073,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1088,38 +1195,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1127,74 +1203,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1209,19 +1218,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,7 +1236,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,73 +1284,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,7 +1308,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,7 +1320,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,13 +1374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1371,25 +1392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,6 +1409,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1435,39 +1501,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1476,171 +1509,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1660,7 +1669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1669,7 +1678,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1996,8 +2005,8 @@
   <sheetPr/>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -2402,14 +2411,16 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26">
-        <v>347</v>
+      <c r="A26" t="s">
+        <v>50</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3">
+        <v>45013</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -2420,7 +2431,7 @@
         <v>349</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
@@ -2434,7 +2445,7 @@
         <v>350</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
@@ -2448,7 +2459,7 @@
         <v>845</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
@@ -2462,7 +2473,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
@@ -2476,7 +2487,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
@@ -2490,7 +2501,7 @@
         <v>969</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
@@ -2501,13 +2512,13 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D33" s="3">
         <f>DATE(2023,3,19)</f>
@@ -2525,7 +2536,7 @@
         <v>86</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
@@ -2539,7 +2550,7 @@
         <v>141</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
@@ -2553,7 +2564,7 @@
         <v>160</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
@@ -2567,7 +2578,7 @@
         <v>234</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
@@ -2581,7 +2592,7 @@
         <v>328</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
@@ -2595,7 +2606,7 @@
         <v>142</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
@@ -2609,7 +2620,7 @@
         <v>287</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
@@ -2623,7 +2634,7 @@
         <v>876</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
@@ -2637,10 +2648,10 @@
         <v>56</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2653,7 +2664,7 @@
         <v>57</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
@@ -2667,7 +2678,7 @@
         <v>252</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
@@ -2681,7 +2692,7 @@
         <v>253</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
@@ -2695,7 +2706,7 @@
         <v>986</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
@@ -2709,10 +2720,10 @@
         <v>5</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2725,7 +2736,7 @@
         <v>345</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
@@ -2739,7 +2750,7 @@
         <v>680</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
@@ -2753,7 +2764,7 @@
         <v>125</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
@@ -2764,13 +2775,13 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D51" s="3">
         <v>45004</v>
@@ -2785,7 +2796,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
@@ -2799,7 +2810,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
@@ -2813,7 +2824,7 @@
         <v>209</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
@@ -2827,7 +2838,7 @@
         <v>239</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
@@ -2841,7 +2852,7 @@
         <v>713</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
@@ -2855,7 +2866,7 @@
         <v>395</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
@@ -2869,7 +2880,7 @@
         <v>480</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
@@ -2883,7 +2894,7 @@
         <v>567</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
@@ -2897,7 +2908,7 @@
         <v>727</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
@@ -2911,10 +2922,10 @@
         <v>295</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2927,7 +2938,7 @@
         <v>346</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
@@ -2941,7 +2952,7 @@
         <v>352</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
@@ -2955,7 +2966,7 @@
         <v>703</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
@@ -2966,13 +2977,13 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D65" s="3">
         <v>45004</v>
@@ -2987,7 +2998,7 @@
         <v>238</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
@@ -3001,7 +3012,7 @@
         <v>303</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
@@ -3015,7 +3026,7 @@
         <v>325</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
@@ -3029,7 +3040,7 @@
         <v>528</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
@@ -3043,7 +3054,7 @@
         <v>560</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
@@ -3054,13 +3065,13 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D71" s="3">
         <v>45005</v>
@@ -3075,7 +3086,7 @@
         <v>15</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
@@ -3089,7 +3100,7 @@
         <v>18</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
@@ -3103,7 +3114,7 @@
         <v>167</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
@@ -3117,7 +3128,7 @@
         <v>170</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
@@ -3131,7 +3142,7 @@
         <v>653</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
@@ -3145,7 +3156,7 @@
         <v>1099</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
@@ -3159,7 +3170,7 @@
         <v>259</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
@@ -3170,13 +3181,13 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D79" s="3">
         <v>45005</v>
@@ -3191,7 +3202,7 @@
         <v>102</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
@@ -3205,7 +3216,7 @@
         <v>103</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
@@ -3219,7 +3230,7 @@
         <v>107</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
@@ -3233,7 +3244,7 @@
         <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
@@ -3247,10 +3258,10 @@
         <v>207</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3263,7 +3274,7 @@
         <v>210</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
@@ -3277,7 +3288,7 @@
         <v>269</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
@@ -3291,7 +3302,7 @@
         <v>444</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
@@ -3302,13 +3313,13 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D88" s="3">
         <v>45005</v>
@@ -3325,7 +3336,7 @@
         <v>490</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
@@ -3339,7 +3350,7 @@
         <v>505</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
@@ -3353,7 +3364,7 @@
         <v>542</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
@@ -3367,7 +3378,7 @@
         <v>733</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
@@ -3381,7 +3392,7 @@
         <v>994</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
@@ -3395,7 +3406,7 @@
         <v>305</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
@@ -3409,7 +3420,7 @@
         <v>773</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
@@ -3420,13 +3431,13 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D96" s="3">
         <v>45005</v>
@@ -3441,7 +3452,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
@@ -3455,7 +3466,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
@@ -3469,7 +3480,7 @@
         <v>841</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
@@ -3483,7 +3494,7 @@
         <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
@@ -3497,7 +3508,7 @@
         <v>1306</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
@@ -3508,13 +3519,13 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D102" s="3">
         <v>45005</v>
@@ -3526,10 +3537,10 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="3">
@@ -3542,10 +3553,10 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="3">
@@ -3558,13 +3569,13 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D105" s="3">
         <v>45006</v>
@@ -3579,7 +3590,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
@@ -3593,7 +3604,7 @@
         <v>889</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
@@ -3604,13 +3615,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D108" s="3">
         <f>DATE(2023,3,21)</f>
@@ -3626,7 +3637,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
@@ -3640,7 +3651,7 @@
         <v>285</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
@@ -3654,7 +3665,7 @@
         <v>270</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
@@ -3668,7 +3679,7 @@
         <v>272</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
@@ -3682,7 +3693,7 @@
         <v>510</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
@@ -3696,10 +3707,10 @@
         <v>98</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3712,7 +3723,7 @@
         <v>100</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
@@ -3726,7 +3737,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
@@ -3740,7 +3751,7 @@
         <v>110</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
@@ -3754,10 +3765,10 @@
         <v>111</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -3770,7 +3781,7 @@
         <v>104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
@@ -3784,7 +3795,7 @@
         <v>333</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
@@ -3798,10 +3809,10 @@
         <v>112</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -3814,7 +3825,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
@@ -3828,7 +3839,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
@@ -3842,7 +3853,7 @@
         <v>298</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
@@ -3856,7 +3867,7 @@
         <v>549</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
@@ -3870,10 +3881,10 @@
         <v>236</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -3886,10 +3897,10 @@
         <v>199</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -3902,7 +3913,7 @@
         <v>513</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
@@ -3916,7 +3927,7 @@
         <v>331</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
@@ -3930,7 +3941,7 @@
         <v>449</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
@@ -3944,7 +3955,7 @@
         <v>114</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
@@ -3955,13 +3966,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D132" s="3">
         <v>45007</v>
@@ -3973,10 +3984,10 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="3">
@@ -3989,10 +4000,10 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="3">
@@ -4005,10 +4016,10 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="3">
@@ -4021,10 +4032,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="3">
@@ -4037,10 +4048,10 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="3">
@@ -4053,10 +4064,10 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="3">
@@ -4072,7 +4083,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
@@ -4086,7 +4097,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
@@ -4100,7 +4111,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
@@ -4114,7 +4125,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
@@ -4128,7 +4139,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
@@ -4142,7 +4153,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
@@ -4156,7 +4167,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
@@ -4170,7 +4181,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
@@ -4184,7 +4195,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
@@ -4198,7 +4209,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
@@ -4212,10 +4223,10 @@
         <v>113</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4228,7 +4239,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
@@ -4242,10 +4253,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4258,7 +4269,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
@@ -4272,7 +4283,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
@@ -4286,7 +4297,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
@@ -4300,7 +4311,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
@@ -4314,7 +4325,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
@@ -4328,10 +4339,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4344,7 +4355,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
@@ -4358,7 +4369,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
@@ -4372,7 +4383,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
@@ -4386,7 +4397,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
@@ -4400,10 +4411,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -4416,7 +4427,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
@@ -4430,7 +4441,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
@@ -4444,7 +4455,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
@@ -4458,7 +4469,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
@@ -4469,13 +4480,13 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D167" s="3">
         <v>45008</v>
@@ -4512,7 +4523,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
@@ -4526,7 +4537,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
@@ -4540,7 +4551,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
@@ -4554,7 +4565,7 @@
         <v>86</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
@@ -4568,7 +4579,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
@@ -4582,7 +4593,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
@@ -4596,7 +4607,7 @@
         <v>141</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
@@ -4610,7 +4621,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
@@ -4624,7 +4635,7 @@
         <v>160</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
@@ -4638,7 +4649,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
@@ -4652,7 +4663,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
@@ -4666,7 +4677,7 @@
         <v>234</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
@@ -4680,7 +4691,7 @@
         <v>328</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
@@ -4694,7 +4705,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
@@ -4708,7 +4719,7 @@
         <v>142</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="3"/>
@@ -4722,7 +4733,7 @@
         <v>876</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="3"/>
@@ -4733,13 +4744,13 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D185" s="3">
         <v>45008</v>
@@ -4754,7 +4765,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
@@ -4768,7 +4779,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
@@ -4782,7 +4793,7 @@
         <v>560</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
@@ -4796,7 +4807,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
@@ -4810,7 +4821,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
@@ -4821,13 +4832,13 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D191" s="3">
         <v>45009</v>
@@ -4842,7 +4853,7 @@
         <v>295</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
@@ -4856,7 +4867,7 @@
         <v>347</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
@@ -4870,7 +4881,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
@@ -4884,7 +4895,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
@@ -4898,7 +4909,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
@@ -4912,7 +4923,7 @@
         <v>480</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
@@ -4926,7 +4937,7 @@
         <v>703</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
@@ -4940,10 +4951,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D199" s="3">
         <v>45009</v>
@@ -4958,7 +4969,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
@@ -4972,7 +4983,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
@@ -4986,7 +4997,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
@@ -5000,7 +5011,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
@@ -5014,7 +5025,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
@@ -5028,7 +5039,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
@@ -5039,13 +5050,13 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D206" s="3">
         <v>45009</v>
@@ -5060,7 +5071,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
@@ -5074,7 +5085,7 @@
         <v>239</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
@@ -5088,7 +5099,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
@@ -5102,10 +5113,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -5118,7 +5129,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
@@ -5132,7 +5143,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
@@ -5151,7 +5162,7 @@
         <v>Number of Islands</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D213" s="3">
         <f>D88</f>
@@ -5192,7 +5203,7 @@
         <v>323</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
@@ -5206,10 +5217,10 @@
         <v>252</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -5222,7 +5233,7 @@
         <v>253</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="3"/>
@@ -5233,13 +5244,13 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D218" s="3">
         <v>45010</v>
@@ -5254,7 +5265,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
@@ -5268,7 +5279,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
@@ -5282,7 +5293,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
@@ -5296,7 +5307,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
@@ -5307,13 +5318,13 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D223" s="3">
         <v>45010</v>
@@ -5325,10 +5336,10 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="3">
@@ -5344,7 +5355,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
@@ -5358,7 +5369,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
@@ -5372,7 +5383,7 @@
         <v>528</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="3"/>
@@ -5386,7 +5397,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
@@ -5400,7 +5411,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
@@ -5414,7 +5425,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
@@ -5428,10 +5439,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5444,10 +5455,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5460,7 +5471,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
@@ -5474,7 +5485,7 @@
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="3"/>
@@ -5488,7 +5499,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -5502,7 +5513,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -5513,10 +5524,10 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="3">
@@ -5532,7 +5543,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -5543,13 +5554,13 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D239" s="3">
         <v>45012</v>
@@ -5564,7 +5575,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5578,7 +5589,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5592,7 +5603,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5606,7 +5617,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5620,7 +5631,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5634,10 +5645,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5650,7 +5661,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5664,7 +5675,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5675,13 +5686,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D248" s="3">
         <v>45011</v>
@@ -5693,10 +5704,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3">
@@ -5709,10 +5720,10 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3">
@@ -5728,7 +5739,7 @@
         <v>85</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="3"/>
@@ -5738,14 +5749,16 @@
       <c r="H251" s="3"/>
     </row>
     <row r="252" spans="1:8">
-      <c r="A252">
-        <v>221</v>
+      <c r="A252" t="s">
+        <v>322</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C252" s="2"/>
-      <c r="D252" s="3"/>
+      <c r="D252" s="3">
+        <v>45013</v>
+      </c>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
@@ -5756,7 +5769,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5766,16 +5779,18 @@
       <c r="H253" s="3"/>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254">
-        <v>91</v>
+      <c r="A254" t="s">
+        <v>325</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D254" s="3"/>
+        <v>327</v>
+      </c>
+      <c r="D254" s="3">
+        <v>45013</v>
+      </c>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
@@ -5786,7 +5801,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -5800,7 +5815,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3"/>
@@ -5814,7 +5829,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -5828,10 +5843,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -5841,10 +5856,10 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3">
@@ -5860,7 +5875,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="3"/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="341">
   <si>
     <t>Question Number</t>
   </si>
@@ -172,16 +172,31 @@
     <t>Top K Frequent Elements</t>
   </si>
   <si>
+    <t>349(Easy)</t>
+  </si>
+  <si>
     <t>Intersection of Two Arrays</t>
   </si>
   <si>
+    <t>350(Easy)</t>
+  </si>
+  <si>
     <t>Intersection of Two Arrays II</t>
   </si>
   <si>
+    <t>845(Medium)</t>
+  </si>
+  <si>
     <t>Longest Mountain in Array</t>
   </si>
   <si>
+    <t>42(Hard)</t>
+  </si>
+  <si>
     <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>43(Medium)</t>
   </si>
   <si>
     <t>Multiply Strings</t>
@@ -1030,8 +1045,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1074,6 +1089,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1082,66 +1112,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1157,12 +1127,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1170,9 +1164,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1186,9 +1180,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1201,9 +1217,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,19 +1233,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,7 +1293,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,73 +1341,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,19 +1359,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,37 +1389,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,6 +1424,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1451,24 +1481,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1484,17 +1496,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1509,147 +1515,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2005,8 +2020,8 @@
   <sheetPr/>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -2427,70 +2442,80 @@
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27">
-        <v>349</v>
+      <c r="A27" t="s">
+        <v>52</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3">
+        <v>45014</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28">
-        <v>350</v>
+      <c r="A28" t="s">
+        <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3">
+        <v>45014</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29">
-        <v>845</v>
+      <c r="A29" t="s">
+        <v>56</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3">
+        <v>45014</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30">
-        <v>42</v>
+      <c r="A30" t="s">
+        <v>58</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3">
+        <v>45014</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31">
-        <v>43</v>
+      <c r="A31" t="s">
+        <v>60</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3">
+        <v>45014</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -2501,7 +2526,7 @@
         <v>969</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
@@ -2512,13 +2537,13 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D33" s="3">
         <f>DATE(2023,3,19)</f>
@@ -2536,7 +2561,7 @@
         <v>86</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
@@ -2550,7 +2575,7 @@
         <v>141</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
@@ -2564,7 +2589,7 @@
         <v>160</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
@@ -2578,7 +2603,7 @@
         <v>234</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
@@ -2592,7 +2617,7 @@
         <v>328</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
@@ -2606,7 +2631,7 @@
         <v>142</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
@@ -2620,7 +2645,7 @@
         <v>287</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
@@ -2634,7 +2659,7 @@
         <v>876</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
@@ -2648,10 +2673,10 @@
         <v>56</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2664,7 +2689,7 @@
         <v>57</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
@@ -2678,7 +2703,7 @@
         <v>252</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
@@ -2692,7 +2717,7 @@
         <v>253</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
@@ -2706,7 +2731,7 @@
         <v>986</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
@@ -2720,10 +2745,10 @@
         <v>5</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2736,7 +2761,7 @@
         <v>345</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
@@ -2750,7 +2775,7 @@
         <v>680</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
@@ -2764,7 +2789,7 @@
         <v>125</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
@@ -2775,13 +2800,13 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D51" s="3">
         <v>45004</v>
@@ -2796,7 +2821,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
@@ -2810,7 +2835,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
@@ -2824,7 +2849,7 @@
         <v>209</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
@@ -2838,7 +2863,7 @@
         <v>239</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
@@ -2852,7 +2877,7 @@
         <v>713</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
@@ -2866,7 +2891,7 @@
         <v>395</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
@@ -2880,7 +2905,7 @@
         <v>480</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
@@ -2894,7 +2919,7 @@
         <v>567</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
@@ -2908,7 +2933,7 @@
         <v>727</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
@@ -2922,10 +2947,10 @@
         <v>295</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2938,7 +2963,7 @@
         <v>346</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
@@ -2952,7 +2977,7 @@
         <v>352</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
@@ -2966,7 +2991,7 @@
         <v>703</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
@@ -2977,13 +3002,13 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D65" s="3">
         <v>45004</v>
@@ -2998,7 +3023,7 @@
         <v>238</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
@@ -3012,7 +3037,7 @@
         <v>303</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
@@ -3026,7 +3051,7 @@
         <v>325</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
@@ -3040,7 +3065,7 @@
         <v>528</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
@@ -3054,7 +3079,7 @@
         <v>560</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
@@ -3065,13 +3090,13 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D71" s="3">
         <v>45005</v>
@@ -3086,7 +3111,7 @@
         <v>15</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
@@ -3100,7 +3125,7 @@
         <v>18</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
@@ -3114,7 +3139,7 @@
         <v>167</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
@@ -3128,7 +3153,7 @@
         <v>170</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
@@ -3142,7 +3167,7 @@
         <v>653</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
@@ -3156,7 +3181,7 @@
         <v>1099</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
@@ -3170,7 +3195,7 @@
         <v>259</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
@@ -3181,13 +3206,13 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D79" s="3">
         <v>45005</v>
@@ -3202,7 +3227,7 @@
         <v>102</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
@@ -3216,7 +3241,7 @@
         <v>103</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
@@ -3230,7 +3255,7 @@
         <v>107</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
@@ -3244,7 +3269,7 @@
         <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
@@ -3258,10 +3283,10 @@
         <v>207</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3274,7 +3299,7 @@
         <v>210</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
@@ -3288,7 +3313,7 @@
         <v>269</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
@@ -3302,7 +3327,7 @@
         <v>444</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
@@ -3313,13 +3338,13 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D88" s="3">
         <v>45005</v>
@@ -3336,7 +3361,7 @@
         <v>490</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
@@ -3350,7 +3375,7 @@
         <v>505</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
@@ -3364,7 +3389,7 @@
         <v>542</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
@@ -3378,7 +3403,7 @@
         <v>733</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
@@ -3392,7 +3417,7 @@
         <v>994</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
@@ -3406,7 +3431,7 @@
         <v>305</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
@@ -3420,7 +3445,7 @@
         <v>773</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
@@ -3431,13 +3456,13 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D96" s="3">
         <v>45005</v>
@@ -3452,7 +3477,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
@@ -3466,7 +3491,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
@@ -3480,7 +3505,7 @@
         <v>841</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
@@ -3494,7 +3519,7 @@
         <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
@@ -3508,7 +3533,7 @@
         <v>1306</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
@@ -3519,13 +3544,13 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D102" s="3">
         <v>45005</v>
@@ -3537,10 +3562,10 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="3">
@@ -3553,10 +3578,10 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="3">
@@ -3569,13 +3594,13 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D105" s="3">
         <v>45006</v>
@@ -3590,7 +3615,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
@@ -3604,7 +3629,7 @@
         <v>889</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
@@ -3615,13 +3640,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D108" s="3">
         <f>DATE(2023,3,21)</f>
@@ -3637,7 +3662,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
@@ -3651,7 +3676,7 @@
         <v>285</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
@@ -3665,7 +3690,7 @@
         <v>270</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
@@ -3679,7 +3704,7 @@
         <v>272</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
@@ -3693,7 +3718,7 @@
         <v>510</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
@@ -3707,10 +3732,10 @@
         <v>98</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3723,7 +3748,7 @@
         <v>100</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
@@ -3737,7 +3762,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
@@ -3751,7 +3776,7 @@
         <v>110</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
@@ -3765,10 +3790,10 @@
         <v>111</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -3781,7 +3806,7 @@
         <v>104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
@@ -3795,7 +3820,7 @@
         <v>333</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
@@ -3809,10 +3834,10 @@
         <v>112</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -3825,7 +3850,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
@@ -3839,7 +3864,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
@@ -3853,7 +3878,7 @@
         <v>298</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
@@ -3867,7 +3892,7 @@
         <v>549</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
@@ -3881,10 +3906,10 @@
         <v>236</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -3897,10 +3922,10 @@
         <v>199</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -3913,7 +3938,7 @@
         <v>513</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
@@ -3927,7 +3952,7 @@
         <v>331</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
@@ -3941,7 +3966,7 @@
         <v>449</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
@@ -3955,7 +3980,7 @@
         <v>114</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
@@ -3966,13 +3991,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D132" s="3">
         <v>45007</v>
@@ -3984,10 +4009,10 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="3">
@@ -4000,10 +4025,10 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="3">
@@ -4016,10 +4041,10 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="3">
@@ -4032,10 +4057,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="3">
@@ -4048,10 +4073,10 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="3">
@@ -4064,10 +4089,10 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="3">
@@ -4083,7 +4108,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
@@ -4097,7 +4122,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
@@ -4111,7 +4136,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
@@ -4125,7 +4150,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
@@ -4139,7 +4164,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
@@ -4153,7 +4178,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
@@ -4167,7 +4192,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
@@ -4181,7 +4206,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
@@ -4195,7 +4220,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
@@ -4209,7 +4234,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
@@ -4223,10 +4248,10 @@
         <v>113</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4239,7 +4264,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
@@ -4253,10 +4278,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4269,7 +4294,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
@@ -4283,7 +4308,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
@@ -4297,7 +4322,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
@@ -4311,7 +4336,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
@@ -4325,7 +4350,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
@@ -4339,10 +4364,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4355,7 +4380,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
@@ -4369,7 +4394,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
@@ -4383,7 +4408,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
@@ -4397,7 +4422,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
@@ -4411,10 +4436,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -4427,7 +4452,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
@@ -4441,7 +4466,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
@@ -4455,7 +4480,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
@@ -4469,7 +4494,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
@@ -4480,13 +4505,13 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D167" s="3">
         <v>45008</v>
@@ -4523,7 +4548,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
@@ -4537,7 +4562,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
@@ -4551,7 +4576,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
@@ -4565,7 +4590,7 @@
         <v>86</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
@@ -4579,7 +4604,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
@@ -4593,7 +4618,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
@@ -4607,7 +4632,7 @@
         <v>141</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
@@ -4621,7 +4646,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
@@ -4635,7 +4660,7 @@
         <v>160</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
@@ -4649,7 +4674,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
@@ -4663,7 +4688,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
@@ -4677,7 +4702,7 @@
         <v>234</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
@@ -4691,7 +4716,7 @@
         <v>328</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
@@ -4705,7 +4730,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
@@ -4719,7 +4744,7 @@
         <v>142</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="3"/>
@@ -4733,7 +4758,7 @@
         <v>876</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="3"/>
@@ -4744,13 +4769,13 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D185" s="3">
         <v>45008</v>
@@ -4765,7 +4790,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
@@ -4779,7 +4804,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
@@ -4793,7 +4818,7 @@
         <v>560</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
@@ -4807,7 +4832,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
@@ -4821,7 +4846,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
@@ -4832,13 +4857,13 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D191" s="3">
         <v>45009</v>
@@ -4853,7 +4878,7 @@
         <v>295</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
@@ -4881,7 +4906,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
@@ -4895,7 +4920,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
@@ -4909,7 +4934,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
@@ -4923,7 +4948,7 @@
         <v>480</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
@@ -4937,7 +4962,7 @@
         <v>703</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
@@ -4951,10 +4976,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D199" s="3">
         <v>45009</v>
@@ -4969,7 +4994,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
@@ -4983,7 +5008,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
@@ -4997,7 +5022,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
@@ -5011,7 +5036,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
@@ -5025,7 +5050,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
@@ -5039,7 +5064,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
@@ -5050,13 +5075,13 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D206" s="3">
         <v>45009</v>
@@ -5071,7 +5096,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
@@ -5085,7 +5110,7 @@
         <v>239</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
@@ -5099,7 +5124,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
@@ -5113,10 +5138,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -5129,7 +5154,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
@@ -5143,7 +5168,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
@@ -5162,7 +5187,7 @@
         <v>Number of Islands</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D213" s="3">
         <f>D88</f>
@@ -5203,7 +5228,7 @@
         <v>323</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
@@ -5217,10 +5242,10 @@
         <v>252</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -5233,7 +5258,7 @@
         <v>253</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="3"/>
@@ -5244,13 +5269,13 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D218" s="3">
         <v>45010</v>
@@ -5265,7 +5290,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
@@ -5279,7 +5304,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
@@ -5293,7 +5318,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
@@ -5307,7 +5332,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
@@ -5318,13 +5343,13 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D223" s="3">
         <v>45010</v>
@@ -5336,10 +5361,10 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="3">
@@ -5355,7 +5380,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
@@ -5369,7 +5394,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
@@ -5383,7 +5408,7 @@
         <v>528</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="3"/>
@@ -5397,7 +5422,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
@@ -5411,7 +5436,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
@@ -5425,7 +5450,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
@@ -5439,10 +5464,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5455,10 +5480,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5471,7 +5496,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
@@ -5485,7 +5510,7 @@
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="3"/>
@@ -5499,7 +5524,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -5513,7 +5538,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -5524,10 +5549,10 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="3">
@@ -5543,7 +5568,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -5554,13 +5579,13 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D239" s="3">
         <v>45012</v>
@@ -5575,7 +5600,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5589,7 +5614,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5603,7 +5628,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5617,7 +5642,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5631,7 +5656,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5645,10 +5670,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5661,7 +5686,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5675,7 +5700,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5686,13 +5711,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D248" s="3">
         <v>45011</v>
@@ -5704,10 +5729,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3">
@@ -5720,10 +5745,10 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3">
@@ -5739,7 +5764,7 @@
         <v>85</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="3"/>
@@ -5750,10 +5775,10 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3">
@@ -5769,7 +5794,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5780,13 +5805,13 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D254" s="3">
         <v>45013</v>
@@ -5801,7 +5826,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -5815,7 +5840,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3"/>
@@ -5829,7 +5854,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -5843,10 +5868,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -5856,10 +5881,10 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3">
@@ -5875,7 +5900,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="3"/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="346">
   <si>
     <t>Question Number</t>
   </si>
@@ -214,16 +214,31 @@
     <t>多指针：链表</t>
   </si>
   <si>
+    <t>86(Medium)</t>
+  </si>
+  <si>
     <t>Partition List</t>
   </si>
   <si>
+    <t>141(Easy)</t>
+  </si>
+  <si>
     <t>Linked List Cycle</t>
   </si>
   <si>
+    <t>160(Easy)</t>
+  </si>
+  <si>
     <t>Intersection of Two Linked Lists</t>
   </si>
   <si>
+    <t>234(Easy)</t>
+  </si>
+  <si>
     <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>328(Medium)</t>
   </si>
   <si>
     <t>Odd Even Linked List</t>
@@ -1044,11 +1059,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1080,9 +1095,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1103,44 +1117,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1157,6 +1133,90 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1172,53 +1232,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1233,13 +1248,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,25 +1266,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,6 +1279,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,31 +1308,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,7 +1386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,49 +1404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,7 +1416,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,15 +1513,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1524,126 +1530,135 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1652,25 +1667,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1684,7 +1699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1693,7 +1708,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2020,8 +2035,8 @@
   <sheetPr/>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -2557,70 +2572,80 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34">
-        <v>86</v>
+      <c r="A34" t="s">
+        <v>66</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3">
+        <v>45015</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35">
-        <v>141</v>
+      <c r="A35" t="s">
+        <v>68</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3">
+        <v>45015</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36">
-        <v>160</v>
+      <c r="A36" t="s">
+        <v>70</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3">
+        <v>45015</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37">
-        <v>234</v>
+      <c r="A37" t="s">
+        <v>72</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3">
+        <v>45015</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38">
-        <v>328</v>
+      <c r="A38" t="s">
+        <v>74</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3">
+        <v>45015</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -2631,7 +2656,7 @@
         <v>142</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
@@ -2645,7 +2670,7 @@
         <v>287</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
@@ -2659,7 +2684,7 @@
         <v>876</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
@@ -2673,10 +2698,10 @@
         <v>56</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2689,7 +2714,7 @@
         <v>57</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
@@ -2703,7 +2728,7 @@
         <v>252</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
@@ -2717,7 +2742,7 @@
         <v>253</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
@@ -2731,7 +2756,7 @@
         <v>986</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
@@ -2745,10 +2770,10 @@
         <v>5</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2761,7 +2786,7 @@
         <v>345</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
@@ -2775,7 +2800,7 @@
         <v>680</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
@@ -2789,7 +2814,7 @@
         <v>125</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
@@ -2800,13 +2825,13 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D51" s="3">
         <v>45004</v>
@@ -2821,7 +2846,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
@@ -2835,7 +2860,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
@@ -2849,7 +2874,7 @@
         <v>209</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
@@ -2863,7 +2888,7 @@
         <v>239</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
@@ -2877,7 +2902,7 @@
         <v>713</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
@@ -2891,7 +2916,7 @@
         <v>395</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
@@ -2905,7 +2930,7 @@
         <v>480</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
@@ -2919,7 +2944,7 @@
         <v>567</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
@@ -2933,7 +2958,7 @@
         <v>727</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
@@ -2947,10 +2972,10 @@
         <v>295</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2963,7 +2988,7 @@
         <v>346</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
@@ -2977,7 +3002,7 @@
         <v>352</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
@@ -2991,7 +3016,7 @@
         <v>703</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
@@ -3002,13 +3027,13 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D65" s="3">
         <v>45004</v>
@@ -3023,7 +3048,7 @@
         <v>238</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
@@ -3037,7 +3062,7 @@
         <v>303</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
@@ -3051,7 +3076,7 @@
         <v>325</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
@@ -3065,7 +3090,7 @@
         <v>528</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
@@ -3079,7 +3104,7 @@
         <v>560</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
@@ -3090,13 +3115,13 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D71" s="3">
         <v>45005</v>
@@ -3111,7 +3136,7 @@
         <v>15</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
@@ -3125,7 +3150,7 @@
         <v>18</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
@@ -3139,7 +3164,7 @@
         <v>167</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
@@ -3153,7 +3178,7 @@
         <v>170</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
@@ -3167,7 +3192,7 @@
         <v>653</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
@@ -3181,7 +3206,7 @@
         <v>1099</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
@@ -3195,7 +3220,7 @@
         <v>259</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
@@ -3206,13 +3231,13 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D79" s="3">
         <v>45005</v>
@@ -3227,7 +3252,7 @@
         <v>102</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
@@ -3241,7 +3266,7 @@
         <v>103</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
@@ -3255,7 +3280,7 @@
         <v>107</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
@@ -3269,7 +3294,7 @@
         <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
@@ -3283,10 +3308,10 @@
         <v>207</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3299,7 +3324,7 @@
         <v>210</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
@@ -3313,7 +3338,7 @@
         <v>269</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
@@ -3327,7 +3352,7 @@
         <v>444</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
@@ -3338,13 +3363,13 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D88" s="3">
         <v>45005</v>
@@ -3361,7 +3386,7 @@
         <v>490</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
@@ -3375,7 +3400,7 @@
         <v>505</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
@@ -3389,7 +3414,7 @@
         <v>542</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
@@ -3403,7 +3428,7 @@
         <v>733</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
@@ -3417,7 +3442,7 @@
         <v>994</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
@@ -3431,7 +3456,7 @@
         <v>305</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
@@ -3445,7 +3470,7 @@
         <v>773</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
@@ -3456,13 +3481,13 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D96" s="3">
         <v>45005</v>
@@ -3477,7 +3502,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
@@ -3491,7 +3516,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
@@ -3505,7 +3530,7 @@
         <v>841</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
@@ -3519,7 +3544,7 @@
         <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
@@ -3533,7 +3558,7 @@
         <v>1306</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
@@ -3544,13 +3569,13 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D102" s="3">
         <v>45005</v>
@@ -3562,10 +3587,10 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="3">
@@ -3578,10 +3603,10 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="3">
@@ -3594,13 +3619,13 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D105" s="3">
         <v>45006</v>
@@ -3615,7 +3640,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
@@ -3629,7 +3654,7 @@
         <v>889</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
@@ -3640,13 +3665,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D108" s="3">
         <f>DATE(2023,3,21)</f>
@@ -3662,7 +3687,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
@@ -3676,7 +3701,7 @@
         <v>285</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
@@ -3690,7 +3715,7 @@
         <v>270</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
@@ -3704,7 +3729,7 @@
         <v>272</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
@@ -3718,7 +3743,7 @@
         <v>510</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
@@ -3732,10 +3757,10 @@
         <v>98</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3748,7 +3773,7 @@
         <v>100</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
@@ -3762,7 +3787,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
@@ -3776,7 +3801,7 @@
         <v>110</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
@@ -3790,10 +3815,10 @@
         <v>111</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -3806,7 +3831,7 @@
         <v>104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
@@ -3820,7 +3845,7 @@
         <v>333</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
@@ -3834,10 +3859,10 @@
         <v>112</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -3850,7 +3875,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
@@ -3864,7 +3889,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
@@ -3878,7 +3903,7 @@
         <v>298</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
@@ -3892,7 +3917,7 @@
         <v>549</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
@@ -3906,10 +3931,10 @@
         <v>236</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -3922,10 +3947,10 @@
         <v>199</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -3938,7 +3963,7 @@
         <v>513</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
@@ -3952,7 +3977,7 @@
         <v>331</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
@@ -3966,7 +3991,7 @@
         <v>449</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
@@ -3980,7 +4005,7 @@
         <v>114</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
@@ -3991,13 +4016,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D132" s="3">
         <v>45007</v>
@@ -4009,10 +4034,10 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="3">
@@ -4025,10 +4050,10 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="3">
@@ -4041,10 +4066,10 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="3">
@@ -4057,10 +4082,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="3">
@@ -4073,10 +4098,10 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="3">
@@ -4089,10 +4114,10 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="3">
@@ -4108,7 +4133,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
@@ -4122,7 +4147,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
@@ -4136,7 +4161,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
@@ -4150,7 +4175,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
@@ -4164,7 +4189,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
@@ -4178,7 +4203,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
@@ -4192,7 +4217,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
@@ -4206,7 +4231,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
@@ -4220,7 +4245,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
@@ -4234,7 +4259,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
@@ -4248,10 +4273,10 @@
         <v>113</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4264,7 +4289,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
@@ -4278,10 +4303,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4294,7 +4319,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
@@ -4308,7 +4333,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
@@ -4322,7 +4347,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
@@ -4336,7 +4361,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
@@ -4350,7 +4375,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
@@ -4364,10 +4389,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4380,7 +4405,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
@@ -4394,7 +4419,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
@@ -4408,7 +4433,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
@@ -4422,7 +4447,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
@@ -4436,10 +4461,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -4452,7 +4477,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
@@ -4466,7 +4491,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
@@ -4480,7 +4505,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
@@ -4494,7 +4519,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
@@ -4505,13 +4530,13 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D167" s="3">
         <v>45008</v>
@@ -4548,7 +4573,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
@@ -4562,7 +4587,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
@@ -4576,7 +4601,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
@@ -4590,7 +4615,7 @@
         <v>86</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
@@ -4604,7 +4629,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
@@ -4618,7 +4643,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
@@ -4632,7 +4657,7 @@
         <v>141</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
@@ -4646,7 +4671,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
@@ -4660,7 +4685,7 @@
         <v>160</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
@@ -4674,7 +4699,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
@@ -4688,7 +4713,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
@@ -4702,7 +4727,7 @@
         <v>234</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
@@ -4716,7 +4741,7 @@
         <v>328</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
@@ -4730,7 +4755,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
@@ -4744,7 +4769,7 @@
         <v>142</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="3"/>
@@ -4758,7 +4783,7 @@
         <v>876</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="3"/>
@@ -4769,13 +4794,13 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D185" s="3">
         <v>45008</v>
@@ -4790,7 +4815,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
@@ -4804,7 +4829,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
@@ -4818,7 +4843,7 @@
         <v>560</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
@@ -4832,7 +4857,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
@@ -4846,7 +4871,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
@@ -4857,13 +4882,13 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D191" s="3">
         <v>45009</v>
@@ -4878,7 +4903,7 @@
         <v>295</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
@@ -4906,7 +4931,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
@@ -4920,7 +4945,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
@@ -4934,7 +4959,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
@@ -4948,7 +4973,7 @@
         <v>480</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
@@ -4962,7 +4987,7 @@
         <v>703</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
@@ -4976,10 +5001,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D199" s="3">
         <v>45009</v>
@@ -4994,7 +5019,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
@@ -5008,7 +5033,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
@@ -5022,7 +5047,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
@@ -5036,7 +5061,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
@@ -5050,7 +5075,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
@@ -5064,7 +5089,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
@@ -5075,13 +5100,13 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D206" s="3">
         <v>45009</v>
@@ -5096,7 +5121,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
@@ -5110,7 +5135,7 @@
         <v>239</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
@@ -5124,7 +5149,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
@@ -5138,10 +5163,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -5154,7 +5179,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
@@ -5168,7 +5193,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
@@ -5187,7 +5212,7 @@
         <v>Number of Islands</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D213" s="3">
         <f>D88</f>
@@ -5228,7 +5253,7 @@
         <v>323</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
@@ -5242,10 +5267,10 @@
         <v>252</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -5258,7 +5283,7 @@
         <v>253</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="3"/>
@@ -5269,13 +5294,13 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D218" s="3">
         <v>45010</v>
@@ -5290,7 +5315,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
@@ -5304,7 +5329,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
@@ -5318,7 +5343,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
@@ -5332,7 +5357,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
@@ -5343,13 +5368,13 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D223" s="3">
         <v>45010</v>
@@ -5361,10 +5386,10 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="3">
@@ -5380,7 +5405,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
@@ -5394,7 +5419,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
@@ -5408,7 +5433,7 @@
         <v>528</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="3"/>
@@ -5422,7 +5447,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
@@ -5436,7 +5461,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
@@ -5450,7 +5475,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
@@ -5464,10 +5489,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5480,10 +5505,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5496,7 +5521,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
@@ -5510,7 +5535,7 @@
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="3"/>
@@ -5524,7 +5549,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -5538,7 +5563,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -5549,10 +5574,10 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="3">
@@ -5568,7 +5593,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -5579,13 +5604,13 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D239" s="3">
         <v>45012</v>
@@ -5600,7 +5625,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5614,7 +5639,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5628,7 +5653,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5642,7 +5667,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5656,7 +5681,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5670,10 +5695,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5686,7 +5711,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5700,7 +5725,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5711,13 +5736,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D248" s="3">
         <v>45011</v>
@@ -5729,10 +5754,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3">
@@ -5745,10 +5770,10 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3">
@@ -5764,7 +5789,7 @@
         <v>85</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="3"/>
@@ -5775,10 +5800,10 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3">
@@ -5794,7 +5819,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5805,13 +5830,13 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D254" s="3">
         <v>45013</v>
@@ -5826,7 +5851,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -5840,7 +5865,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3"/>
@@ -5854,7 +5879,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -5868,10 +5893,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -5881,10 +5906,10 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3">
@@ -5900,7 +5925,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="3"/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="354">
   <si>
     <t>Question Number</t>
   </si>
@@ -211,7 +211,7 @@
     <t>Merge Two Sorted Lists</t>
   </si>
   <si>
-    <t>多指针：链表</t>
+    <t>`</t>
   </si>
   <si>
     <t>86(Medium)</t>
@@ -253,31 +253,55 @@
     <t>Middle of the Linked List</t>
   </si>
   <si>
+    <t>56(Medium)</t>
+  </si>
+  <si>
     <t>Merge Intervals</t>
   </si>
   <si>
     <t>多指针：区间</t>
   </si>
   <si>
+    <t>57(Medium)</t>
+  </si>
+  <si>
     <t>Insert Interval</t>
   </si>
   <si>
+    <t>252(Easy)</t>
+  </si>
+  <si>
     <t>Meeting Rooms</t>
   </si>
   <si>
+    <t>253(Medium)</t>
+  </si>
+  <si>
     <t>Meeting Rooms II</t>
   </si>
   <si>
+    <t>986(Medium)</t>
+  </si>
+  <si>
     <t>Interval List Intersections</t>
   </si>
   <si>
+    <t>5(Medium)</t>
+  </si>
+  <si>
     <t>Longest Palindromic Substring</t>
   </si>
   <si>
     <t>多指针：回文串</t>
   </si>
   <si>
+    <t>345(Easy)</t>
+  </si>
+  <si>
     <t>Reverse Vowels of a String</t>
+  </si>
+  <si>
+    <t>680(Easy)</t>
   </si>
   <si>
     <t>Valid Palindrome II</t>
@@ -1059,11 +1083,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1095,8 +1119,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,22 +1205,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1141,17 +1220,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1170,70 +1256,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1248,7 +1272,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,79 +1362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,7 +1386,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,67 +1428,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,17 +1490,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1525,17 +1543,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1544,148 +1568,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1699,7 +1723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1708,7 +1732,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2035,8 +2059,8 @@
   <sheetPr/>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -2077,7 +2101,9 @@
       <c r="D2" s="3">
         <v>45003</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3">
+        <v>45016</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2694,116 +2720,132 @@
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42">
-        <v>56</v>
+      <c r="A42" t="s">
+        <v>79</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="D42" s="3">
+        <v>45016</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43">
-        <v>57</v>
+      <c r="A43" t="s">
+        <v>82</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="3"/>
+      <c r="D43" s="3">
+        <v>45016</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44">
-        <v>252</v>
+      <c r="A44" t="s">
+        <v>84</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="3"/>
+      <c r="D44" s="3">
+        <v>45016</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45">
-        <v>253</v>
+      <c r="A45" t="s">
+        <v>86</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="3"/>
+      <c r="D45" s="3">
+        <v>45016</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46">
-        <v>986</v>
+      <c r="A46" t="s">
+        <v>88</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
+      <c r="D46" s="3">
+        <v>45016</v>
+      </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47">
-        <v>5</v>
+      <c r="A47" t="s">
+        <v>90</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="D47" s="3">
+        <v>45016</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48">
-        <v>345</v>
+      <c r="A48" t="s">
+        <v>93</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="3"/>
+      <c r="D48" s="3">
+        <v>45016</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49">
-        <v>680</v>
+      <c r="A49" t="s">
+        <v>95</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="3"/>
+      <c r="D49" s="3">
+        <v>45016</v>
+      </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -2814,7 +2856,7 @@
         <v>125</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
@@ -2825,13 +2867,13 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D51" s="3">
         <v>45004</v>
@@ -2846,7 +2888,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
@@ -2860,7 +2902,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
@@ -2874,7 +2916,7 @@
         <v>209</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
@@ -2888,7 +2930,7 @@
         <v>239</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
@@ -2902,7 +2944,7 @@
         <v>713</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
@@ -2916,7 +2958,7 @@
         <v>395</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
@@ -2930,7 +2972,7 @@
         <v>480</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
@@ -2944,7 +2986,7 @@
         <v>567</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
@@ -2958,7 +3000,7 @@
         <v>727</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
@@ -2972,10 +3014,10 @@
         <v>295</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2988,7 +3030,7 @@
         <v>346</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
@@ -3002,7 +3044,7 @@
         <v>352</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
@@ -3016,7 +3058,7 @@
         <v>703</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
@@ -3027,13 +3069,13 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D65" s="3">
         <v>45004</v>
@@ -3048,7 +3090,7 @@
         <v>238</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
@@ -3062,7 +3104,7 @@
         <v>303</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
@@ -3076,7 +3118,7 @@
         <v>325</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
@@ -3090,7 +3132,7 @@
         <v>528</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
@@ -3104,7 +3146,7 @@
         <v>560</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
@@ -3115,13 +3157,13 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D71" s="3">
         <v>45005</v>
@@ -3136,7 +3178,7 @@
         <v>15</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
@@ -3150,7 +3192,7 @@
         <v>18</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
@@ -3164,7 +3206,7 @@
         <v>167</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
@@ -3178,7 +3220,7 @@
         <v>170</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
@@ -3192,7 +3234,7 @@
         <v>653</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
@@ -3206,7 +3248,7 @@
         <v>1099</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
@@ -3220,7 +3262,7 @@
         <v>259</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
@@ -3231,13 +3273,13 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D79" s="3">
         <v>45005</v>
@@ -3252,7 +3294,7 @@
         <v>102</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
@@ -3266,7 +3308,7 @@
         <v>103</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
@@ -3280,7 +3322,7 @@
         <v>107</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
@@ -3294,7 +3336,7 @@
         <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
@@ -3308,10 +3350,10 @@
         <v>207</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3324,7 +3366,7 @@
         <v>210</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
@@ -3338,7 +3380,7 @@
         <v>269</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
@@ -3352,7 +3394,7 @@
         <v>444</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
@@ -3363,13 +3405,13 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D88" s="3">
         <v>45005</v>
@@ -3386,7 +3428,7 @@
         <v>490</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
@@ -3400,7 +3442,7 @@
         <v>505</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
@@ -3414,7 +3456,7 @@
         <v>542</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
@@ -3428,7 +3470,7 @@
         <v>733</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
@@ -3442,7 +3484,7 @@
         <v>994</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
@@ -3456,7 +3498,7 @@
         <v>305</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
@@ -3470,7 +3512,7 @@
         <v>773</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
@@ -3481,13 +3523,13 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D96" s="3">
         <v>45005</v>
@@ -3502,7 +3544,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
@@ -3516,7 +3558,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
@@ -3530,7 +3572,7 @@
         <v>841</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
@@ -3544,7 +3586,7 @@
         <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
@@ -3558,7 +3600,7 @@
         <v>1306</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
@@ -3569,13 +3611,13 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D102" s="3">
         <v>45005</v>
@@ -3587,10 +3629,10 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="3">
@@ -3603,10 +3645,10 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="3">
@@ -3619,13 +3661,13 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D105" s="3">
         <v>45006</v>
@@ -3640,7 +3682,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
@@ -3654,7 +3696,7 @@
         <v>889</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
@@ -3665,13 +3707,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D108" s="3">
         <f>DATE(2023,3,21)</f>
@@ -3687,7 +3729,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
@@ -3701,7 +3743,7 @@
         <v>285</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
@@ -3715,7 +3757,7 @@
         <v>270</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
@@ -3729,7 +3771,7 @@
         <v>272</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
@@ -3743,7 +3785,7 @@
         <v>510</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
@@ -3757,10 +3799,10 @@
         <v>98</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3773,7 +3815,7 @@
         <v>100</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
@@ -3787,7 +3829,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
@@ -3801,7 +3843,7 @@
         <v>110</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
@@ -3815,10 +3857,10 @@
         <v>111</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -3831,7 +3873,7 @@
         <v>104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
@@ -3845,7 +3887,7 @@
         <v>333</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
@@ -3859,10 +3901,10 @@
         <v>112</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -3875,7 +3917,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
@@ -3889,7 +3931,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
@@ -3903,7 +3945,7 @@
         <v>298</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
@@ -3917,7 +3959,7 @@
         <v>549</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
@@ -3931,10 +3973,10 @@
         <v>236</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -3947,10 +3989,10 @@
         <v>199</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -3963,7 +4005,7 @@
         <v>513</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
@@ -3977,7 +4019,7 @@
         <v>331</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
@@ -3991,7 +4033,7 @@
         <v>449</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
@@ -4005,7 +4047,7 @@
         <v>114</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
@@ -4016,13 +4058,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D132" s="3">
         <v>45007</v>
@@ -4034,10 +4076,10 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="3">
@@ -4050,10 +4092,10 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="3">
@@ -4066,10 +4108,10 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="3">
@@ -4082,10 +4124,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="3">
@@ -4098,10 +4140,10 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="3">
@@ -4114,10 +4156,10 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="3">
@@ -4133,7 +4175,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
@@ -4147,7 +4189,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
@@ -4161,7 +4203,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
@@ -4175,7 +4217,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
@@ -4189,7 +4231,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
@@ -4203,7 +4245,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
@@ -4217,7 +4259,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
@@ -4231,7 +4273,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
@@ -4245,7 +4287,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
@@ -4259,7 +4301,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
@@ -4273,10 +4315,10 @@
         <v>113</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4289,7 +4331,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
@@ -4303,10 +4345,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4319,7 +4361,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
@@ -4333,7 +4375,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
@@ -4347,7 +4389,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
@@ -4361,7 +4403,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
@@ -4375,7 +4417,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
@@ -4389,10 +4431,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4405,7 +4447,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
@@ -4419,7 +4461,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
@@ -4433,7 +4475,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
@@ -4447,7 +4489,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
@@ -4461,10 +4503,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -4477,7 +4519,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
@@ -4491,7 +4533,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
@@ -4505,7 +4547,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
@@ -4519,7 +4561,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
@@ -4530,13 +4572,13 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D167" s="3">
         <v>45008</v>
@@ -4573,7 +4615,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
@@ -4587,7 +4629,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
@@ -4601,7 +4643,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
@@ -4629,7 +4671,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
@@ -4643,7 +4685,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
@@ -4671,7 +4713,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
@@ -4699,7 +4741,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
@@ -4713,7 +4755,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
@@ -4755,7 +4797,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
@@ -4794,13 +4836,13 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D185" s="3">
         <v>45008</v>
@@ -4815,7 +4857,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
@@ -4829,7 +4871,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
@@ -4843,7 +4885,7 @@
         <v>560</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
@@ -4857,7 +4899,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
@@ -4871,7 +4913,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
@@ -4882,13 +4924,13 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D191" s="3">
         <v>45009</v>
@@ -4903,7 +4945,7 @@
         <v>295</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
@@ -4931,7 +4973,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
@@ -4945,7 +4987,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
@@ -4959,7 +5001,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
@@ -4973,7 +5015,7 @@
         <v>480</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
@@ -4987,7 +5029,7 @@
         <v>703</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
@@ -5001,10 +5043,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D199" s="3">
         <v>45009</v>
@@ -5019,7 +5061,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
@@ -5033,7 +5075,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
@@ -5047,7 +5089,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
@@ -5061,7 +5103,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
@@ -5075,7 +5117,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
@@ -5089,7 +5131,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
@@ -5100,13 +5142,13 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D206" s="3">
         <v>45009</v>
@@ -5121,7 +5163,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
@@ -5135,7 +5177,7 @@
         <v>239</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
@@ -5149,7 +5191,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
@@ -5163,10 +5205,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -5179,7 +5221,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
@@ -5193,7 +5235,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
@@ -5212,7 +5254,7 @@
         <v>Number of Islands</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D213" s="3">
         <f>D88</f>
@@ -5253,7 +5295,7 @@
         <v>323</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
@@ -5267,10 +5309,10 @@
         <v>252</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -5283,7 +5325,7 @@
         <v>253</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="3"/>
@@ -5294,13 +5336,13 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="D218" s="3">
         <v>45010</v>
@@ -5315,7 +5357,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
@@ -5329,7 +5371,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
@@ -5343,7 +5385,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
@@ -5357,7 +5399,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
@@ -5368,13 +5410,13 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D223" s="3">
         <v>45010</v>
@@ -5386,10 +5428,10 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="3">
@@ -5405,7 +5447,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
@@ -5419,7 +5461,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
@@ -5433,7 +5475,7 @@
         <v>528</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="3"/>
@@ -5447,7 +5489,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
@@ -5461,7 +5503,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
@@ -5475,7 +5517,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
@@ -5489,10 +5531,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5505,10 +5547,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5521,7 +5563,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
@@ -5535,7 +5577,7 @@
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="3"/>
@@ -5549,7 +5591,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -5563,7 +5605,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -5574,10 +5616,10 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="3">
@@ -5593,7 +5635,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -5604,13 +5646,13 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D239" s="3">
         <v>45012</v>
@@ -5625,7 +5667,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5639,7 +5681,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5653,7 +5695,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5667,7 +5709,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5681,7 +5723,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5695,10 +5737,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5711,7 +5753,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5725,7 +5767,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5736,13 +5778,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D248" s="3">
         <v>45011</v>
@@ -5754,10 +5796,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3">
@@ -5770,10 +5812,10 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3">
@@ -5789,7 +5831,7 @@
         <v>85</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="3"/>
@@ -5800,10 +5842,10 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3">
@@ -5819,7 +5861,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5830,13 +5872,13 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D254" s="3">
         <v>45013</v>
@@ -5851,7 +5893,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -5865,7 +5907,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3"/>
@@ -5879,7 +5921,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -5893,10 +5935,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -5906,10 +5948,10 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3">
@@ -5925,7 +5967,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="3"/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="359">
   <si>
     <t>Question Number</t>
   </si>
@@ -319,16 +319,31 @@
     <t>多指针：滑动窗口</t>
   </si>
   <si>
+    <t>11(Medium)</t>
+  </si>
+  <si>
     <t>Container With Most Water</t>
   </si>
   <si>
+    <t>76(Hard)</t>
+  </si>
+  <si>
     <t>Minimum Window Substring</t>
   </si>
   <si>
+    <t>209(Medium)</t>
+  </si>
+  <si>
     <t>Minimum Size Subarray Sum</t>
   </si>
   <si>
+    <t>239(Hard)</t>
+  </si>
+  <si>
     <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>713(Medium)</t>
   </si>
   <si>
     <t>Subarray Product Less Than K</t>
@@ -1084,10 +1099,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1119,72 +1134,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1205,7 +1159,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1227,7 +1217,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1236,6 +1242,22 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1255,13 +1277,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1272,19 +1287,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,25 +1353,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1338,37 +1383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,25 +1401,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,43 +1461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,6 +1478,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1493,8 +1523,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1514,17 +1544,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1536,15 +1560,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1568,121 +1583,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1691,25 +1706,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2059,8 +2074,8 @@
   <sheetPr/>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -2884,70 +2899,80 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52">
-        <v>11</v>
+      <c r="A52" t="s">
+        <v>101</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="3"/>
+      <c r="D52" s="3">
+        <v>45017</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53">
-        <v>76</v>
+      <c r="A53" t="s">
+        <v>103</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="3"/>
+      <c r="D53" s="3">
+        <v>45017</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54">
-        <v>209</v>
+      <c r="A54" t="s">
+        <v>105</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="3"/>
+      <c r="D54" s="3">
+        <v>45017</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55">
-        <v>239</v>
+      <c r="A55" t="s">
+        <v>107</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="3"/>
+      <c r="D55" s="3">
+        <v>45017</v>
+      </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56">
-        <v>713</v>
+      <c r="A56" t="s">
+        <v>109</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="3"/>
+      <c r="D56" s="3">
+        <v>45017</v>
+      </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -2958,7 +2983,7 @@
         <v>395</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
@@ -2972,7 +2997,7 @@
         <v>480</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
@@ -2986,7 +3011,7 @@
         <v>567</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
@@ -3000,7 +3025,7 @@
         <v>727</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
@@ -3014,10 +3039,10 @@
         <v>295</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3030,7 +3055,7 @@
         <v>346</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
@@ -3044,7 +3069,7 @@
         <v>352</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
@@ -3058,7 +3083,7 @@
         <v>703</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
@@ -3069,13 +3094,13 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D65" s="3">
         <v>45004</v>
@@ -3090,7 +3115,7 @@
         <v>238</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
@@ -3104,7 +3129,7 @@
         <v>303</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
@@ -3118,7 +3143,7 @@
         <v>325</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
@@ -3132,7 +3157,7 @@
         <v>528</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
@@ -3146,7 +3171,7 @@
         <v>560</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
@@ -3157,13 +3182,13 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D71" s="3">
         <v>45005</v>
@@ -3178,7 +3203,7 @@
         <v>15</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
@@ -3192,7 +3217,7 @@
         <v>18</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
@@ -3206,7 +3231,7 @@
         <v>167</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
@@ -3220,7 +3245,7 @@
         <v>170</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
@@ -3234,7 +3259,7 @@
         <v>653</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
@@ -3248,7 +3273,7 @@
         <v>1099</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
@@ -3262,7 +3287,7 @@
         <v>259</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
@@ -3273,13 +3298,13 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D79" s="3">
         <v>45005</v>
@@ -3294,7 +3319,7 @@
         <v>102</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
@@ -3308,7 +3333,7 @@
         <v>103</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
@@ -3322,7 +3347,7 @@
         <v>107</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
@@ -3336,7 +3361,7 @@
         <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
@@ -3350,10 +3375,10 @@
         <v>207</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3366,7 +3391,7 @@
         <v>210</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
@@ -3380,7 +3405,7 @@
         <v>269</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
@@ -3394,7 +3419,7 @@
         <v>444</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
@@ -3405,13 +3430,13 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D88" s="3">
         <v>45005</v>
@@ -3428,7 +3453,7 @@
         <v>490</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
@@ -3442,7 +3467,7 @@
         <v>505</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
@@ -3456,7 +3481,7 @@
         <v>542</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
@@ -3470,7 +3495,7 @@
         <v>733</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
@@ -3484,7 +3509,7 @@
         <v>994</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
@@ -3498,7 +3523,7 @@
         <v>305</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
@@ -3512,7 +3537,7 @@
         <v>773</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
@@ -3523,13 +3548,13 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D96" s="3">
         <v>45005</v>
@@ -3544,7 +3569,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
@@ -3558,7 +3583,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
@@ -3572,7 +3597,7 @@
         <v>841</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
@@ -3586,7 +3611,7 @@
         <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
@@ -3600,7 +3625,7 @@
         <v>1306</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
@@ -3611,13 +3636,13 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D102" s="3">
         <v>45005</v>
@@ -3629,10 +3654,10 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="3">
@@ -3645,10 +3670,10 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="3">
@@ -3661,13 +3686,13 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D105" s="3">
         <v>45006</v>
@@ -3682,7 +3707,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
@@ -3696,7 +3721,7 @@
         <v>889</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
@@ -3707,13 +3732,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D108" s="3">
         <f>DATE(2023,3,21)</f>
@@ -3729,7 +3754,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
@@ -3743,7 +3768,7 @@
         <v>285</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
@@ -3757,7 +3782,7 @@
         <v>270</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
@@ -3771,7 +3796,7 @@
         <v>272</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
@@ -3785,7 +3810,7 @@
         <v>510</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
@@ -3799,10 +3824,10 @@
         <v>98</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3815,7 +3840,7 @@
         <v>100</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
@@ -3829,7 +3854,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
@@ -3843,7 +3868,7 @@
         <v>110</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
@@ -3857,10 +3882,10 @@
         <v>111</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -3873,7 +3898,7 @@
         <v>104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
@@ -3887,7 +3912,7 @@
         <v>333</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
@@ -3901,10 +3926,10 @@
         <v>112</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -3917,7 +3942,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
@@ -3931,7 +3956,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
@@ -3945,7 +3970,7 @@
         <v>298</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
@@ -3959,7 +3984,7 @@
         <v>549</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
@@ -3973,10 +3998,10 @@
         <v>236</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -3989,10 +4014,10 @@
         <v>199</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -4005,7 +4030,7 @@
         <v>513</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
@@ -4019,7 +4044,7 @@
         <v>331</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
@@ -4033,7 +4058,7 @@
         <v>449</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
@@ -4047,7 +4072,7 @@
         <v>114</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
@@ -4058,13 +4083,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D132" s="3">
         <v>45007</v>
@@ -4076,10 +4101,10 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="3">
@@ -4092,10 +4117,10 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="3">
@@ -4108,10 +4133,10 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="3">
@@ -4124,10 +4149,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="3">
@@ -4140,10 +4165,10 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="3">
@@ -4156,10 +4181,10 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="3">
@@ -4175,7 +4200,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
@@ -4189,7 +4214,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
@@ -4203,7 +4228,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
@@ -4217,7 +4242,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
@@ -4231,7 +4256,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
@@ -4245,7 +4270,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
@@ -4259,7 +4284,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
@@ -4273,7 +4298,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
@@ -4287,7 +4312,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
@@ -4301,7 +4326,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
@@ -4315,10 +4340,10 @@
         <v>113</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4331,7 +4356,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
@@ -4345,10 +4370,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4361,7 +4386,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
@@ -4375,7 +4400,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
@@ -4389,7 +4414,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
@@ -4403,7 +4428,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
@@ -4417,7 +4442,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
@@ -4431,10 +4456,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4447,7 +4472,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
@@ -4461,7 +4486,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
@@ -4475,7 +4500,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
@@ -4489,7 +4514,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
@@ -4503,10 +4528,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -4519,7 +4544,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
@@ -4533,7 +4558,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
@@ -4547,7 +4572,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
@@ -4561,7 +4586,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
@@ -4572,13 +4597,13 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D167" s="3">
         <v>45008</v>
@@ -4615,7 +4640,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
@@ -4629,7 +4654,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
@@ -4643,7 +4668,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
@@ -4671,7 +4696,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
@@ -4685,7 +4710,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
@@ -4713,7 +4738,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
@@ -4741,7 +4766,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
@@ -4755,7 +4780,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
@@ -4797,7 +4822,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
@@ -4836,13 +4861,13 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D185" s="3">
         <v>45008</v>
@@ -4857,7 +4882,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
@@ -4871,7 +4896,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
@@ -4885,7 +4910,7 @@
         <v>560</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
@@ -4899,7 +4924,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
@@ -4913,7 +4938,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
@@ -4924,13 +4949,13 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D191" s="3">
         <v>45009</v>
@@ -4945,7 +4970,7 @@
         <v>295</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
@@ -4973,7 +4998,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
@@ -4987,7 +5012,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
@@ -5001,7 +5026,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
@@ -5015,7 +5040,7 @@
         <v>480</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
@@ -5029,7 +5054,7 @@
         <v>703</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
@@ -5043,10 +5068,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D199" s="3">
         <v>45009</v>
@@ -5061,7 +5086,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
@@ -5075,7 +5100,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
@@ -5089,7 +5114,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
@@ -5103,7 +5128,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
@@ -5117,7 +5142,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
@@ -5131,7 +5156,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
@@ -5142,13 +5167,13 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D206" s="3">
         <v>45009</v>
@@ -5163,7 +5188,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
@@ -5177,7 +5202,7 @@
         <v>239</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
@@ -5191,7 +5216,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
@@ -5205,10 +5230,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -5221,7 +5246,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
@@ -5235,7 +5260,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
@@ -5254,7 +5279,7 @@
         <v>Number of Islands</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D213" s="3">
         <f>D88</f>
@@ -5295,7 +5320,7 @@
         <v>323</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
@@ -5312,7 +5337,7 @@
         <v>85</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -5336,13 +5361,13 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D218" s="3">
         <v>45010</v>
@@ -5357,7 +5382,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
@@ -5371,7 +5396,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
@@ -5385,7 +5410,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
@@ -5399,7 +5424,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
@@ -5410,13 +5435,13 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D223" s="3">
         <v>45010</v>
@@ -5428,10 +5453,10 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="3">
@@ -5447,7 +5472,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
@@ -5461,7 +5486,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
@@ -5475,7 +5500,7 @@
         <v>528</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="3"/>
@@ -5489,7 +5514,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
@@ -5503,7 +5528,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
@@ -5517,7 +5542,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
@@ -5531,10 +5556,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5547,10 +5572,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5563,7 +5588,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
@@ -5577,7 +5602,7 @@
         <v>122</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="3"/>
@@ -5591,7 +5616,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -5605,7 +5630,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -5616,10 +5641,10 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="3">
@@ -5635,7 +5660,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -5646,13 +5671,13 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D239" s="3">
         <v>45012</v>
@@ -5667,7 +5692,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5681,7 +5706,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5695,7 +5720,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5709,7 +5734,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5723,7 +5748,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5737,10 +5762,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5753,7 +5778,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5767,7 +5792,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5778,13 +5803,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D248" s="3">
         <v>45011</v>
@@ -5796,10 +5821,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3">
@@ -5812,10 +5837,10 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3">
@@ -5831,7 +5856,7 @@
         <v>85</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="3"/>
@@ -5842,10 +5867,10 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3">
@@ -5861,7 +5886,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5872,13 +5897,13 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D254" s="3">
         <v>45013</v>
@@ -5893,7 +5918,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -5907,7 +5932,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3"/>
@@ -5921,7 +5946,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -5935,10 +5960,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -5948,10 +5973,10 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3">
@@ -5967,7 +5992,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="3"/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11520"/>
+    <workbookView windowWidth="28800" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="361">
   <si>
     <t>Question Number</t>
   </si>
@@ -976,6 +976,9 @@
     <t>Best Time to Buy and Sell Stock</t>
   </si>
   <si>
+    <t>122(Medium)</t>
+  </si>
+  <si>
     <t>Best Time to Buy and Sell Stock II</t>
   </si>
   <si>
@@ -1070,6 +1073,9 @@
   </si>
   <si>
     <t>Palindrome Partitioning II</t>
+  </si>
+  <si>
+    <t>279(Medium)</t>
   </si>
   <si>
     <t>Perfect Squares</t>
@@ -1099,9 +1105,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
@@ -1144,7 +1150,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1159,9 +1165,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1174,7 +1196,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,13 +1217,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1202,10 +1224,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1216,8 +1238,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1225,15 +1248,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1247,11 +1262,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1263,16 +1277,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1287,7 +1293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,19 +1305,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,121 +1335,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,7 +1359,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1467,7 +1461,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,21 +1484,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1523,8 +1514,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1547,8 +1553,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1565,16 +1571,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1583,139 +1589,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2074,8 +2080,8 @@
   <sheetPr/>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="D256" sqref="D256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -5598,14 +5604,16 @@
       <c r="H233" s="3"/>
     </row>
     <row r="234" spans="1:8">
-      <c r="A234">
-        <v>122</v>
+      <c r="A234" t="s">
+        <v>320</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C234" s="2"/>
-      <c r="D234" s="3"/>
+      <c r="D234" s="3">
+        <v>45017</v>
+      </c>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
@@ -5616,7 +5624,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -5630,7 +5638,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -5641,10 +5649,10 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="3">
@@ -5660,7 +5668,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -5671,13 +5679,13 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D239" s="3">
         <v>45012</v>
@@ -5692,7 +5700,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5706,7 +5714,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5720,7 +5728,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5734,7 +5742,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5748,7 +5756,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5762,10 +5770,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5778,7 +5786,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5792,7 +5800,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5803,13 +5811,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D248" s="3">
         <v>45011</v>
@@ -5821,10 +5829,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3">
@@ -5837,10 +5845,10 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3">
@@ -5867,10 +5875,10 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3">
@@ -5886,7 +5894,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5897,13 +5905,13 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D254" s="3">
         <v>45013</v>
@@ -5918,7 +5926,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -5928,14 +5936,16 @@
       <c r="H255" s="3"/>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256">
-        <v>279</v>
+      <c r="A256" t="s">
+        <v>353</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C256" s="2"/>
-      <c r="D256" s="3"/>
+      <c r="D256" s="3">
+        <v>45017</v>
+      </c>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
@@ -5946,7 +5956,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -5960,10 +5970,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -5973,10 +5983,10 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3">
@@ -5992,7 +6002,7 @@
         <v>763</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="3"/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11540"/>
+    <workbookView windowWidth="28800" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="365">
   <si>
     <t>Question Number</t>
   </si>
@@ -361,6 +361,9 @@
     <t>Minimum Window Subsequence</t>
   </si>
   <si>
+    <t>295(Hard)</t>
+  </si>
+  <si>
     <t>Find Median from Data Stream</t>
   </si>
   <si>
@@ -1054,6 +1057,9 @@
     <t>Minimum Path Sum</t>
   </si>
   <si>
+    <t>85(Hard)</t>
+  </si>
+  <si>
     <t>221(Medium)</t>
   </si>
   <si>
@@ -1084,6 +1090,9 @@
     <t>Decode Ways II</t>
   </si>
   <si>
+    <t>55(Medium)</t>
+  </si>
+  <si>
     <t>Jump Game</t>
   </si>
   <si>
@@ -1094,6 +1103,9 @@
   </si>
   <si>
     <t>Jump Game II</t>
+  </si>
+  <si>
+    <t>763(Medium)</t>
   </si>
   <si>
     <t>Partition Labels</t>
@@ -1104,10 +1116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
@@ -1149,8 +1161,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1171,66 +1206,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1241,6 +1216,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1263,22 +1246,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1293,25 +1305,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,73 +1329,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,13 +1341,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1425,7 +1359,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,43 +1467,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1484,21 +1496,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1521,21 +1518,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1546,26 +1528,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1584,147 +1546,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1744,7 +1756,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1753,7 +1765,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2080,8 +2092,8 @@
   <sheetPr/>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="D256" sqref="D256"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -3041,16 +3053,18 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61">
-        <v>295</v>
+      <c r="A61" t="s">
+        <v>115</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D61" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="D61" s="3">
+        <v>45017</v>
+      </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -3061,7 +3075,7 @@
         <v>346</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
@@ -3075,7 +3089,7 @@
         <v>352</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
@@ -3089,7 +3103,7 @@
         <v>703</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
@@ -3100,13 +3114,13 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D65" s="3">
         <v>45004</v>
@@ -3121,7 +3135,7 @@
         <v>238</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
@@ -3135,7 +3149,7 @@
         <v>303</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
@@ -3149,7 +3163,7 @@
         <v>325</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
@@ -3163,7 +3177,7 @@
         <v>528</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
@@ -3177,7 +3191,7 @@
         <v>560</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
@@ -3188,13 +3202,13 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D71" s="3">
         <v>45005</v>
@@ -3209,7 +3223,7 @@
         <v>15</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
@@ -3223,7 +3237,7 @@
         <v>18</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
@@ -3237,7 +3251,7 @@
         <v>167</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
@@ -3251,7 +3265,7 @@
         <v>170</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
@@ -3265,7 +3279,7 @@
         <v>653</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
@@ -3279,7 +3293,7 @@
         <v>1099</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
@@ -3293,7 +3307,7 @@
         <v>259</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
@@ -3304,13 +3318,13 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D79" s="3">
         <v>45005</v>
@@ -3325,7 +3339,7 @@
         <v>102</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
@@ -3339,7 +3353,7 @@
         <v>103</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
@@ -3353,7 +3367,7 @@
         <v>107</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
@@ -3367,7 +3381,7 @@
         <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
@@ -3381,10 +3395,10 @@
         <v>207</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3397,7 +3411,7 @@
         <v>210</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
@@ -3411,7 +3425,7 @@
         <v>269</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
@@ -3425,7 +3439,7 @@
         <v>444</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
@@ -3436,13 +3450,13 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D88" s="3">
         <v>45005</v>
@@ -3459,7 +3473,7 @@
         <v>490</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
@@ -3473,7 +3487,7 @@
         <v>505</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
@@ -3487,7 +3501,7 @@
         <v>542</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
@@ -3501,7 +3515,7 @@
         <v>733</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
@@ -3515,7 +3529,7 @@
         <v>994</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
@@ -3529,7 +3543,7 @@
         <v>305</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
@@ -3543,7 +3557,7 @@
         <v>773</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
@@ -3554,13 +3568,13 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D96" s="3">
         <v>45005</v>
@@ -3575,7 +3589,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
@@ -3589,7 +3603,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
@@ -3603,7 +3617,7 @@
         <v>841</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
@@ -3617,7 +3631,7 @@
         <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
@@ -3631,7 +3645,7 @@
         <v>1306</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
@@ -3642,13 +3656,13 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D102" s="3">
         <v>45005</v>
@@ -3660,10 +3674,10 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="3">
@@ -3676,10 +3690,10 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="3">
@@ -3692,13 +3706,13 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D105" s="3">
         <v>45006</v>
@@ -3713,7 +3727,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
@@ -3727,7 +3741,7 @@
         <v>889</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
@@ -3738,13 +3752,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D108" s="3">
         <f>DATE(2023,3,21)</f>
@@ -3760,7 +3774,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
@@ -3774,7 +3788,7 @@
         <v>285</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
@@ -3788,7 +3802,7 @@
         <v>270</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
@@ -3802,7 +3816,7 @@
         <v>272</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
@@ -3816,7 +3830,7 @@
         <v>510</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
@@ -3830,10 +3844,10 @@
         <v>98</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3846,7 +3860,7 @@
         <v>100</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
@@ -3860,7 +3874,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
@@ -3874,7 +3888,7 @@
         <v>110</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
@@ -3888,10 +3902,10 @@
         <v>111</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -3904,7 +3918,7 @@
         <v>104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
@@ -3918,7 +3932,7 @@
         <v>333</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
@@ -3932,10 +3946,10 @@
         <v>112</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -3948,7 +3962,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
@@ -3962,7 +3976,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
@@ -3976,7 +3990,7 @@
         <v>298</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
@@ -3990,7 +4004,7 @@
         <v>549</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
@@ -4004,10 +4018,10 @@
         <v>236</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -4020,10 +4034,10 @@
         <v>199</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -4036,7 +4050,7 @@
         <v>513</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
@@ -4050,7 +4064,7 @@
         <v>331</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
@@ -4064,7 +4078,7 @@
         <v>449</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
@@ -4078,7 +4092,7 @@
         <v>114</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
@@ -4089,13 +4103,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D132" s="3">
         <v>45007</v>
@@ -4107,10 +4121,10 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="3">
@@ -4123,10 +4137,10 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="3">
@@ -4139,10 +4153,10 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="3">
@@ -4155,10 +4169,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="3">
@@ -4171,10 +4185,10 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="3">
@@ -4187,10 +4201,10 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="3">
@@ -4206,7 +4220,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
@@ -4220,7 +4234,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
@@ -4234,7 +4248,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
@@ -4248,7 +4262,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
@@ -4262,7 +4276,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
@@ -4276,7 +4290,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
@@ -4290,7 +4304,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
@@ -4304,7 +4318,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
@@ -4318,7 +4332,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
@@ -4332,7 +4346,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
@@ -4346,10 +4360,10 @@
         <v>113</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4362,7 +4376,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
@@ -4376,10 +4390,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4392,7 +4406,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
@@ -4406,7 +4420,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
@@ -4420,7 +4434,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
@@ -4434,7 +4448,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
@@ -4448,7 +4462,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
@@ -4462,10 +4476,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4478,7 +4492,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
@@ -4492,7 +4506,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
@@ -4506,7 +4520,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
@@ -4520,7 +4534,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
@@ -4534,10 +4548,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -4550,7 +4564,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
@@ -4564,7 +4578,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
@@ -4578,7 +4592,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
@@ -4592,7 +4606,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
@@ -4603,13 +4617,13 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D167" s="3">
         <v>45008</v>
@@ -4646,7 +4660,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
@@ -4660,7 +4674,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
@@ -4674,7 +4688,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
@@ -4702,7 +4716,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
@@ -4716,7 +4730,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
@@ -4744,7 +4758,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
@@ -4772,7 +4786,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
@@ -4786,7 +4800,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
@@ -4828,7 +4842,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
@@ -4867,13 +4881,13 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D185" s="3">
         <v>45008</v>
@@ -4888,7 +4902,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
@@ -4902,7 +4916,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
@@ -4916,7 +4930,7 @@
         <v>560</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
@@ -4930,7 +4944,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
@@ -4944,7 +4958,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
@@ -4955,13 +4969,13 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D191" s="3">
         <v>45009</v>
@@ -4976,7 +4990,7 @@
         <v>295</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
@@ -5004,7 +5018,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
@@ -5018,7 +5032,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
@@ -5032,7 +5046,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
@@ -5060,7 +5074,7 @@
         <v>703</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
@@ -5074,10 +5088,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D199" s="3">
         <v>45009</v>
@@ -5092,7 +5106,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
@@ -5106,7 +5120,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
@@ -5120,7 +5134,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
@@ -5134,7 +5148,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
@@ -5148,7 +5162,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
@@ -5162,7 +5176,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
@@ -5173,13 +5187,13 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D206" s="3">
         <v>45009</v>
@@ -5194,7 +5208,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
@@ -5222,7 +5236,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
@@ -5236,10 +5250,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -5252,7 +5266,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
@@ -5266,7 +5280,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
@@ -5285,7 +5299,7 @@
         <v>Number of Islands</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D213" s="3">
         <f>D88</f>
@@ -5326,7 +5340,7 @@
         <v>323</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
@@ -5343,7 +5357,7 @@
         <v>85</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -5367,13 +5381,13 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D218" s="3">
         <v>45010</v>
@@ -5388,7 +5402,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
@@ -5402,7 +5416,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
@@ -5416,7 +5430,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
@@ -5430,7 +5444,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
@@ -5441,13 +5455,13 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D223" s="3">
         <v>45010</v>
@@ -5459,10 +5473,10 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="3">
@@ -5478,7 +5492,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
@@ -5492,7 +5506,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
@@ -5506,7 +5520,7 @@
         <v>528</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="3"/>
@@ -5520,7 +5534,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
@@ -5534,7 +5548,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
@@ -5548,7 +5562,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
@@ -5562,10 +5576,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5578,10 +5592,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5594,7 +5608,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
@@ -5605,10 +5619,10 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="3">
@@ -5624,7 +5638,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -5638,7 +5652,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -5649,10 +5663,10 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="3">
@@ -5668,7 +5682,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -5679,13 +5693,13 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D239" s="3">
         <v>45012</v>
@@ -5700,7 +5714,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5714,7 +5728,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5728,7 +5742,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5742,7 +5756,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5756,7 +5770,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5770,10 +5784,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5786,7 +5800,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5800,7 +5814,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5811,13 +5825,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D248" s="3">
         <v>45011</v>
@@ -5829,10 +5843,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3">
@@ -5845,10 +5859,10 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3">
@@ -5860,14 +5874,16 @@
       <c r="H250" s="3"/>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251">
-        <v>85</v>
+      <c r="A251" t="s">
+        <v>347</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C251" s="2"/>
-      <c r="D251" s="3"/>
+      <c r="D251" s="3">
+        <v>45017</v>
+      </c>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
@@ -5875,10 +5891,10 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3">
@@ -5894,7 +5910,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5905,13 +5921,13 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D254" s="3">
         <v>45013</v>
@@ -5926,7 +5942,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -5937,10 +5953,10 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3">
@@ -5956,7 +5972,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -5966,16 +5982,18 @@
       <c r="H257" s="3"/>
     </row>
     <row r="258" spans="1:8">
-      <c r="A258">
-        <v>55</v>
+      <c r="A258" t="s">
+        <v>358</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D258" s="3"/>
+        <v>360</v>
+      </c>
+      <c r="D258" s="3">
+        <v>45017</v>
+      </c>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
@@ -5983,10 +6001,10 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3">
@@ -5998,14 +6016,16 @@
       <c r="H259" s="3"/>
     </row>
     <row r="260" spans="1:8">
-      <c r="A260">
-        <v>763</v>
+      <c r="A260" t="s">
+        <v>363</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C260" s="2"/>
-      <c r="D260" s="3"/>
+      <c r="D260" s="3">
+        <v>45017</v>
+      </c>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11500"/>
+    <workbookView windowWidth="28800" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="370">
   <si>
     <t>Question Number</t>
   </si>
@@ -388,9 +388,15 @@
     <t>多指针：前项和</t>
   </si>
   <si>
+    <t>238(Medium)</t>
+  </si>
+  <si>
     <t>Product of Array Except Self</t>
   </si>
   <si>
+    <t>303(Easy)</t>
+  </si>
+  <si>
     <t>Range Sum Query - Immutable</t>
   </si>
   <si>
@@ -412,10 +418,19 @@
     <t>多指针：和差问题</t>
   </si>
   <si>
+    <t>15(Medium)</t>
+  </si>
+  <si>
     <t>3Sum</t>
   </si>
   <si>
+    <t>18(Medium)</t>
+  </si>
+  <si>
     <t>4Sum</t>
+  </si>
+  <si>
+    <t>167(Medium)</t>
   </si>
   <si>
     <t>Two Sum II - Input array is sorted</t>
@@ -1116,11 +1131,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1152,24 +1167,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1177,6 +1183,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1191,8 +1205,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1200,14 +1215,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1231,6 +1254,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1246,51 +1298,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1305,19 +1320,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,31 +1356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,25 +1368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,43 +1386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,7 +1416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,7 +1434,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1473,19 +1470,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1508,11 +1523,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1558,21 +1594,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1582,17 +1603,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1601,148 +1616,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2092,8 +2107,8 @@
   <sheetPr/>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -3131,28 +3146,32 @@
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66">
-        <v>238</v>
+      <c r="A66" t="s">
+        <v>124</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="D66" s="3"/>
+      <c r="D66" s="3">
+        <v>45019</v>
+      </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67">
-        <v>303</v>
+      <c r="A67" t="s">
+        <v>126</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="3"/>
+      <c r="D67" s="3">
+        <v>45019</v>
+      </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -3163,7 +3182,7 @@
         <v>325</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
@@ -3177,7 +3196,7 @@
         <v>528</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
@@ -3191,7 +3210,7 @@
         <v>560</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
@@ -3202,13 +3221,13 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D71" s="3">
         <v>45005</v>
@@ -3219,42 +3238,48 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72">
-        <v>15</v>
+      <c r="A72" t="s">
+        <v>134</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="3"/>
+      <c r="D72" s="3">
+        <v>45019</v>
+      </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73">
-        <v>18</v>
+      <c r="A73" t="s">
+        <v>136</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C73" s="2"/>
-      <c r="D73" s="3"/>
+      <c r="D73" s="3">
+        <v>45019</v>
+      </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74">
-        <v>167</v>
+      <c r="A74" t="s">
+        <v>138</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" s="3"/>
+      <c r="D74" s="3">
+        <v>45019</v>
+      </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -3265,7 +3290,7 @@
         <v>170</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
@@ -3279,7 +3304,7 @@
         <v>653</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
@@ -3293,7 +3318,7 @@
         <v>1099</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
@@ -3307,7 +3332,7 @@
         <v>259</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
@@ -3318,13 +3343,13 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D79" s="3">
         <v>45005</v>
@@ -3339,7 +3364,7 @@
         <v>102</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
@@ -3353,7 +3378,7 @@
         <v>103</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
@@ -3367,7 +3392,7 @@
         <v>107</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
@@ -3381,7 +3406,7 @@
         <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
@@ -3395,10 +3420,10 @@
         <v>207</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3411,7 +3436,7 @@
         <v>210</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
@@ -3425,7 +3450,7 @@
         <v>269</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
@@ -3439,7 +3464,7 @@
         <v>444</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
@@ -3450,13 +3475,13 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D88" s="3">
         <v>45005</v>
@@ -3473,7 +3498,7 @@
         <v>490</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
@@ -3487,7 +3512,7 @@
         <v>505</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
@@ -3501,7 +3526,7 @@
         <v>542</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
@@ -3515,7 +3540,7 @@
         <v>733</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
@@ -3529,7 +3554,7 @@
         <v>994</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
@@ -3543,7 +3568,7 @@
         <v>305</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
@@ -3557,7 +3582,7 @@
         <v>773</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
@@ -3568,13 +3593,13 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D96" s="3">
         <v>45005</v>
@@ -3589,7 +3614,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
@@ -3603,7 +3628,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
@@ -3617,7 +3642,7 @@
         <v>841</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
@@ -3631,7 +3656,7 @@
         <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
@@ -3645,7 +3670,7 @@
         <v>1306</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
@@ -3656,13 +3681,13 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D102" s="3">
         <v>45005</v>
@@ -3674,10 +3699,10 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="3">
@@ -3690,10 +3715,10 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="3">
@@ -3706,13 +3731,13 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D105" s="3">
         <v>45006</v>
@@ -3727,7 +3752,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
@@ -3741,7 +3766,7 @@
         <v>889</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
@@ -3752,13 +3777,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D108" s="3">
         <f>DATE(2023,3,21)</f>
@@ -3774,7 +3799,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
@@ -3788,7 +3813,7 @@
         <v>285</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
@@ -3802,7 +3827,7 @@
         <v>270</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
@@ -3816,7 +3841,7 @@
         <v>272</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
@@ -3830,7 +3855,7 @@
         <v>510</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
@@ -3844,10 +3869,10 @@
         <v>98</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3860,7 +3885,7 @@
         <v>100</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
@@ -3874,7 +3899,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
@@ -3888,7 +3913,7 @@
         <v>110</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
@@ -3902,10 +3927,10 @@
         <v>111</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -3918,7 +3943,7 @@
         <v>104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
@@ -3932,7 +3957,7 @@
         <v>333</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
@@ -3946,10 +3971,10 @@
         <v>112</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -3962,7 +3987,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
@@ -3976,7 +4001,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
@@ -3990,7 +4015,7 @@
         <v>298</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
@@ -4004,7 +4029,7 @@
         <v>549</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
@@ -4018,10 +4043,10 @@
         <v>236</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -4034,10 +4059,10 @@
         <v>199</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -4050,7 +4075,7 @@
         <v>513</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
@@ -4064,7 +4089,7 @@
         <v>331</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
@@ -4078,7 +4103,7 @@
         <v>449</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
@@ -4092,7 +4117,7 @@
         <v>114</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
@@ -4103,13 +4128,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D132" s="3">
         <v>45007</v>
@@ -4121,10 +4146,10 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="3">
@@ -4137,10 +4162,10 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="3">
@@ -4153,10 +4178,10 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="3">
@@ -4169,10 +4194,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="3">
@@ -4185,10 +4210,10 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="3">
@@ -4201,10 +4226,10 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="3">
@@ -4220,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
@@ -4234,7 +4259,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
@@ -4248,7 +4273,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
@@ -4262,7 +4287,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
@@ -4276,7 +4301,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
@@ -4290,7 +4315,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
@@ -4304,7 +4329,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
@@ -4318,7 +4343,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
@@ -4332,7 +4357,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
@@ -4346,7 +4371,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
@@ -4360,10 +4385,10 @@
         <v>113</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4376,7 +4401,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
@@ -4390,10 +4415,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4406,7 +4431,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
@@ -4420,7 +4445,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
@@ -4434,7 +4459,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
@@ -4448,7 +4473,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
@@ -4462,7 +4487,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
@@ -4476,10 +4501,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4492,7 +4517,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
@@ -4506,7 +4531,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
@@ -4520,7 +4545,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
@@ -4534,7 +4559,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
@@ -4548,10 +4573,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -4564,7 +4589,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
@@ -4578,7 +4603,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
@@ -4592,7 +4617,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
@@ -4606,7 +4631,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
@@ -4617,13 +4642,13 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D167" s="3">
         <v>45008</v>
@@ -4660,7 +4685,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
@@ -4674,7 +4699,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
@@ -4688,7 +4713,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
@@ -4716,7 +4741,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
@@ -4730,7 +4755,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
@@ -4758,7 +4783,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
@@ -4786,7 +4811,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
@@ -4800,7 +4825,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
@@ -4842,7 +4867,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
@@ -4881,13 +4906,13 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D185" s="3">
         <v>45008</v>
@@ -4902,7 +4927,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
@@ -4916,7 +4941,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
@@ -4930,7 +4955,7 @@
         <v>560</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
@@ -4944,7 +4969,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
@@ -4958,7 +4983,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
@@ -4969,13 +4994,13 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D191" s="3">
         <v>45009</v>
@@ -5018,7 +5043,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
@@ -5032,7 +5057,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
@@ -5046,7 +5071,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
@@ -5088,10 +5113,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D199" s="3">
         <v>45009</v>
@@ -5106,7 +5131,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
@@ -5120,7 +5145,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
@@ -5134,7 +5159,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
@@ -5148,7 +5173,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
@@ -5162,7 +5187,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
@@ -5176,7 +5201,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
@@ -5187,13 +5212,13 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D206" s="3">
         <v>45009</v>
@@ -5208,7 +5233,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
@@ -5236,7 +5261,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
@@ -5250,10 +5275,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -5266,7 +5291,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
@@ -5280,7 +5305,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
@@ -5299,7 +5324,7 @@
         <v>Number of Islands</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D213" s="3">
         <f>D88</f>
@@ -5340,7 +5365,7 @@
         <v>323</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
@@ -5357,7 +5382,7 @@
         <v>85</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -5381,13 +5406,13 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D218" s="3">
         <v>45010</v>
@@ -5402,7 +5427,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
@@ -5416,7 +5441,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
@@ -5430,7 +5455,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
@@ -5444,7 +5469,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
@@ -5455,13 +5480,13 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D223" s="3">
         <v>45010</v>
@@ -5473,10 +5498,10 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="3">
@@ -5492,7 +5517,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
@@ -5506,7 +5531,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
@@ -5520,7 +5545,7 @@
         <v>528</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="3"/>
@@ -5534,7 +5559,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
@@ -5548,7 +5573,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
@@ -5562,7 +5587,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
@@ -5576,10 +5601,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5592,10 +5617,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5608,7 +5633,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
@@ -5619,10 +5644,10 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="3">
@@ -5638,7 +5663,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -5652,7 +5677,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -5663,10 +5688,10 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="3">
@@ -5682,7 +5707,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -5693,13 +5718,13 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D239" s="3">
         <v>45012</v>
@@ -5714,7 +5739,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5728,7 +5753,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5742,7 +5767,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5756,7 +5781,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5770,7 +5795,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5784,10 +5809,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5800,7 +5825,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5814,7 +5839,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5825,13 +5850,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D248" s="3">
         <v>45011</v>
@@ -5843,10 +5868,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3">
@@ -5859,10 +5884,10 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3">
@@ -5875,10 +5900,10 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="3">
@@ -5891,10 +5916,10 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3">
@@ -5910,7 +5935,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5921,13 +5946,13 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D254" s="3">
         <v>45013</v>
@@ -5942,7 +5967,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -5953,10 +5978,10 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3">
@@ -5972,7 +5997,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -5983,13 +6008,13 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D258" s="3">
         <v>45017</v>
@@ -6001,10 +6026,10 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3">
@@ -6017,10 +6042,10 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="3">

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11540"/>
+    <workbookView windowWidth="28800" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="372">
   <si>
     <t>Question Number</t>
   </si>
@@ -400,7 +400,13 @@
     <t>Range Sum Query - Immutable</t>
   </si>
   <si>
+    <t>325(Medium)</t>
+  </si>
+  <si>
     <t>Maximum Size Subarray Sum Equals k</t>
+  </si>
+  <si>
+    <t>528(Medium)</t>
   </si>
   <si>
     <t>Random Pick with Weight</t>
@@ -1131,11 +1137,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1167,8 +1173,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,33 +1188,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1221,32 +1203,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1261,29 +1251,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1298,7 +1274,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1306,6 +1282,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1320,7 +1326,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,151 +1380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,13 +1398,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,6 +1517,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1538,16 +1559,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1568,17 +1589,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1602,162 +1617,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1771,7 +1777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1780,7 +1786,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2108,7 +2114,7 @@
   <dimension ref="A1:H260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -3178,28 +3184,32 @@
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68">
-        <v>325</v>
+      <c r="A68" t="s">
+        <v>128</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C68" s="2"/>
-      <c r="D68" s="3"/>
+      <c r="D68" s="3">
+        <v>45020</v>
+      </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69">
-        <v>528</v>
+      <c r="A69" t="s">
+        <v>130</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="3"/>
+      <c r="D69" s="3">
+        <v>45020</v>
+      </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -3210,7 +3220,7 @@
         <v>560</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
@@ -3221,13 +3231,13 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D71" s="3">
         <v>45005</v>
@@ -3239,10 +3249,10 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="3">
@@ -3255,10 +3265,10 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="3">
@@ -3271,10 +3281,10 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="3">
@@ -3290,7 +3300,7 @@
         <v>170</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
@@ -3304,7 +3314,7 @@
         <v>653</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
@@ -3318,7 +3328,7 @@
         <v>1099</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
@@ -3332,7 +3342,7 @@
         <v>259</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
@@ -3343,13 +3353,13 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D79" s="3">
         <v>45005</v>
@@ -3364,7 +3374,7 @@
         <v>102</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
@@ -3378,7 +3388,7 @@
         <v>103</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
@@ -3392,7 +3402,7 @@
         <v>107</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
@@ -3406,7 +3416,7 @@
         <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
@@ -3420,10 +3430,10 @@
         <v>207</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3436,7 +3446,7 @@
         <v>210</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
@@ -3450,7 +3460,7 @@
         <v>269</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
@@ -3464,7 +3474,7 @@
         <v>444</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
@@ -3475,13 +3485,13 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D88" s="3">
         <v>45005</v>
@@ -3498,7 +3508,7 @@
         <v>490</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
@@ -3512,7 +3522,7 @@
         <v>505</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
@@ -3526,7 +3536,7 @@
         <v>542</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
@@ -3540,7 +3550,7 @@
         <v>733</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
@@ -3554,7 +3564,7 @@
         <v>994</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
@@ -3568,7 +3578,7 @@
         <v>305</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
@@ -3582,7 +3592,7 @@
         <v>773</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
@@ -3593,13 +3603,13 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D96" s="3">
         <v>45005</v>
@@ -3614,7 +3624,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
@@ -3628,7 +3638,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
@@ -3642,7 +3652,7 @@
         <v>841</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
@@ -3656,7 +3666,7 @@
         <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
@@ -3670,7 +3680,7 @@
         <v>1306</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
@@ -3681,13 +3691,13 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D102" s="3">
         <v>45005</v>
@@ -3699,10 +3709,10 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="3">
@@ -3715,10 +3725,10 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="3">
@@ -3731,13 +3741,13 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D105" s="3">
         <v>45006</v>
@@ -3752,7 +3762,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
@@ -3766,7 +3776,7 @@
         <v>889</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
@@ -3777,13 +3787,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D108" s="3">
         <f>DATE(2023,3,21)</f>
@@ -3799,7 +3809,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
@@ -3813,7 +3823,7 @@
         <v>285</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
@@ -3827,7 +3837,7 @@
         <v>270</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
@@ -3841,7 +3851,7 @@
         <v>272</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
@@ -3855,7 +3865,7 @@
         <v>510</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
@@ -3869,10 +3879,10 @@
         <v>98</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3885,7 +3895,7 @@
         <v>100</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
@@ -3899,7 +3909,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
@@ -3913,7 +3923,7 @@
         <v>110</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
@@ -3927,10 +3937,10 @@
         <v>111</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -3943,7 +3953,7 @@
         <v>104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
@@ -3957,7 +3967,7 @@
         <v>333</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
@@ -3971,10 +3981,10 @@
         <v>112</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -3987,7 +3997,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
@@ -4001,7 +4011,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
@@ -4015,7 +4025,7 @@
         <v>298</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
@@ -4029,7 +4039,7 @@
         <v>549</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
@@ -4043,10 +4053,10 @@
         <v>236</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -4059,10 +4069,10 @@
         <v>199</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -4075,7 +4085,7 @@
         <v>513</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
@@ -4089,7 +4099,7 @@
         <v>331</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
@@ -4103,7 +4113,7 @@
         <v>449</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
@@ -4117,7 +4127,7 @@
         <v>114</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
@@ -4128,13 +4138,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D132" s="3">
         <v>45007</v>
@@ -4146,10 +4156,10 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="3">
@@ -4162,10 +4172,10 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="3">
@@ -4178,10 +4188,10 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="3">
@@ -4194,10 +4204,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="3">
@@ -4210,10 +4220,10 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="3">
@@ -4226,10 +4236,10 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="3">
@@ -4245,7 +4255,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
@@ -4259,7 +4269,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
@@ -4273,7 +4283,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
@@ -4287,7 +4297,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
@@ -4301,7 +4311,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
@@ -4315,7 +4325,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
@@ -4329,7 +4339,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
@@ -4343,7 +4353,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
@@ -4357,7 +4367,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
@@ -4371,7 +4381,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
@@ -4385,10 +4395,10 @@
         <v>113</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4401,7 +4411,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
@@ -4415,10 +4425,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4431,7 +4441,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
@@ -4445,7 +4455,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
@@ -4459,7 +4469,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
@@ -4473,7 +4483,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
@@ -4487,7 +4497,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
@@ -4501,10 +4511,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4517,7 +4527,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
@@ -4531,7 +4541,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
@@ -4545,7 +4555,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
@@ -4559,7 +4569,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
@@ -4573,10 +4583,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -4589,7 +4599,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
@@ -4603,7 +4613,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
@@ -4617,7 +4627,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
@@ -4631,7 +4641,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
@@ -4642,13 +4652,13 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D167" s="3">
         <v>45008</v>
@@ -4685,7 +4695,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
@@ -4699,7 +4709,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
@@ -4713,7 +4723,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
@@ -4741,7 +4751,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
@@ -4755,7 +4765,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
@@ -4783,7 +4793,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
@@ -4811,7 +4821,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
@@ -4825,7 +4835,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
@@ -4867,7 +4877,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
@@ -4906,13 +4916,13 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D185" s="3">
         <v>45008</v>
@@ -4927,7 +4937,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
@@ -4941,7 +4951,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
@@ -4955,7 +4965,7 @@
         <v>560</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
@@ -4969,7 +4979,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
@@ -4983,7 +4993,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
@@ -4994,13 +5004,13 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D191" s="3">
         <v>45009</v>
@@ -5043,7 +5053,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
@@ -5057,7 +5067,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
@@ -5071,7 +5081,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
@@ -5113,10 +5123,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D199" s="3">
         <v>45009</v>
@@ -5131,7 +5141,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
@@ -5145,7 +5155,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
@@ -5159,7 +5169,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
@@ -5173,7 +5183,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
@@ -5187,7 +5197,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
@@ -5201,7 +5211,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
@@ -5212,13 +5222,13 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D206" s="3">
         <v>45009</v>
@@ -5233,7 +5243,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
@@ -5261,7 +5271,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
@@ -5275,10 +5285,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -5291,7 +5301,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
@@ -5305,7 +5315,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
@@ -5324,7 +5334,7 @@
         <v>Number of Islands</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D213" s="3">
         <f>D88</f>
@@ -5365,7 +5375,7 @@
         <v>323</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
@@ -5382,7 +5392,7 @@
         <v>85</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -5406,13 +5416,13 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D218" s="3">
         <v>45010</v>
@@ -5427,7 +5437,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
@@ -5441,7 +5451,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
@@ -5455,7 +5465,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
@@ -5469,7 +5479,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
@@ -5480,13 +5490,13 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D223" s="3">
         <v>45010</v>
@@ -5498,10 +5508,10 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="3">
@@ -5517,7 +5527,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
@@ -5531,7 +5541,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
@@ -5545,7 +5555,7 @@
         <v>528</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="3"/>
@@ -5559,7 +5569,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
@@ -5573,7 +5583,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
@@ -5587,7 +5597,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
@@ -5601,10 +5611,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5617,10 +5627,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5633,7 +5643,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
@@ -5644,10 +5654,10 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="3">
@@ -5663,7 +5673,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -5677,7 +5687,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -5688,10 +5698,10 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="3">
@@ -5707,7 +5717,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -5718,13 +5728,13 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D239" s="3">
         <v>45012</v>
@@ -5739,7 +5749,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5753,7 +5763,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5767,7 +5777,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5781,7 +5791,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5795,7 +5805,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5809,10 +5819,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5825,7 +5835,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5839,7 +5849,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5850,13 +5860,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D248" s="3">
         <v>45011</v>
@@ -5868,10 +5878,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3">
@@ -5884,10 +5894,10 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3">
@@ -5900,10 +5910,10 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="3">
@@ -5916,10 +5926,10 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3">
@@ -5935,7 +5945,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5946,13 +5956,13 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D254" s="3">
         <v>45013</v>
@@ -5967,7 +5977,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -5978,10 +5988,10 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3">
@@ -5997,7 +6007,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -6008,13 +6018,13 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D258" s="3">
         <v>45017</v>
@@ -6026,10 +6036,10 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3">
@@ -6042,10 +6052,10 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="3">

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11500"/>
+    <workbookView windowWidth="28800" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="376">
   <si>
     <t>Question Number</t>
   </si>
@@ -211,7 +211,7 @@
     <t>Merge Two Sorted Lists</t>
   </si>
   <si>
-    <t>`</t>
+    <t>多指针：链表</t>
   </si>
   <si>
     <t>86(Medium)</t>
@@ -412,6 +412,9 @@
     <t>Random Pick with Weight</t>
   </si>
   <si>
+    <t>560(Medium)</t>
+  </si>
+  <si>
     <t>Subarray Sum Equals K</t>
   </si>
   <si>
@@ -463,10 +466,19 @@
     <t>BFS：二叉树</t>
   </si>
   <si>
+    <t>102(Medium)</t>
+  </si>
+  <si>
     <t>Binary Tree Level Order Traversal</t>
   </si>
   <si>
+    <t>103(Medium)</t>
+  </si>
+  <si>
     <t>Binary Tree Zigzag Level Order Traversal</t>
+  </si>
+  <si>
+    <t>107(Medium)</t>
   </si>
   <si>
     <t>Binary Tree Level Order Traversal II</t>
@@ -1138,9 +1150,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1188,26 +1200,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1227,10 +1232,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1244,9 +1256,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1258,23 +1284,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1289,29 +1323,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1326,7 +1338,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1338,31 +1404,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,139 +1512,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1535,15 +1547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1555,21 +1558,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1591,19 +1579,19 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1617,147 +1605,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2113,8 +2125,8 @@
   <sheetPr/>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -2595,7 +2607,9 @@
       <c r="D30" s="3">
         <v>45014</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3">
+        <v>45020</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -3216,14 +3230,16 @@
       <c r="H69" s="3"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70">
-        <v>560</v>
+      <c r="A70" t="s">
+        <v>132</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C70" s="2"/>
-      <c r="D70" s="3"/>
+      <c r="D70" s="3">
+        <v>45020</v>
+      </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -3231,13 +3247,13 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D71" s="3">
         <v>45005</v>
@@ -3249,10 +3265,10 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="3">
@@ -3265,10 +3281,10 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="3">
@@ -3281,10 +3297,10 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="3">
@@ -3300,7 +3316,7 @@
         <v>170</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
@@ -3314,7 +3330,7 @@
         <v>653</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
@@ -3328,7 +3344,7 @@
         <v>1099</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
@@ -3342,7 +3358,7 @@
         <v>259</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
@@ -3353,13 +3369,13 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D79" s="3">
         <v>45005</v>
@@ -3370,42 +3386,48 @@
       <c r="H79" s="3"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80">
-        <v>102</v>
+      <c r="A80" t="s">
+        <v>150</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C80" s="2"/>
-      <c r="D80" s="3"/>
+      <c r="D80" s="3">
+        <v>45020</v>
+      </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81">
-        <v>103</v>
+      <c r="A81" t="s">
+        <v>152</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C81" s="2"/>
-      <c r="D81" s="3"/>
+      <c r="D81" s="3">
+        <v>45020</v>
+      </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82">
-        <v>107</v>
+      <c r="A82" t="s">
+        <v>154</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C82" s="2"/>
-      <c r="D82" s="3"/>
+      <c r="D82" s="3">
+        <v>45020</v>
+      </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -3416,7 +3438,7 @@
         <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
@@ -3430,10 +3452,10 @@
         <v>207</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3446,7 +3468,7 @@
         <v>210</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
@@ -3460,7 +3482,7 @@
         <v>269</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
@@ -3474,7 +3496,7 @@
         <v>444</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
@@ -3485,13 +3507,13 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D88" s="3">
         <v>45005</v>
@@ -3508,7 +3530,7 @@
         <v>490</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
@@ -3522,7 +3544,7 @@
         <v>505</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
@@ -3536,7 +3558,7 @@
         <v>542</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
@@ -3550,7 +3572,7 @@
         <v>733</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
@@ -3564,7 +3586,7 @@
         <v>994</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
@@ -3578,7 +3600,7 @@
         <v>305</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
@@ -3592,7 +3614,7 @@
         <v>773</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
@@ -3603,13 +3625,13 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D96" s="3">
         <v>45005</v>
@@ -3624,7 +3646,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
@@ -3638,7 +3660,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
@@ -3652,7 +3674,7 @@
         <v>841</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
@@ -3666,7 +3688,7 @@
         <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
@@ -3680,7 +3702,7 @@
         <v>1306</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
@@ -3691,13 +3713,13 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D102" s="3">
         <v>45005</v>
@@ -3709,10 +3731,10 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="3">
@@ -3725,10 +3747,10 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="3">
@@ -3741,13 +3763,13 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D105" s="3">
         <v>45006</v>
@@ -3762,7 +3784,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
@@ -3776,7 +3798,7 @@
         <v>889</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
@@ -3787,13 +3809,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D108" s="3">
         <f>DATE(2023,3,21)</f>
@@ -3809,7 +3831,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
@@ -3823,7 +3845,7 @@
         <v>285</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
@@ -3837,7 +3859,7 @@
         <v>270</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
@@ -3851,7 +3873,7 @@
         <v>272</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
@@ -3865,7 +3887,7 @@
         <v>510</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
@@ -3879,10 +3901,10 @@
         <v>98</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3895,7 +3917,7 @@
         <v>100</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
@@ -3909,7 +3931,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
@@ -3923,7 +3945,7 @@
         <v>110</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
@@ -3937,10 +3959,10 @@
         <v>111</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -3953,7 +3975,7 @@
         <v>104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
@@ -3967,7 +3989,7 @@
         <v>333</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
@@ -3981,10 +4003,10 @@
         <v>112</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -3997,7 +4019,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
@@ -4011,7 +4033,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
@@ -4025,7 +4047,7 @@
         <v>298</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
@@ -4039,7 +4061,7 @@
         <v>549</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
@@ -4053,10 +4075,10 @@
         <v>236</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -4069,10 +4091,10 @@
         <v>199</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -4085,7 +4107,7 @@
         <v>513</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
@@ -4099,7 +4121,7 @@
         <v>331</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
@@ -4113,7 +4135,7 @@
         <v>449</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
@@ -4127,7 +4149,7 @@
         <v>114</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
@@ -4138,13 +4160,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D132" s="3">
         <v>45007</v>
@@ -4156,10 +4178,10 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="3">
@@ -4172,10 +4194,10 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="3">
@@ -4188,10 +4210,10 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="3">
@@ -4204,10 +4226,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="3">
@@ -4220,10 +4242,10 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="3">
@@ -4236,10 +4258,10 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="3">
@@ -4255,7 +4277,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
@@ -4269,7 +4291,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
@@ -4283,7 +4305,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
@@ -4297,7 +4319,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
@@ -4311,7 +4333,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
@@ -4325,7 +4347,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
@@ -4339,7 +4361,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
@@ -4353,7 +4375,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
@@ -4367,7 +4389,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
@@ -4381,7 +4403,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
@@ -4395,10 +4417,10 @@
         <v>113</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4411,7 +4433,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
@@ -4425,10 +4447,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4441,7 +4463,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
@@ -4455,7 +4477,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
@@ -4469,7 +4491,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
@@ -4483,7 +4505,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
@@ -4497,7 +4519,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
@@ -4511,10 +4533,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4527,7 +4549,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
@@ -4541,7 +4563,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
@@ -4555,7 +4577,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
@@ -4569,7 +4591,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
@@ -4583,10 +4605,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -4599,7 +4621,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
@@ -4613,7 +4635,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
@@ -4627,7 +4649,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
@@ -4641,7 +4663,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
@@ -4652,13 +4674,13 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D167" s="3">
         <v>45008</v>
@@ -4695,7 +4717,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
@@ -4709,7 +4731,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
@@ -4723,7 +4745,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
@@ -4751,7 +4773,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
@@ -4765,7 +4787,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
@@ -4793,7 +4815,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
@@ -4821,7 +4843,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
@@ -4835,7 +4857,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
@@ -4877,7 +4899,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
@@ -4916,13 +4938,13 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D185" s="3">
         <v>45008</v>
@@ -4937,7 +4959,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
@@ -4951,7 +4973,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
@@ -4965,7 +4987,7 @@
         <v>560</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
@@ -4979,7 +5001,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
@@ -4993,7 +5015,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
@@ -5004,13 +5026,13 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D191" s="3">
         <v>45009</v>
@@ -5053,7 +5075,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
@@ -5067,7 +5089,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
@@ -5081,7 +5103,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
@@ -5123,10 +5145,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D199" s="3">
         <v>45009</v>
@@ -5141,7 +5163,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
@@ -5155,7 +5177,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
@@ -5169,7 +5191,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
@@ -5183,7 +5205,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
@@ -5197,7 +5219,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
@@ -5211,7 +5233,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
@@ -5222,13 +5244,13 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D206" s="3">
         <v>45009</v>
@@ -5243,7 +5265,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
@@ -5271,7 +5293,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
@@ -5285,10 +5307,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -5301,7 +5323,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
@@ -5315,7 +5337,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
@@ -5334,7 +5356,7 @@
         <v>Number of Islands</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D213" s="3">
         <f>D88</f>
@@ -5375,7 +5397,7 @@
         <v>323</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
@@ -5392,7 +5414,7 @@
         <v>85</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -5416,13 +5438,13 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D218" s="3">
         <v>45010</v>
@@ -5437,7 +5459,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
@@ -5451,7 +5473,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
@@ -5465,7 +5487,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
@@ -5479,7 +5501,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
@@ -5490,13 +5512,13 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D223" s="3">
         <v>45010</v>
@@ -5508,10 +5530,10 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="3">
@@ -5527,7 +5549,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
@@ -5541,7 +5563,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
@@ -5569,7 +5591,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
@@ -5583,7 +5605,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
@@ -5597,7 +5619,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
@@ -5611,10 +5633,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5627,10 +5649,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5643,7 +5665,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
@@ -5654,10 +5676,10 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="3">
@@ -5673,7 +5695,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -5687,7 +5709,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -5698,10 +5720,10 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="3">
@@ -5717,7 +5739,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -5728,13 +5750,13 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D239" s="3">
         <v>45012</v>
@@ -5749,7 +5771,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5763,7 +5785,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5777,7 +5799,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5791,7 +5813,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5805,7 +5827,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5819,10 +5841,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5835,7 +5857,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5849,7 +5871,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5860,13 +5882,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D248" s="3">
         <v>45011</v>
@@ -5878,10 +5900,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3">
@@ -5894,10 +5916,10 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3">
@@ -5910,10 +5932,10 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="3">
@@ -5926,10 +5948,10 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3">
@@ -5945,7 +5967,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5956,13 +5978,13 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D254" s="3">
         <v>45013</v>
@@ -5977,7 +5999,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -5988,10 +6010,10 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3">
@@ -6007,7 +6029,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -6018,13 +6040,13 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D258" s="3">
         <v>45017</v>
@@ -6036,10 +6058,10 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3">
@@ -6052,10 +6074,10 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="3">

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="379">
   <si>
     <t>Question Number</t>
   </si>
@@ -484,13 +484,22 @@
     <t>Binary Tree Level Order Traversal II</t>
   </si>
   <si>
+    <t>513(Medium)</t>
+  </si>
+  <si>
     <t>Find Bottom Left Tree Value</t>
   </si>
   <si>
+    <t>207(Medium)</t>
+  </si>
+  <si>
     <t>Course Schedule</t>
   </si>
   <si>
     <t>BFS：拓扑排序</t>
+  </si>
+  <si>
+    <t>210(Medium)</t>
   </si>
   <si>
     <t>Course Schedule II</t>
@@ -1150,8 +1159,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1185,23 +1194,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1231,16 +1233,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1249,6 +1265,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1263,21 +1286,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1290,44 +1337,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1335,12 +1344,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1356,7 +1359,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,7 +1395,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,13 +1491,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,121 +1515,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1543,6 +1552,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1588,33 +1615,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1629,153 +1629,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2126,7 +2135,7 @@
   <dimension ref="A1:H260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -3434,44 +3443,50 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83">
-        <v>513</v>
+      <c r="A83" t="s">
+        <v>156</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C83" s="2"/>
-      <c r="D83" s="3"/>
+      <c r="D83" s="3">
+        <v>45021</v>
+      </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84">
-        <v>207</v>
+      <c r="A84" t="s">
+        <v>158</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D84" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="D84" s="3">
+        <v>45021</v>
+      </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85">
-        <v>210</v>
+      <c r="A85" t="s">
+        <v>161</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C85" s="2"/>
-      <c r="D85" s="3"/>
+      <c r="D85" s="3">
+        <v>45021</v>
+      </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -3482,7 +3497,7 @@
         <v>269</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
@@ -3496,7 +3511,7 @@
         <v>444</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
@@ -3507,13 +3522,13 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D88" s="3">
         <v>45005</v>
@@ -3530,7 +3545,7 @@
         <v>490</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
@@ -3544,7 +3559,7 @@
         <v>505</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
@@ -3558,7 +3573,7 @@
         <v>542</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
@@ -3572,7 +3587,7 @@
         <v>733</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
@@ -3586,7 +3601,7 @@
         <v>994</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
@@ -3600,7 +3615,7 @@
         <v>305</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
@@ -3614,7 +3629,7 @@
         <v>773</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
@@ -3625,13 +3640,13 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D96" s="3">
         <v>45005</v>
@@ -3646,7 +3661,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
@@ -3660,7 +3675,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
@@ -3674,7 +3689,7 @@
         <v>841</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
@@ -3688,7 +3703,7 @@
         <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
@@ -3702,7 +3717,7 @@
         <v>1306</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
@@ -3713,13 +3728,13 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D102" s="3">
         <v>45005</v>
@@ -3731,10 +3746,10 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="3">
@@ -3747,10 +3762,10 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="3">
@@ -3763,13 +3778,13 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D105" s="3">
         <v>45006</v>
@@ -3784,7 +3799,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
@@ -3798,7 +3813,7 @@
         <v>889</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
@@ -3809,13 +3824,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D108" s="3">
         <f>DATE(2023,3,21)</f>
@@ -3831,7 +3846,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
@@ -3845,7 +3860,7 @@
         <v>285</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
@@ -3859,7 +3874,7 @@
         <v>270</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
@@ -3873,7 +3888,7 @@
         <v>272</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
@@ -3887,7 +3902,7 @@
         <v>510</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
@@ -3901,10 +3916,10 @@
         <v>98</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3917,7 +3932,7 @@
         <v>100</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
@@ -3931,7 +3946,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
@@ -3945,7 +3960,7 @@
         <v>110</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
@@ -3959,10 +3974,10 @@
         <v>111</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -3975,7 +3990,7 @@
         <v>104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
@@ -3989,7 +4004,7 @@
         <v>333</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
@@ -4003,10 +4018,10 @@
         <v>112</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -4019,7 +4034,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
@@ -4033,7 +4048,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
@@ -4047,7 +4062,7 @@
         <v>298</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
@@ -4061,7 +4076,7 @@
         <v>549</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
@@ -4075,10 +4090,10 @@
         <v>236</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -4091,10 +4106,10 @@
         <v>199</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -4107,7 +4122,7 @@
         <v>513</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
@@ -4121,7 +4136,7 @@
         <v>331</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
@@ -4135,7 +4150,7 @@
         <v>449</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
@@ -4149,7 +4164,7 @@
         <v>114</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
@@ -4160,13 +4175,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D132" s="3">
         <v>45007</v>
@@ -4178,10 +4193,10 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="3">
@@ -4194,10 +4209,10 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="3">
@@ -4210,10 +4225,10 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="3">
@@ -4226,10 +4241,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="3">
@@ -4242,10 +4257,10 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="3">
@@ -4258,10 +4273,10 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="3">
@@ -4277,7 +4292,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
@@ -4291,7 +4306,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
@@ -4305,7 +4320,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
@@ -4319,7 +4334,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
@@ -4333,7 +4348,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
@@ -4347,7 +4362,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
@@ -4361,7 +4376,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
@@ -4375,7 +4390,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
@@ -4389,7 +4404,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
@@ -4403,7 +4418,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
@@ -4417,10 +4432,10 @@
         <v>113</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4433,7 +4448,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
@@ -4447,10 +4462,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4463,7 +4478,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
@@ -4477,7 +4492,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
@@ -4491,7 +4506,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
@@ -4505,7 +4520,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
@@ -4519,7 +4534,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
@@ -4533,10 +4548,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4549,7 +4564,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
@@ -4563,7 +4578,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
@@ -4577,7 +4592,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
@@ -4591,7 +4606,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
@@ -4605,10 +4620,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -4621,7 +4636,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
@@ -4635,7 +4650,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
@@ -4649,7 +4664,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
@@ -4663,7 +4678,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
@@ -4674,13 +4689,13 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D167" s="3">
         <v>45008</v>
@@ -4717,7 +4732,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
@@ -4731,7 +4746,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
@@ -4745,7 +4760,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
@@ -4773,7 +4788,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
@@ -4787,7 +4802,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
@@ -4815,7 +4830,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
@@ -4843,7 +4858,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
@@ -4857,7 +4872,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
@@ -4899,7 +4914,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
@@ -4938,13 +4953,13 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D185" s="3">
         <v>45008</v>
@@ -4959,7 +4974,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
@@ -4973,7 +4988,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
@@ -5001,7 +5016,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
@@ -5015,7 +5030,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
@@ -5026,13 +5041,13 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D191" s="3">
         <v>45009</v>
@@ -5075,7 +5090,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
@@ -5089,7 +5104,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
@@ -5103,7 +5118,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
@@ -5145,10 +5160,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D199" s="3">
         <v>45009</v>
@@ -5163,7 +5178,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
@@ -5177,7 +5192,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
@@ -5191,7 +5206,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
@@ -5205,7 +5220,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
@@ -5219,7 +5234,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
@@ -5233,7 +5248,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
@@ -5244,13 +5259,13 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D206" s="3">
         <v>45009</v>
@@ -5265,7 +5280,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
@@ -5293,7 +5308,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
@@ -5307,10 +5322,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -5323,7 +5338,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
@@ -5337,7 +5352,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
@@ -5356,7 +5371,7 @@
         <v>Number of Islands</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D213" s="3">
         <f>D88</f>
@@ -5397,7 +5412,7 @@
         <v>323</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
@@ -5414,7 +5429,7 @@
         <v>85</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -5438,13 +5453,13 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D218" s="3">
         <v>45010</v>
@@ -5459,7 +5474,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
@@ -5473,7 +5488,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
@@ -5487,7 +5502,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
@@ -5501,7 +5516,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
@@ -5512,13 +5527,13 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D223" s="3">
         <v>45010</v>
@@ -5530,10 +5545,10 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="3">
@@ -5549,7 +5564,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
@@ -5563,7 +5578,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
@@ -5591,7 +5606,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
@@ -5605,7 +5620,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
@@ -5619,7 +5634,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
@@ -5633,10 +5648,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5649,10 +5664,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5665,7 +5680,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
@@ -5676,10 +5691,10 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="3">
@@ -5695,7 +5710,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -5709,7 +5724,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -5720,10 +5735,10 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="3">
@@ -5739,7 +5754,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -5750,13 +5765,13 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D239" s="3">
         <v>45012</v>
@@ -5771,7 +5786,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5785,7 +5800,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5799,7 +5814,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5813,7 +5828,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5827,7 +5842,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5841,10 +5856,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5857,7 +5872,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5871,7 +5886,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5882,13 +5897,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D248" s="3">
         <v>45011</v>
@@ -5900,10 +5915,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3">
@@ -5916,10 +5931,10 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3">
@@ -5932,10 +5947,10 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="3">
@@ -5948,10 +5963,10 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3">
@@ -5967,7 +5982,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5978,13 +5993,13 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D254" s="3">
         <v>45013</v>
@@ -5999,7 +6014,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -6010,10 +6025,10 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3">
@@ -6029,7 +6044,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -6040,13 +6055,13 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D258" s="3">
         <v>45017</v>
@@ -6058,10 +6073,10 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3">
@@ -6074,10 +6089,10 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="3">

--- a/Leetcode Process.xlsx
+++ b/Leetcode Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="383">
   <si>
     <t>Question Number</t>
   </si>
@@ -505,6 +505,9 @@
     <t>Course Schedule II</t>
   </si>
   <si>
+    <t>269(Hard)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Alien Dictionary</t>
   </si>
   <si>
@@ -520,10 +523,19 @@
     <t>BFS：矩阵</t>
   </si>
   <si>
+    <t>490(Medium)</t>
+  </si>
+  <si>
     <t>The Maze</t>
   </si>
   <si>
+    <t>505(Medium)</t>
+  </si>
+  <si>
     <t>The Maze II</t>
+  </si>
+  <si>
+    <t>542(Medium)</t>
   </si>
   <si>
     <t>01 Matrix</t>
@@ -1159,10 +1171,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1194,9 +1206,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1210,6 +1229,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1218,32 +1244,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1252,13 +1257,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1285,13 +1283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1301,7 +1292,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1316,22 +1329,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1347,7 +1359,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,169 +1533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1538,21 +1550,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1630,6 +1627,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1643,148 +1655,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2134,8 +2146,8 @@
   <sheetPr/>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -3493,14 +3505,16 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86">
-        <v>269</v>
+      <c r="A86" t="s">
+        <v>163</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="D86" s="3"/>
+      <c r="D86" s="3">
+        <v>45021</v>
+      </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -3511,7 +3525,7 @@
         <v>444</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
@@ -3522,13 +3536,13 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D88" s="3">
         <v>45005</v>
@@ -3541,42 +3555,48 @@
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89">
-        <v>490</v>
+      <c r="A89" t="s">
+        <v>169</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C89" s="2"/>
-      <c r="D89" s="3"/>
+      <c r="D89" s="3">
+        <v>45022</v>
+      </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90">
-        <v>505</v>
+      <c r="A90" t="s">
+        <v>171</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="3"/>
+      <c r="D90" s="3">
+        <v>45022</v>
+      </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91">
-        <v>542</v>
+      <c r="A91" t="s">
+        <v>173</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="3"/>
+      <c r="D91" s="3">
+        <v>45022</v>
+      </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -3587,7 +3607,7 @@
         <v>733</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
@@ -3601,7 +3621,7 @@
         <v>994</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
@@ -3615,7 +3635,7 @@
         <v>305</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
@@ -3629,7 +3649,7 @@
         <v>773</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
@@ -3640,13 +3660,13 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D96" s="3">
         <v>45005</v>
@@ -3661,7 +3681,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
@@ -3675,7 +3695,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
@@ -3689,7 +3709,7 @@
         <v>841</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
@@ -3703,7 +3723,7 @@
         <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
@@ -3717,7 +3737,7 @@
         <v>1306</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
@@ -3728,13 +3748,13 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D102" s="3">
         <v>45005</v>
@@ -3746,10 +3766,10 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="3">
@@ -3762,10 +3782,10 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="3">
@@ -3778,13 +3798,13 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D105" s="3">
         <v>45006</v>
@@ -3799,7 +3819,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
@@ -3813,7 +3833,7 @@
         <v>889</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
@@ -3824,13 +3844,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D108" s="3">
         <f>DATE(2023,3,21)</f>
@@ -3846,7 +3866,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
@@ -3860,7 +3880,7 @@
         <v>285</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
@@ -3874,7 +3894,7 @@
         <v>270</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
@@ -3888,7 +3908,7 @@
         <v>272</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
@@ -3902,7 +3922,7 @@
         <v>510</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
@@ -3916,10 +3936,10 @@
         <v>98</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3932,7 +3952,7 @@
         <v>100</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
@@ -3946,7 +3966,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
@@ -3960,7 +3980,7 @@
         <v>110</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
@@ -3974,10 +3994,10 @@
         <v>111</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -3990,7 +4010,7 @@
         <v>104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
@@ -4004,7 +4024,7 @@
         <v>333</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
@@ -4018,10 +4038,10 @@
         <v>112</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -4034,7 +4054,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
@@ -4048,7 +4068,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
@@ -4062,7 +4082,7 @@
         <v>298</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
@@ -4076,7 +4096,7 @@
         <v>549</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
@@ -4090,10 +4110,10 @@
         <v>236</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -4106,10 +4126,10 @@
         <v>199</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -4136,7 +4156,7 @@
         <v>331</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
@@ -4150,7 +4170,7 @@
         <v>449</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
@@ -4164,7 +4184,7 @@
         <v>114</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
@@ -4175,13 +4195,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D132" s="3">
         <v>45007</v>
@@ -4193,10 +4213,10 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="3">
@@ -4209,10 +4229,10 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="3">
@@ -4225,10 +4245,10 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="3">
@@ -4241,10 +4261,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="3">
@@ -4257,10 +4277,10 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="3">
@@ -4273,10 +4293,10 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="3">
@@ -4292,7 +4312,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
@@ -4306,7 +4326,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
@@ -4320,7 +4340,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
@@ -4334,7 +4354,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
@@ -4348,7 +4368,7 @@
         <v>301</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
@@ -4362,7 +4382,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
@@ -4376,7 +4396,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
@@ -4390,7 +4410,7 @@
         <v>52</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
@@ -4404,7 +4424,7 @@
         <v>93</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
@@ -4418,7 +4438,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
@@ -4432,10 +4452,10 @@
         <v>113</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4448,7 +4468,7 @@
         <v>257</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
@@ -4462,10 +4482,10 @@
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4478,7 +4498,7 @@
         <v>494</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
@@ -4492,7 +4512,7 @@
         <v>1192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
@@ -4506,7 +4526,7 @@
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
@@ -4520,7 +4540,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
@@ -4534,7 +4554,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
@@ -4548,10 +4568,10 @@
         <v>442</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4564,7 +4584,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
@@ -4578,7 +4598,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
@@ -4592,7 +4612,7 @@
         <v>73</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
@@ -4606,7 +4626,7 @@
         <v>289</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
@@ -4620,10 +4640,10 @@
         <v>6</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -4636,7 +4656,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
@@ -4650,7 +4670,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
@@ -4664,7 +4684,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
@@ -4678,7 +4698,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
@@ -4689,13 +4709,13 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D167" s="3">
         <v>45008</v>
@@ -4732,7 +4752,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
@@ -4746,7 +4766,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
@@ -4760,7 +4780,7 @@
         <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
@@ -4788,7 +4808,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
@@ -4802,7 +4822,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
@@ -4830,7 +4850,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
@@ -4858,7 +4878,7 @@
         <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
@@ -4872,7 +4892,7 @@
         <v>206</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
@@ -4914,7 +4934,7 @@
         <v>445</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
@@ -4953,13 +4973,13 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D185" s="3">
         <v>45008</v>
@@ -4974,7 +4994,7 @@
         <v>49</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
@@ -4988,7 +5008,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
@@ -5016,7 +5036,7 @@
         <v>953</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
@@ -5030,7 +5050,7 @@
         <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
@@ -5041,13 +5061,13 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D191" s="3">
         <v>45009</v>
@@ -5090,7 +5110,7 @@
         <v>692</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
@@ -5104,7 +5124,7 @@
         <v>767</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
@@ -5118,7 +5138,7 @@
         <v>973</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
@@ -5160,10 +5180,10 @@
         <v>155</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D199" s="3">
         <v>45009</v>
@@ -5178,7 +5198,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
@@ -5192,7 +5212,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
@@ -5206,7 +5226,7 @@
         <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
@@ -5220,7 +5240,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
@@ -5234,7 +5254,7 @@
         <v>394</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
@@ -5248,7 +5268,7 @@
         <v>1249</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
@@ -5259,13 +5279,13 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D206" s="3">
         <v>45009</v>
@@ -5280,7 +5300,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
@@ -5308,7 +5328,7 @@
         <v>1019</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
@@ -5322,10 +5342,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -5338,7 +5358,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
@@ -5352,7 +5372,7 @@
         <v>1032</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
@@ -5371,7 +5391,7 @@
         <v>Number of Islands</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D213" s="3">
         <f>D88</f>
@@ -5412,7 +5432,7 @@
         <v>323</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
@@ -5429,7 +5449,7 @@
         <v>85</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -5453,13 +5473,13 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D218" s="3">
         <v>45010</v>
@@ -5474,7 +5494,7 @@
         <v>327</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
@@ -5488,7 +5508,7 @@
         <v>715</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
@@ -5502,7 +5522,7 @@
         <v>315</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
@@ -5516,7 +5536,7 @@
         <v>493</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
@@ -5527,13 +5547,13 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D223" s="3">
         <v>45010</v>
@@ -5545,10 +5565,10 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="3">
@@ -5564,7 +5584,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
@@ -5578,7 +5598,7 @@
         <v>380</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
@@ -5606,7 +5626,7 @@
         <v>588</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
@@ -5620,7 +5640,7 @@
         <v>981</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
@@ -5634,7 +5654,7 @@
         <v>1396</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
@@ -5648,10 +5668,10 @@
         <v>473</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5664,10 +5684,10 @@
         <v>139</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5680,7 +5700,7 @@
         <v>121</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
@@ -5691,10 +5711,10 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="3">
@@ -5710,7 +5730,7 @@
         <v>123</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -5724,7 +5744,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -5735,10 +5755,10 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="3">
@@ -5754,7 +5774,7 @@
         <v>265</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -5765,13 +5785,13 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D239" s="3">
         <v>45012</v>
@@ -5786,7 +5806,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -5800,7 +5820,7 @@
         <v>72</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -5814,7 +5834,7 @@
         <v>97</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -5828,7 +5848,7 @@
         <v>115</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -5842,7 +5862,7 @@
         <v>1143</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -5856,10 +5876,10 @@
         <v>312</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -5872,7 +5892,7 @@
         <v>516</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -5886,7 +5906,7 @@
         <v>87</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -5897,13 +5917,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D248" s="3">
         <v>45011</v>
@@ -5915,10 +5935,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="3">
@@ -5931,10 +5951,10 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="3">
@@ -5947,10 +5967,10 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="3">
@@ -5963,10 +5983,10 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="3">
@@ -5982,7 +6002,7 @@
         <v>361</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -5993,13 +6013,13 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D254" s="3">
         <v>45013</v>
@@ -6014,7 +6034,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -6025,10 +6045,10 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="3">
@@ -6044,7 +6064,7 @@
         <v>639</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -6055,13 +6075,13 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D258" s="3">
         <v>45017</v>
@@ -6073,10 +6093,10 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="3">
@@ -6089,10 +6109,10 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-   